--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -5,25 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Miscellaneous\seethamma\PymtHistory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Miscellaneous\seethamma\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18420"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Sethamma Road" sheetId="9" r:id="rId2"/>
-    <sheet name="Crescent" sheetId="8" r:id="rId3"/>
-    <sheet name="3rd Main" sheetId="7" r:id="rId4"/>
-    <sheet name="3rd Cross" sheetId="6" r:id="rId5"/>
-    <sheet name="2nd Main" sheetId="5" r:id="rId6"/>
-    <sheet name="2nd Cross" sheetId="4" r:id="rId7"/>
-    <sheet name="1st Main" sheetId="3" r:id="rId8"/>
-    <sheet name="1st Cross" sheetId="2" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$I$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$88</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="180">
   <si>
     <t>S No</t>
   </si>
@@ -311,6 +303,9 @@
     <t>Raj Residency</t>
   </si>
   <si>
+    <t>Rajl Residency</t>
+  </si>
+  <si>
     <t>Rajammal Kasthuri</t>
   </si>
   <si>
@@ -720,6 +715,9 @@
   </si>
   <si>
     <t>Also has donated Rs1000 for buying dresses for Urbaser Sumeet employees</t>
+  </si>
+  <si>
+    <t>Rs 1500/= Sreshta Tripura Apt Individual subscription + 2500/-for Family meet</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1234,10 @@
   <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomRight" activeCell="P87" sqref="P87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,7 +2047,9 @@
       <c r="G26" s="14">
         <v>25000</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="29">
+        <v>5000</v>
+      </c>
       <c r="I26" s="29" t="s">
         <v>57</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>73</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="8">
@@ -2342,7 +2342,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>55</v>
@@ -2375,10 +2375,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>36</v>
@@ -2408,10 +2408,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>36</v>
@@ -2441,10 +2441,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>39</v>
@@ -2462,7 +2462,7 @@
         <v>2500</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="11"/>
@@ -2476,10 +2476,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>46</v>
@@ -2509,10 +2509,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>46</v>
@@ -2540,7 +2540,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>23</v>
@@ -2573,7 +2573,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>35</v>
@@ -2606,10 +2606,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>19</v>
@@ -2639,10 +2639,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>55</v>
@@ -2668,10 +2668,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>36</v>
@@ -2691,16 +2691,16 @@
       <c r="M46" s="11"/>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>11</v>
@@ -2726,10 +2726,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>11</v>
@@ -2759,7 +2759,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>23</v>
@@ -2788,10 +2788,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>46</v>
@@ -2821,10 +2821,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>11</v>
@@ -2854,7 +2854,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>10</v>
@@ -2885,10 +2885,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>36</v>
@@ -2914,10 +2914,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>36</v>
@@ -2945,10 +2945,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>27</v>
@@ -2978,13 +2978,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>16</v>
@@ -3007,10 +3007,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>36</v>
@@ -3038,10 +3038,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>36</v>
@@ -3067,7 +3067,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>35</v>
@@ -3100,10 +3100,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>19</v>
@@ -3129,7 +3129,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -3158,16 +3158,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8">
@@ -3189,10 +3189,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>39</v>
@@ -3222,10 +3222,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>36</v>
@@ -3246,7 +3246,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>35</v>
@@ -3270,10 +3270,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>39</v>
@@ -3294,10 +3294,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>55</v>
@@ -3318,7 +3318,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="24"/>
@@ -3329,7 +3329,9 @@
       <c r="G68" s="8">
         <v>2500</v>
       </c>
-      <c r="H68" s="21"/>
+      <c r="H68" s="8">
+        <v>2500</v>
+      </c>
       <c r="I68" s="28"/>
     </row>
     <row r="69" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -3338,10 +3340,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>11</v>
@@ -3364,10 +3366,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>11</v>
@@ -3388,16 +3390,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8">
@@ -3414,10 +3416,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>36</v>
@@ -3438,16 +3440,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8">
@@ -3462,10 +3464,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>55</v>
@@ -3486,16 +3488,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8">
@@ -3510,16 +3512,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8">
@@ -3536,25 +3538,27 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8">
         <v>1500</v>
       </c>
       <c r="H77" s="23">
-        <v>1500</v>
-      </c>
-      <c r="I77" s="28"/>
+        <v>4000</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
@@ -3562,7 +3566,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C78" s="6">
         <v>9840023316</v>
@@ -3588,7 +3592,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="7" t="s">
@@ -3601,7 +3605,9 @@
       <c r="G79" s="8">
         <v>2500</v>
       </c>
-      <c r="H79" s="21"/>
+      <c r="H79" s="8">
+        <v>2500</v>
+      </c>
       <c r="I79" s="28"/>
     </row>
     <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3610,10 +3616,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>36</v>
@@ -3634,10 +3640,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>36</v>
@@ -3660,10 +3666,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>36</v>
@@ -3686,10 +3692,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>24</v>
@@ -3712,16 +3718,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8">
@@ -3736,16 +3742,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -3760,16 +3766,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8">
@@ -3784,10 +3790,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>27</v>
@@ -3799,7 +3805,9 @@
       <c r="G87" s="8">
         <v>2500</v>
       </c>
-      <c r="H87" s="21"/>
+      <c r="H87" s="8">
+        <v>2500</v>
+      </c>
       <c r="I87" s="28"/>
     </row>
     <row r="88" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
@@ -3808,10 +3816,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>36</v>
@@ -3825,7 +3833,7 @@
         <v>2500</v>
       </c>
       <c r="I88" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3834,10 +3842,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>39</v>
@@ -3858,16 +3866,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="8">
@@ -3876,7 +3884,7 @@
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -3885,7 +3893,7 @@
         <v>71</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>27</v>
@@ -3902,7 +3910,7 @@
     </row>
     <row r="93" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C93" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D93" s="33"/>
       <c r="E93" s="33"/>
@@ -3921,7 +3929,7 @@
     <row r="95" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D95" s="33"/>
       <c r="E95" s="35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F95" s="37">
         <f>COUNTIFS(E2:E91, "House", F2:F91, "&gt;0")</f>
@@ -3933,13 +3941,13 @@
       </c>
       <c r="H95" s="37">
         <f>COUNTIFS(E2:E91, "House", H2:H91, "&gt;0")</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D96" s="33"/>
       <c r="E96" s="35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F96" s="37">
         <f>COUNTIFS(E2:E91, "Apartment", F2:F91, "&gt;0")</f>
@@ -3957,7 +3965,7 @@
     <row r="97" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D97" s="33"/>
       <c r="E97" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F97" s="37">
         <f>COUNTIFS(E2:E91, "Ind. Apartment", F2:F91, "&gt;0")</f>
@@ -3982,7 +3990,7 @@
     </row>
     <row r="100" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C100" s="36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D100">
         <f>COUNTIF(D2:D91, "")</f>
@@ -3999,11 +4007,11 @@
       </c>
       <c r="F102" s="37">
         <f>COUNTIFS(D2:D91, "1st Main", F2:F91, "&gt;0")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G102" s="37">
         <f>COUNTIFS(D2:D91, "1st Main", G2:G91, "&gt;0")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H102" s="37">
         <f>COUNTIFS(D2:D91, "1st Main", H2:H91, "&gt;0")</f>
@@ -4075,7 +4083,7 @@
       </c>
       <c r="H106" s="37">
         <f>COUNTIFS(D2:D91, "2nd Cross", H2:H91, "&gt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4092,7 +4100,7 @@
       </c>
       <c r="H107" s="37">
         <f>COUNTIFS(D2:D91, "3rd Cross", H2:H91, "&gt;0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4130,7 +4138,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I91">
+  <autoFilter ref="A1:I88">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4140,2260 +4148,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H2" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="14">
-        <v>20000</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G4" s="8">
-        <v>7500</v>
-      </c>
-      <c r="H4" s="9">
-        <v>7500</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H5" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G6" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H6" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>21</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G7" s="17">
-        <v>10000</v>
-      </c>
-      <c r="H7" s="19">
-        <v>10000</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>26</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8">
-        <v>5000</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H8" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>28</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G10" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>47</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G11" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H11" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>50</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8">
-        <v>15000</v>
-      </c>
-      <c r="G12" s="8">
-        <v>15000</v>
-      </c>
-      <c r="H12" s="19">
-        <v>15000</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>51</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G13" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>68</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8">
-        <v>7500</v>
-      </c>
-      <c r="H14" s="23">
-        <v>7500</v>
-      </c>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>69</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8">
-        <v>10000</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H2" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>66</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>73</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>77</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="6">
-        <v>9840023316</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H5" s="23">
-        <v>2500</v>
-      </c>
-      <c r="I5" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H3" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="14">
-        <v>3000</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>36</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G6" s="8">
-        <v>7500</v>
-      </c>
-      <c r="H6" s="9">
-        <v>7500</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>37</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G7" s="8">
-        <v>7500</v>
-      </c>
-      <c r="H7" s="9">
-        <v>7500</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>42</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2500.59</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2501.1799999999998</v>
-      </c>
-      <c r="H8" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>53</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>56</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G10" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>58</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H11" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>63</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>64</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>71</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>79</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>80</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H16" s="23">
-        <v>2500</v>
-      </c>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>81</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="14">
-        <v>3000</v>
-      </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>89</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G2" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H2" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H3" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>43</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H4" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>70</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H5" s="23">
-        <v>1500</v>
-      </c>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>72</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>74</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>78</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>83</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>85</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>13</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="17">
-        <v>7500</v>
-      </c>
-      <c r="G2" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>38</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G3" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H3" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>61</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1500</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>62</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G5" s="8">
-        <v>7500</v>
-      </c>
-      <c r="H5" s="19">
-        <v>7500</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>65</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
-        <v>5000</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>75</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>1875</v>
-      </c>
-      <c r="H7" s="23">
-        <v>1500</v>
-      </c>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>88</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H3" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="14">
-        <v>25000</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>41</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H5" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>82</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H6" s="23">
-        <v>2500</v>
-      </c>
-      <c r="I6" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>54</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H2" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>86</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <f t="shared" ref="A4" si="0">A3+1</f>
-        <v>87</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G4" s="8">
-        <v>7500</v>
-      </c>
-      <c r="H4" s="9">
-        <v>7500</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G2" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H2" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>19</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G3" s="17">
-        <v>7500</v>
-      </c>
-      <c r="H3" s="19">
-        <v>7500</v>
-      </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>39</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H4" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>40</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G5" s="8">
-        <v>10000</v>
-      </c>
-      <c r="H5" s="9">
-        <v>10000</v>
-      </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>49</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="8">
-        <v>15000</v>
-      </c>
-      <c r="G6" s="8">
-        <v>15000</v>
-      </c>
-      <c r="H6" s="19">
-        <v>15000</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>76</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H7" s="23">
-        <v>1500</v>
-      </c>
-      <c r="I7" s="28"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -1234,10 +1234,10 @@
   <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P87" sqref="P87"/>
+      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,7 +2931,9 @@
       <c r="G54" s="8">
         <v>2500</v>
       </c>
-      <c r="H54" s="40"/>
+      <c r="H54" s="9">
+        <v>2500</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="10"/>
       <c r="K54" s="11"/>
@@ -3024,7 +3026,9 @@
       <c r="G57" s="8">
         <v>2500</v>
       </c>
-      <c r="H57" s="40"/>
+      <c r="H57" s="9">
+        <v>2500</v>
+      </c>
       <c r="I57" s="9"/>
       <c r="J57" s="10"/>
       <c r="K57" s="11"/>
@@ -3941,7 +3945,7 @@
       </c>
       <c r="H95" s="37">
         <f>COUNTIFS(E2:E91, "House", H2:H91, "&gt;0")</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4049,7 +4053,7 @@
       </c>
       <c r="H104" s="37">
         <f>COUNTIFS(D2:D91, "3rd Main", H2:H91, "&gt;0")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">

--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="183">
   <si>
     <t>S No</t>
   </si>
@@ -229,9 +229,6 @@
     <t>M Renganathan</t>
   </si>
   <si>
-    <t xml:space="preserve">Special Donation </t>
-  </si>
-  <si>
     <t>Mrs Geetha Durairajan</t>
   </si>
   <si>
@@ -714,10 +711,22 @@
     <t>12 1st Main</t>
   </si>
   <si>
-    <t>Also has donated Rs1000 for buying dresses for Urbaser Sumeet employees</t>
-  </si>
-  <si>
     <t>Rs 1500/= Sreshta Tripura Apt Individual subscription + 2500/-for Family meet</t>
+  </si>
+  <si>
+    <t>2500/- for subscription + 2500/- for Family meet</t>
+  </si>
+  <si>
+    <t>2500 for subscription + 5000 for Family meet</t>
+  </si>
+  <si>
+    <t>Johna Stephen Jeremiah</t>
+  </si>
+  <si>
+    <t>Also has donated Rs1000 for buying dresses for Urbaser Sumeet employees + 2500 for subscription</t>
+  </si>
+  <si>
+    <t>Special Donation Family meet</t>
   </si>
 </sst>
 </file>
@@ -1234,10 +1243,10 @@
   <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,7 +2060,7 @@
         <v>5000</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="11"/>
@@ -2065,10 +2074,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>11</v>
@@ -2098,7 +2107,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>35</v>
@@ -2129,10 +2138,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>11</v>
@@ -2160,10 +2169,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>19</v>
@@ -2193,13 +2202,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>12</v>
@@ -2222,7 +2231,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>23</v>
@@ -2251,10 +2260,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>27</v>
@@ -2280,7 +2289,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>10</v>
@@ -2311,13 +2320,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="8">
@@ -2342,7 +2351,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>55</v>
@@ -2375,10 +2384,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>36</v>
@@ -2408,10 +2417,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>36</v>
@@ -2435,16 +2444,16 @@
       <c r="M38" s="11"/>
       <c r="N38" s="12"/>
     </row>
-    <row r="39" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>39</v>
@@ -2458,11 +2467,11 @@
       <c r="G39" s="17">
         <v>2500</v>
       </c>
-      <c r="H39" s="19">
-        <v>2500</v>
+      <c r="H39" s="22">
+        <v>3500</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="11"/>
@@ -2476,10 +2485,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>46</v>
@@ -2509,10 +2518,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>85</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>46</v>
@@ -2540,7 +2549,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>23</v>
@@ -2573,7 +2582,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>35</v>
@@ -2606,10 +2615,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>19</v>
@@ -2639,10 +2648,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>55</v>
@@ -2668,10 +2677,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>36</v>
@@ -2697,10 +2706,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>11</v>
@@ -2726,10 +2735,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>11</v>
@@ -2759,7 +2768,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>23</v>
@@ -2788,10 +2797,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>46</v>
@@ -2821,10 +2830,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>11</v>
@@ -2854,7 +2863,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>10</v>
@@ -2885,10 +2894,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>36</v>
@@ -2914,10 +2923,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>36</v>
@@ -2947,10 +2956,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>27</v>
@@ -2980,13 +2989,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>16</v>
@@ -3009,10 +3018,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>36</v>
@@ -3042,10 +3051,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>36</v>
@@ -3071,7 +3080,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>35</v>
@@ -3104,10 +3113,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>19</v>
@@ -3133,7 +3142,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>10</v>
@@ -3162,16 +3171,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8">
@@ -3193,10 +3202,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>39</v>
@@ -3226,10 +3235,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>36</v>
@@ -3250,7 +3259,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>35</v>
@@ -3274,10 +3283,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>39</v>
@@ -3298,10 +3307,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>55</v>
@@ -3322,10 +3331,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="24"/>
+        <v>129</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E68" s="7" t="s">
         <v>12</v>
       </c>
@@ -3333,10 +3346,12 @@
       <c r="G68" s="8">
         <v>2500</v>
       </c>
-      <c r="H68" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I68" s="28"/>
+      <c r="H68" s="14">
+        <v>7500</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
@@ -3344,10 +3359,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>11</v>
@@ -3370,10 +3385,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>11</v>
@@ -3394,16 +3409,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8">
@@ -3420,10 +3435,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>36</v>
@@ -3444,16 +3459,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8">
@@ -3468,10 +3483,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>55</v>
@@ -3492,16 +3507,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8">
@@ -3516,16 +3531,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8">
@@ -3542,26 +3557,26 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8">
         <v>1500</v>
       </c>
-      <c r="H77" s="23">
+      <c r="H77" s="14">
         <v>4000</v>
       </c>
       <c r="I77" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3570,7 +3585,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C78" s="6">
         <v>9840023316</v>
@@ -3590,17 +3605,19 @@
       </c>
       <c r="I78" s="28"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C79" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="D79" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>12</v>
@@ -3609,10 +3626,12 @@
       <c r="G79" s="8">
         <v>2500</v>
       </c>
-      <c r="H79" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I79" s="28"/>
+      <c r="H79" s="14">
+        <v>5000</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
@@ -3620,10 +3639,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>36</v>
@@ -3644,10 +3663,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>36</v>
@@ -3670,10 +3689,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>36</v>
@@ -3696,10 +3715,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>24</v>
@@ -3722,16 +3741,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8">
@@ -3746,16 +3765,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -3770,16 +3789,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8">
@@ -3794,10 +3813,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>27</v>
@@ -3820,10 +3839,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>165</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>36</v>
@@ -3837,7 +3856,7 @@
         <v>2500</v>
       </c>
       <c r="I88" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3846,10 +3865,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>39</v>
@@ -3870,16 +3889,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="8">
@@ -3894,10 +3913,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>27</v>
@@ -3914,7 +3933,7 @@
     </row>
     <row r="93" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C93" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D93" s="33"/>
       <c r="E93" s="33"/>
@@ -3933,7 +3952,7 @@
     <row r="95" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D95" s="33"/>
       <c r="E95" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F95" s="37">
         <f>COUNTIFS(E2:E91, "House", F2:F91, "&gt;0")</f>
@@ -3951,7 +3970,7 @@
     <row r="96" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D96" s="33"/>
       <c r="E96" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F96" s="37">
         <f>COUNTIFS(E2:E91, "Apartment", F2:F91, "&gt;0")</f>
@@ -3969,7 +3988,7 @@
     <row r="97" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D97" s="33"/>
       <c r="E97" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F97" s="37">
         <f>COUNTIFS(E2:E91, "Ind. Apartment", F2:F91, "&gt;0")</f>
@@ -3994,11 +4013,7 @@
     </row>
     <row r="100" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C100" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="D100">
-        <f>COUNTIF(D2:D91, "")</f>
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="I100" s="42"/>
     </row>
@@ -4049,11 +4064,11 @@
       </c>
       <c r="G104" s="37">
         <f>COUNTIFS(D2:D91, "3rd Main", G2:G91, "&gt;0")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H104" s="37">
         <f>COUNTIFS(D2:D91, "3rd Main", H2:H91, "&gt;0")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4083,11 +4098,11 @@
       </c>
       <c r="G106" s="37">
         <f>COUNTIFS(D2:D91, "2nd Cross", G2:G91, "&gt;0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H106" s="37">
         <f>COUNTIFS(D2:D91, "2nd Cross", H2:H91, "&gt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -4100,16 +4115,16 @@
       </c>
       <c r="G107" s="37">
         <f>COUNTIFS(D2:D91, "3rd Cross", G2:G91, "&gt;0")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H107" s="37">
         <f>COUNTIFS(D2:D91, "3rd Cross", H2:H91, "&gt;0")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E108" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F108" s="37">
         <f>COUNTIFS(D2:D91, "4th Cross", F2:F91, "&gt;0")</f>

--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$95</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="194">
   <si>
     <t>S No</t>
   </si>
@@ -94,9 +94,6 @@
   <si>
     <t>Shivam Apt
 50B Seethamma Road</t>
-  </si>
-  <si>
-    <t>B R Rangamani</t>
   </si>
   <si>
     <t>2nd Cross Street</t>
@@ -149,9 +146,6 @@
     <t>Bhagyashree Apartments</t>
   </si>
   <si>
-    <t>Chandrasekar TS</t>
-  </si>
-  <si>
     <t>19 Seethamma Road</t>
   </si>
   <si>
@@ -236,9 +230,6 @@
   </si>
   <si>
     <t>Mukundan &amp; Komalam Mukundan</t>
-  </si>
-  <si>
-    <t>Narayanaswami Ravichandran</t>
   </si>
   <si>
     <t>Old 61 New 16, Seethamma Road</t>
@@ -300,9 +291,6 @@
     <t>Raj Residency</t>
   </si>
   <si>
-    <t>Rajl Residency</t>
-  </si>
-  <si>
     <t>Rajammal Kasthuri</t>
   </si>
   <si>
@@ -371,9 +359,6 @@
     </r>
   </si>
   <si>
-    <t>S. Ganesh</t>
-  </si>
-  <si>
     <t>#3, Crescent St +918754407250</t>
   </si>
   <si>
@@ -433,9 +418,6 @@
   </si>
   <si>
     <t>Kaushik Apartment</t>
-  </si>
-  <si>
-    <t>Kaushikl Apartment</t>
   </si>
   <si>
     <t>U R Srinivasan</t>
@@ -498,9 +480,6 @@
     <t>Velayutham R V</t>
   </si>
   <si>
-    <t>Vignesh</t>
-  </si>
-  <si>
     <t>First Floor
 6/13 Third cross .st
 9840486437, 04448630884</t>
@@ -537,17 +516,8 @@
     <t>Devi Prasad Marimuthu</t>
   </si>
   <si>
-    <t>Dorayswamy</t>
-  </si>
-  <si>
     <t>6/13 Third cross .st
 9840486437, 04448630884</t>
-  </si>
-  <si>
-    <t>Ganesh Sivaraman</t>
-  </si>
-  <si>
-    <t>J S Jeremiah</t>
   </si>
   <si>
     <t>Koushik Apartments</t>
@@ -557,9 +527,6 @@
 +91 98403 53940
 Kaushik Apartments
 Seethamma Road</t>
-  </si>
-  <si>
-    <t>Koushthubham Apartments</t>
   </si>
   <si>
     <t>Sir paid towards SCRA subscription 22-23 
@@ -643,12 +610,6 @@
 7/4 second cross street (Moved in after buying house)</t>
   </si>
   <si>
-    <t>Suprasanna Vijayaraghavan</t>
-  </si>
-  <si>
-    <t>Uma Maheswari Vijayaraghavan</t>
-  </si>
-  <si>
     <t>#9/5 Aster Apartment
 3rd Cross Street
 +61 433158930
@@ -727,6 +688,81 @@
   </si>
   <si>
     <t>Special Donation Family meet</t>
+  </si>
+  <si>
+    <t>Subscription 2500/- and Pongalfest 15000</t>
+  </si>
+  <si>
+    <t>Subscription 2500/- and Pongalfest 5000</t>
+  </si>
+  <si>
+    <t>2500 Subscription + 10000 Pongalfest</t>
+  </si>
+  <si>
+    <t>Subscription 2500 + Pongalfest 5000</t>
+  </si>
+  <si>
+    <t>2500 Subcription + Newsletter 3000</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>R Krishnamoorthy Rao</t>
+  </si>
+  <si>
+    <t>Cornerstone Apartment 
+(Individual Flat)
+24/57 Seethamma Road</t>
+  </si>
+  <si>
+    <t>Guruswamy Manokaran</t>
+  </si>
+  <si>
+    <t>Kousthubham Apartments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flat B1 and A2</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>B R Rangamani (J Stephen later)</t>
+  </si>
+  <si>
+    <t>J S Jeremiah (Before - BR Rangamani)</t>
+  </si>
+  <si>
+    <t>Vignesh (Same as Dorayswamy)</t>
+  </si>
+  <si>
+    <t>Dorayswamy (Same as Vignesh)</t>
+  </si>
+  <si>
+    <t>Payments for Dorayswamy + Sai Subramanian</t>
+  </si>
+  <si>
+    <t>Suprasanna Vijayaraghavan (Same as Uma Maheswari Vijayaraghavan)</t>
+  </si>
+  <si>
+    <t>Uma Maheswari Vijayaraghavan (Same as above)</t>
+  </si>
+  <si>
+    <t>S. Ganesh (Same as below)</t>
+  </si>
+  <si>
+    <t>Ganesh Sivaraman (Same as above)</t>
+  </si>
+  <si>
+    <t>Narayanaswami Ravichandran
+(Same as N Ravichandran)</t>
+  </si>
+  <si>
+    <t>Chandrasekar TS &amp; Lalitha</t>
+  </si>
+  <si>
+    <t>3000 for 23-24 and 24-25</t>
   </si>
 </sst>
 </file>
@@ -792,7 +828,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -853,6 +889,12 @@
         <bgColor rgb="FFFFDAA2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -881,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,6 +999,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,31 +1280,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
     <col min="3" max="5" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="27" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="27" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="27" customWidth="1"/>
-    <col min="9" max="9" width="45.5703125" style="31" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="9" width="17.7109375" style="27" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,22 +1329,26 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
+    <row r="2" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="e">
+        <f t="shared" ref="A2:A33" si="0">A1+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -1312,176 +1359,206 @@
       <c r="G2" s="8">
         <v>2500</v>
       </c>
-      <c r="H2" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
+      <c r="H2" s="19">
+        <v>2500</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="14">
-        <v>20000</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="F3" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="17">
+        <v>7500</v>
+      </c>
+      <c r="H3" s="19">
+        <v>7500</v>
+      </c>
+      <c r="I3" s="19">
+        <v>7500</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <f t="shared" ref="A4:A68" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H4" s="9">
+        <v>17500</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K4" s="10"/>
       <c r="L4" s="11"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="M4" s="11"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="8">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="9">
+        <v>10000</v>
+      </c>
+      <c r="I5" s="9">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="19">
-        <v>10000</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <f>A5+1</f>
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G6" s="17">
-        <v>2500</v>
+      <c r="F6" s="8">
+        <v>15000</v>
+      </c>
+      <c r="G6" s="8">
+        <v>15000</v>
       </c>
       <c r="H6" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
+        <v>15000</v>
+      </c>
+      <c r="I6" s="41"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H7" s="14">
+        <v>4000</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="10"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <f>A7+1</f>
-        <v>7</v>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
@@ -1489,30 +1566,31 @@
       <c r="F8" s="8">
         <v>2500</v>
       </c>
-      <c r="G8" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I8" s="40"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" ht="32.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
@@ -1522,26 +1600,27 @@
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f>A9+1</f>
-        <v>9</v>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8">
@@ -1553,150 +1632,161 @@
       <c r="H10" s="9">
         <v>7500</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
+      <c r="I10" s="9">
+        <v>7500</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
+        <v>2500</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I11" s="9">
+        <v>2512</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="8">
-        <v>2500</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="8">
         <v>2500</v>
       </c>
-      <c r="H12" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="11"/>
+      <c r="H12" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G13" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>37</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="17">
-        <v>7500</v>
-      </c>
-      <c r="G14" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>12</v>
@@ -1707,124 +1797,132 @@
       <c r="G15" s="8">
         <v>2500</v>
       </c>
-      <c r="H15" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
+      <c r="H15" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="N15" s="11"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>40</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="14">
-        <v>3000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
+        <v>25000</v>
+      </c>
+      <c r="H16" s="29">
+        <v>5000</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="10"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>40</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="22">
-        <v>3000</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
+      <c r="F17" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="8">
         <v>2500</v>
       </c>
       <c r="G18" s="8">
         <v>2500</v>
       </c>
-      <c r="H18" s="19">
-        <v>2500</v>
+      <c r="H18" s="9">
+        <v>7500</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
+      <c r="J18" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="10"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>12</v>
@@ -1832,319 +1930,339 @@
       <c r="F19" s="8">
         <v>2500</v>
       </c>
-      <c r="G19" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H19" s="19">
-        <v>2500</v>
-      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="N19" s="11"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>47</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G20" s="17">
+        <v>12</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H20" s="14">
         <v>7500</v>
       </c>
-      <c r="H20" s="19">
-        <v>7500</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
+      <c r="I20" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="10"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>49</v>
+        <v>143</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="8">
-        <v>2500</v>
-      </c>
+      <c r="F21" s="8"/>
       <c r="G21" s="8">
         <v>2500</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
+      <c r="H21" s="23">
+        <v>2500</v>
+      </c>
+      <c r="I21" s="23">
+        <v>2500</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="1:14" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="N21" s="11"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>50</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="17">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="G22" s="17">
-        <v>10000</v>
-      </c>
-      <c r="H22" s="19">
-        <v>10000</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="11"/>
+        <v>2500</v>
+      </c>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="12"/>
-    </row>
-    <row r="23" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="N22" s="11"/>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>52</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="11"/>
+      <c r="F23" s="17">
+        <v>2500</v>
+      </c>
+      <c r="G23" s="17">
+        <v>2500</v>
+      </c>
+      <c r="H23" s="22">
+        <v>3500</v>
+      </c>
+      <c r="I23" s="19">
+        <v>2500</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="10"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="N23" s="11"/>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>53</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="8">
-        <v>5000</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1500</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1500</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F25" s="8">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="G25" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H25" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="11"/>
+        <v>7500</v>
+      </c>
+      <c r="H25" s="19">
+        <v>7500</v>
+      </c>
+      <c r="I25" s="19">
+        <v>7500</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="N25" s="11"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="14">
-        <v>25000</v>
-      </c>
-      <c r="H26" s="29">
-        <v>5000</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
+      <c r="G26" s="8">
+        <v>1875</v>
+      </c>
+      <c r="H26" s="23">
+        <v>1500</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="N26" s="11"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="8">
-        <v>5000</v>
-      </c>
+      <c r="F27" s="8"/>
       <c r="G27" s="8">
         <v>2500</v>
       </c>
-      <c r="H27" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="11"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="10"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="N27" s="11"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G28" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
+      <c r="F28" s="17">
+        <v>2500</v>
+      </c>
+      <c r="G28" s="17">
+        <v>2500</v>
+      </c>
+      <c r="H28" s="19">
+        <v>2500</v>
+      </c>
+      <c r="I28" s="19">
+        <v>2500</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="N28" s="11"/>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="D29" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>12</v>
@@ -2155,24 +2273,29 @@
       <c r="G29" s="8">
         <v>2500</v>
       </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="11"/>
+      <c r="H29" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I29" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="N29" s="11"/>
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>19</v>
@@ -2189,309 +2312,317 @@
       <c r="H30" s="9">
         <v>2500</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="11"/>
+      <c r="I30" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="N30" s="11"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>64</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="8">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="G31" s="21"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="11"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="N31" s="11"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="11"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8">
+        <v>5000</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K32" s="10"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="N32" s="11"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H33" s="23">
+        <v>1500</v>
+      </c>
+      <c r="I33" s="23">
+        <v>1500</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="10"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <f t="shared" si="0"/>
-        <v>33</v>
+      <c r="N33" s="11"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="e">
+        <f t="shared" ref="A34:A68" si="1">A33+1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="8">
-        <v>2512</v>
-      </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="10"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="12"/>
-    </row>
-    <row r="35" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <f t="shared" si="0"/>
-        <v>34</v>
+      <c r="N34" s="11"/>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="8">
-        <v>7500</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="8"/>
       <c r="G35" s="8">
-        <v>7500</v>
-      </c>
-      <c r="H35" s="9">
-        <v>7500</v>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="11"/>
+        <v>1500</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="I35" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="10"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="N35" s="11"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="8">
-        <v>2500</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F36" s="8"/>
       <c r="G36" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H36" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="11"/>
+        <v>1500</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="10"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <f t="shared" si="0"/>
-        <v>36</v>
+      <c r="N36" s="11"/>
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G37" s="8">
-        <v>7500</v>
-      </c>
-      <c r="H37" s="9">
-        <v>7500</v>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I37" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J37" s="28"/>
+      <c r="K37" s="10"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <f t="shared" si="0"/>
-        <v>37</v>
+      <c r="N37" s="11"/>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="8">
-        <v>7500</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F38" s="8"/>
       <c r="G38" s="8">
-        <v>7500</v>
-      </c>
-      <c r="H38" s="9">
-        <v>7500</v>
-      </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="11"/>
+        <v>1500</v>
+      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="10"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
-      <c r="N38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>79</v>
+      <c r="N38" s="11"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G39" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H39" s="22">
-        <v>3500</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="11"/>
+      <c r="F39" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G39" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H39" s="9">
+        <v>12500</v>
+      </c>
+      <c r="I39" s="40"/>
+      <c r="J39" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K39" s="10"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
-      <c r="N39" s="12"/>
-    </row>
-    <row r="40" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <f t="shared" si="0"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="D40" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>12</v>
@@ -2502,246 +2633,268 @@
       <c r="G40" s="8">
         <v>2500</v>
       </c>
-      <c r="H40" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
+      <c r="H40" s="19">
+        <v>6500</v>
+      </c>
+      <c r="I40" s="19">
+        <v>2500</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="K40" s="10"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>83</v>
+      <c r="N40" s="11"/>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G41" s="8">
-        <v>10000</v>
-      </c>
-      <c r="H41" s="9">
-        <v>10000</v>
-      </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="14">
+        <v>3000</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="10"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="12"/>
-    </row>
-    <row r="42" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>85</v>
+      <c r="N41" s="11"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G42" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H42" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="11"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="22">
+        <v>3000</v>
+      </c>
+      <c r="I42" s="41"/>
+      <c r="J42" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="10"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
-      <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="N42" s="11"/>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="8">
-        <v>2500.59</v>
+        <v>2500</v>
       </c>
       <c r="G43" s="8">
-        <v>2501.1799999999998</v>
-      </c>
-      <c r="H43" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="11"/>
+        <v>2500</v>
+      </c>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="10"/>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="12"/>
-    </row>
-    <row r="44" spans="1:14" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <f t="shared" si="0"/>
-        <v>43</v>
+      <c r="N43" s="11"/>
+      <c r="O43" s="12"/>
+    </row>
+    <row r="44" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="8">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="G44" s="8">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="H44" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="11"/>
+        <v>7500</v>
+      </c>
+      <c r="I44" s="40"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="10"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="12"/>
-    </row>
-    <row r="45" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>89</v>
+      <c r="N44" s="11"/>
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="F45" s="8">
+        <v>7500</v>
+      </c>
+      <c r="G45" s="8">
+        <v>7500</v>
+      </c>
+      <c r="H45" s="9">
+        <v>7500</v>
+      </c>
+      <c r="I45" s="9">
+        <v>7500</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="10"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="12"/>
-    </row>
-    <row r="46" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <f t="shared" si="0"/>
-        <v>45</v>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="11"/>
+        <v>2500.59</v>
+      </c>
+      <c r="G46" s="8">
+        <v>2501.1799999999998</v>
+      </c>
+      <c r="H46" s="9">
+        <v>7500</v>
+      </c>
+      <c r="I46" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K46" s="10"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="N46" s="11"/>
+      <c r="O46" s="12"/>
+    </row>
+    <row r="47" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="D47" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8">
+        <v>2500</v>
+      </c>
       <c r="G47" s="8"/>
-      <c r="H47" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="11"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="10"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
-      <c r="N47" s="12"/>
-    </row>
-    <row r="48" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <f t="shared" si="0"/>
-        <v>47</v>
+      <c r="N47" s="11"/>
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>12</v>
@@ -2749,32 +2902,29 @@
       <c r="F48" s="17">
         <v>2500</v>
       </c>
-      <c r="G48" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H48" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="11"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
-      <c r="N48" s="12"/>
-    </row>
-    <row r="49" spans="1:14" s="13" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <f t="shared" si="0"/>
-        <v>48</v>
+      <c r="N48" s="11"/>
+      <c r="O48" s="12"/>
+    </row>
+    <row r="49" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>12</v>
@@ -2782,94 +2932,97 @@
       <c r="F49" s="8">
         <v>2500</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="11"/>
+      <c r="G49" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H49" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I49" s="40"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
-      <c r="N49" s="12"/>
-    </row>
-    <row r="50" spans="1:14" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <f t="shared" si="0"/>
-        <v>49</v>
+      <c r="N49" s="11"/>
+      <c r="O49" s="12"/>
+    </row>
+    <row r="50" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F50" s="8">
-        <v>15000</v>
+        <v>2500</v>
       </c>
       <c r="G50" s="8">
-        <v>15000</v>
-      </c>
-      <c r="H50" s="19">
-        <v>15000</v>
-      </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="11"/>
+        <v>2500</v>
+      </c>
+      <c r="H50" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I50" s="40"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="10"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
-      <c r="N50" s="12"/>
-    </row>
-    <row r="51" spans="1:14" s="13" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="N50" s="11"/>
+      <c r="O50" s="12"/>
+    </row>
+    <row r="51" spans="1:15" s="13" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F51" s="8">
-        <v>15000</v>
-      </c>
-      <c r="G51" s="8">
-        <v>15000</v>
-      </c>
-      <c r="H51" s="19">
-        <v>15000</v>
-      </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="11"/>
+        <v>2500</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="10"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
-      <c r="N51" s="12"/>
-    </row>
-    <row r="52" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <f t="shared" si="0"/>
-        <v>51</v>
+      <c r="N51" s="11"/>
+      <c r="O51" s="12"/>
+    </row>
+    <row r="52" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>12</v>
@@ -2880,440 +3033,473 @@
       <c r="G52" s="8">
         <v>2500</v>
       </c>
-      <c r="H52" s="40"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="11"/>
+      <c r="H52" s="19">
+        <v>2500</v>
+      </c>
+      <c r="I52" s="19">
+        <v>2500</v>
+      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="10"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
-      <c r="N52" s="12"/>
-    </row>
-    <row r="53" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>101</v>
+      <c r="N52" s="11"/>
+      <c r="O52" s="12"/>
+    </row>
+    <row r="53" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="11"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="10"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
-      <c r="N53" s="12"/>
-    </row>
-    <row r="54" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <f t="shared" si="0"/>
-        <v>53</v>
+      <c r="N53" s="11"/>
+      <c r="O53" s="12"/>
+    </row>
+    <row r="54" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="8">
-        <v>2500</v>
-      </c>
+      <c r="F54" s="8"/>
       <c r="G54" s="8">
         <v>2500</v>
       </c>
-      <c r="H54" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I54" s="9"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="11"/>
+      <c r="H54" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I54" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J54" s="28"/>
+      <c r="K54" s="10"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
-      <c r="N54" s="12"/>
-    </row>
-    <row r="55" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <f t="shared" si="0"/>
-        <v>54</v>
+      <c r="N54" s="11"/>
+      <c r="O54" s="12"/>
+    </row>
+    <row r="55" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="8">
-        <v>2500</v>
-      </c>
+      <c r="F55" s="8"/>
       <c r="G55" s="8">
         <v>2500</v>
       </c>
-      <c r="H55" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I55" s="9"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="11"/>
+      <c r="H55" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I55" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J55" s="28"/>
+      <c r="K55" s="10"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
-      <c r="N55" s="12"/>
-    </row>
-    <row r="56" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="N55" s="11"/>
+      <c r="O55" s="12"/>
+    </row>
+    <row r="56" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H56" s="14">
+        <v>5000</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="K56" s="10"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
-      <c r="N56" s="12"/>
-    </row>
-    <row r="57" spans="1:14" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <f>A56+1</f>
-        <v>56</v>
+      <c r="N56" s="11"/>
+      <c r="O56" s="12"/>
+    </row>
+    <row r="57" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="8">
-        <v>2500</v>
-      </c>
+      <c r="F57" s="8"/>
       <c r="G57" s="8">
         <v>2500</v>
       </c>
-      <c r="H57" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I57" s="9"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="11"/>
+      <c r="H57" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I57" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J57" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="K57" s="10"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
-      <c r="N57" s="12"/>
-    </row>
-    <row r="58" spans="1:14" s="13" customFormat="1" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <f t="shared" si="0"/>
-        <v>57</v>
+      <c r="N57" s="11"/>
+      <c r="O57" s="12"/>
+    </row>
+    <row r="58" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="11"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H58" s="23">
+        <v>2500</v>
+      </c>
+      <c r="I58" s="21"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="10"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
-      <c r="N58" s="12"/>
-    </row>
-    <row r="59" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <f>A58+1</f>
-        <v>58</v>
+      <c r="N58" s="11"/>
+      <c r="O58" s="12"/>
+    </row>
+    <row r="59" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G59" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H59" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I59" s="9"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="11"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="14">
+        <v>3000</v>
+      </c>
+      <c r="H59" s="23"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="10"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
-      <c r="N59" s="12"/>
-    </row>
-    <row r="60" spans="1:14" s="13" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="8">
-        <v>5000</v>
-      </c>
-      <c r="G60" s="21"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="12"/>
+    </row>
+    <row r="60" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23">
+        <v>2500</v>
+      </c>
+      <c r="I60" s="21"/>
+      <c r="J60" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="K60" s="10"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
-      <c r="N60" s="12"/>
-    </row>
-    <row r="61" spans="1:14" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <f t="shared" si="0"/>
-        <v>60</v>
+      <c r="N60" s="11"/>
+      <c r="O60" s="12"/>
+    </row>
+    <row r="61" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G61" s="21"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="10"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
-      <c r="N61" s="12"/>
-    </row>
-    <row r="62" spans="1:14" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <f t="shared" si="0"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="12"/>
+    </row>
+    <row r="62" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="C62" s="6" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H62" s="9">
-        <v>1500</v>
-      </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F62" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G62" s="21"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="10"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
-      <c r="N62" s="12"/>
-    </row>
-    <row r="63" spans="1:14" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>121</v>
+      <c r="N62" s="11"/>
+      <c r="O62" s="12"/>
+    </row>
+    <row r="63" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F63" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G63" s="8">
-        <v>7500</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="G63" s="21"/>
       <c r="H63" s="19">
-        <v>7500</v>
-      </c>
-      <c r="I63" s="9"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="11"/>
+        <v>2500</v>
+      </c>
+      <c r="I63" s="19">
+        <v>2500</v>
+      </c>
+      <c r="J63" s="9"/>
+      <c r="K63" s="10"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
-      <c r="N63" s="12"/>
-    </row>
-    <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <f t="shared" si="0"/>
-        <v>63</v>
+      <c r="N63" s="11"/>
+      <c r="O63" s="12"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="8"/>
+      <c r="F64" s="8">
+        <v>2500</v>
+      </c>
       <c r="G64" s="8">
         <v>2500</v>
       </c>
-      <c r="H64" s="21"/>
-      <c r="I64" s="28"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>125</v>
+      <c r="H64" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I64" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H65" s="21"/>
-      <c r="I65" s="28"/>
-    </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <f t="shared" si="0"/>
-        <v>65</v>
+      <c r="F65" s="17">
+        <v>2500</v>
+      </c>
+      <c r="G65" s="17"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="8">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="H66" s="21"/>
-      <c r="I66" s="28"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <f t="shared" si="0"/>
-        <v>66</v>
+      <c r="I66" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J66" s="28"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>12</v>
@@ -3322,22 +3508,27 @@
       <c r="G67" s="8">
         <v>2500</v>
       </c>
-      <c r="H67" s="21"/>
-      <c r="I67" s="28"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <f t="shared" si="0"/>
-        <v>67</v>
+      <c r="H67" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I67" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J67" s="28"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>180</v>
+        <v>137</v>
+      </c>
+      <c r="C68" s="6">
+        <v>9840023316</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>12</v>
@@ -3346,823 +3537,1037 @@
       <c r="G68" s="8">
         <v>2500</v>
       </c>
-      <c r="H68" s="14">
-        <v>7500</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="H68" s="23">
+        <v>2500</v>
+      </c>
+      <c r="I68" s="23">
+        <v>2500</v>
+      </c>
+      <c r="J68" s="28"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <f t="shared" ref="A69:A84" si="1">A68+1</f>
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G69" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H69" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I69" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J69" s="9"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <f t="shared" ref="A70:A95" si="2">A69+1</f>
+        <v>2</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="14">
+        <v>20000</v>
+      </c>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8">
+      <c r="F71" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G71" s="20"/>
+      <c r="H71" s="19">
+        <v>10000</v>
+      </c>
+      <c r="I71" s="19">
+        <v>10000</v>
+      </c>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="8">
+        <v>10000</v>
+      </c>
+      <c r="G72" s="21"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="40"/>
+      <c r="J72" s="9"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="8">
         <v>7500</v>
       </c>
-      <c r="H69" s="23">
+      <c r="G73" s="8">
         <v>7500</v>
       </c>
-      <c r="I69" s="28"/>
-    </row>
-    <row r="70" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D70" s="6" t="s">
+      <c r="H73" s="9">
+        <v>7500</v>
+      </c>
+      <c r="I73" s="40"/>
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E74" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8">
+      <c r="F74" s="8">
         <v>10000</v>
       </c>
-      <c r="H70" s="21"/>
-      <c r="I70" s="28"/>
-    </row>
-    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H71" s="23">
-        <v>1500</v>
-      </c>
-      <c r="I71" s="28"/>
-    </row>
-    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H72" s="21"/>
-      <c r="I72" s="28"/>
-    </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H73" s="21"/>
-      <c r="I73" s="28"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D74" s="7" t="s">
+      <c r="G74" s="21"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="9"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G75" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H75" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I75" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J75" s="9"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="17">
+        <v>2500</v>
+      </c>
+      <c r="G76" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H76" s="19">
+        <v>2500</v>
+      </c>
+      <c r="I76" s="19">
+        <v>2500</v>
+      </c>
+      <c r="J76" s="9"/>
+    </row>
+    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G77" s="17">
+        <v>10000</v>
+      </c>
+      <c r="H77" s="19">
+        <v>10000</v>
+      </c>
+      <c r="I77" s="19">
+        <v>10000</v>
+      </c>
+      <c r="J77" s="9"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G78" s="21"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="9"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H74" s="21"/>
-      <c r="I74" s="28"/>
-    </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H75" s="21"/>
-      <c r="I75" s="28"/>
-    </row>
-    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8">
-        <v>1875</v>
-      </c>
-      <c r="H76" s="23">
-        <v>1500</v>
-      </c>
-      <c r="I76" s="28"/>
-    </row>
-    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H77" s="14">
-        <v>4000</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" s="6">
-        <v>9840023316</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H78" s="23">
-        <v>2500</v>
-      </c>
-      <c r="I78" s="28"/>
-    </row>
-    <row r="79" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="C79" s="6" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="8"/>
+      <c r="F79" s="8">
+        <v>5000</v>
+      </c>
       <c r="G79" s="8">
         <v>2500</v>
       </c>
-      <c r="H79" s="14">
-        <v>5000</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H79" s="19">
+        <v>2500</v>
+      </c>
+      <c r="I79" s="19">
+        <v>2500</v>
+      </c>
+      <c r="J79" s="9"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="8"/>
+      <c r="F80" s="8">
+        <v>2500</v>
+      </c>
       <c r="G80" s="8">
         <v>2500</v>
       </c>
-      <c r="H80" s="21"/>
-      <c r="I80" s="28"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H80" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I80" s="40"/>
+      <c r="J80" s="9"/>
+    </row>
+    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="8"/>
+      <c r="F81" s="8">
+        <v>2500</v>
+      </c>
       <c r="G81" s="8">
         <v>2500</v>
       </c>
-      <c r="H81" s="23">
-        <v>2500</v>
-      </c>
-      <c r="I81" s="28"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H81" s="40"/>
+      <c r="I81" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="14">
-        <v>3000</v>
-      </c>
-      <c r="H82" s="23"/>
-      <c r="I82" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F82" s="8">
+        <v>2512</v>
+      </c>
+      <c r="G82" s="21"/>
+      <c r="H82" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I82" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J82" s="9"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="8"/>
-      <c r="G83" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H83" s="23">
-        <v>2500</v>
-      </c>
-      <c r="I83" s="28"/>
-    </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G83" s="8"/>
+      <c r="H83" s="9">
+        <v>12500</v>
+      </c>
+      <c r="I83" s="40"/>
+      <c r="J83" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>156</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H84" s="21"/>
-      <c r="I84" s="28"/>
-    </row>
-    <row r="85" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F84" s="17">
+        <v>2500</v>
+      </c>
+      <c r="G84" s="17">
+        <v>2500</v>
+      </c>
+      <c r="H84" s="19">
+        <v>2500</v>
+      </c>
+      <c r="I84" s="41"/>
+      <c r="J84" s="9"/>
+    </row>
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <f t="shared" ref="A85:A91" si="2">A84+1</f>
-        <v>84</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8">
-        <v>1500</v>
-      </c>
-      <c r="I85" s="28"/>
-    </row>
-    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F85" s="8">
+        <v>15000</v>
+      </c>
+      <c r="G85" s="8">
+        <v>15000</v>
+      </c>
+      <c r="H85" s="19">
+        <v>15000</v>
+      </c>
+      <c r="I85" s="19">
+        <v>15000</v>
+      </c>
+      <c r="J85" s="9"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F86" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="F86" s="8">
+        <v>2500</v>
+      </c>
       <c r="G86" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H86" s="21"/>
-      <c r="I86" s="28"/>
-    </row>
-    <row r="87" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>2500</v>
+      </c>
+      <c r="H86" s="40"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="9"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="F87" s="8">
+        <v>7500</v>
+      </c>
       <c r="G87" s="8">
         <v>2500</v>
       </c>
-      <c r="H87" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I87" s="28"/>
-    </row>
-    <row r="88" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H87" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I87" s="9">
+        <v>7500</v>
+      </c>
+      <c r="J87" s="9"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="D88" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23">
-        <v>2500</v>
-      </c>
-      <c r="I88" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G88" s="21"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="9"/>
+    </row>
+    <row r="89" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7500</v>
+      </c>
+      <c r="H89" s="23">
+        <v>7500</v>
+      </c>
+      <c r="I89" s="23">
+        <v>7500</v>
+      </c>
+      <c r="J89" s="28"/>
+    </row>
+    <row r="90" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+      <c r="H90" s="21"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="28"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>12</v>
+        <v>180</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I91" s="8"/>
-    </row>
-    <row r="93" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C93" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-    </row>
-    <row r="94" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-    </row>
-    <row r="95" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D95" s="33"/>
-      <c r="E95" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="F95" s="37">
-        <f>COUNTIFS(E2:E91, "House", F2:F91, "&gt;0")</f>
-        <v>42</v>
-      </c>
-      <c r="G95" s="37">
-        <f>COUNTIFS(E2:E91, "House", G2:G91, "&gt;0")</f>
-        <v>45</v>
-      </c>
-      <c r="H95" s="37">
-        <f>COUNTIFS(E2:E91, "House", H2:H91, "&gt;0")</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D96" s="33"/>
-      <c r="E96" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="F96" s="37">
-        <f>COUNTIFS(E2:E91, "Apartment", F2:F91, "&gt;0")</f>
+      <c r="H91" s="21"/>
+      <c r="I91" s="8">
+        <v>3000</v>
+      </c>
+      <c r="J91" s="28"/>
+    </row>
+    <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G96" s="37">
-        <f>COUNTIFS(E2:E91, "Apartment", G2:G91, "&gt;0")</f>
-        <v>9</v>
-      </c>
-      <c r="H96" s="37">
-        <f>COUNTIFS(E2:E91, "Apartment", H2:H91, "&gt;0")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E92" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J92" s="8"/>
+    </row>
+    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8">
+        <v>150</v>
+      </c>
+      <c r="J93" s="8"/>
+    </row>
+    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J94" s="8"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="17">
+        <v>2500</v>
+      </c>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="9"/>
+    </row>
+    <row r="97" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C97" s="32" t="s">
+        <v>153</v>
+      </c>
       <c r="D97" s="33"/>
-      <c r="E97" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="F97" s="37">
-        <f>COUNTIFS(E2:E91, "Ind. Apartment", F2:F91, "&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="G97" s="37">
-        <f>COUNTIFS(E2:E91, "Ind. Apartment", G2:G91, "&gt;0")</f>
-        <v>9</v>
-      </c>
-      <c r="H97" s="37">
-        <f>COUNTIFS(E2:E91, "Ind. Apartment", H2:H91, "&gt;0")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C98" s="38"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+    </row>
+    <row r="98" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C98" s="33"/>
       <c r="D98" s="33"/>
       <c r="E98" s="33"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-    </row>
-    <row r="100" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C100" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I100" s="42"/>
-    </row>
-    <row r="101" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C101" s="36"/>
-    </row>
-    <row r="102" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E102" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F102" s="37">
-        <f>COUNTIFS(D2:D91, "1st Main", F2:F91, "&gt;0")</f>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+    </row>
+    <row r="99" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D99" s="33"/>
+      <c r="E99" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F99" s="37">
+        <f>COUNTIFS(E2:E95, "House", F2:F95, "&gt;0")</f>
+        <v>42</v>
+      </c>
+      <c r="G99" s="37">
+        <f>COUNTIFS(E2:E95, "House", G2:G95, "&gt;0")</f>
+        <v>45</v>
+      </c>
+      <c r="H99" s="37">
+        <f>COUNTIFS(E2:E95, "House", H2:H95, "&gt;0")</f>
+        <v>41</v>
+      </c>
+      <c r="I99" s="37">
+        <f>COUNTIFS(E2:E95, "House", I2:I95, "&gt;0")</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D100" s="33"/>
+      <c r="E100" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F100" s="37">
+        <f>COUNTIFS(E2:E95, "Apartment", F2:F95, "&gt;0")</f>
+        <v>11</v>
+      </c>
+      <c r="G100" s="37">
+        <f>COUNTIFS(E2:E95, "Apartment", G2:G95, "&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="H100" s="37">
+        <f>COUNTIFS(E2:E95, "Apartment", H2:H95, "&gt;0")</f>
+        <v>9</v>
+      </c>
+      <c r="I100" s="37">
+        <f>COUNTIFS(E2:E95, "Apartment", I2:I95, "&gt;0")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D101" s="33"/>
+      <c r="E101" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F101" s="37">
+        <f>COUNTIFS(E2:E95, "Ind. Apartment", F2:F95, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="37">
+        <f>COUNTIFS(E2:E95, "Ind. Apartment", G2:G95, "&gt;0")</f>
+        <v>9</v>
+      </c>
+      <c r="H101" s="37">
+        <f>COUNTIFS(E2:E95, "Ind. Apartment", H2:H95, "&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="I101" s="37">
+        <f>COUNTIFS(E2:E95, "Ind. Apartment", I2:I95, "&gt;0")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C102" s="38"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+    </row>
+    <row r="104" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C104" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="J104" s="42"/>
+    </row>
+    <row r="105" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C105" s="36"/>
+    </row>
+    <row r="106" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E106" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" s="37">
+        <f>COUNTIFS(D2:D95, "1st Main", F2:F95, "&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="G106" s="37">
+        <f>COUNTIFS(D2:D95, "1st Main", G2:G95, "&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="G102" s="37">
-        <f>COUNTIFS(D2:D91, "1st Main", G2:G91, "&gt;0")</f>
-        <v>2</v>
-      </c>
-      <c r="H102" s="37">
-        <f>COUNTIFS(D2:D91, "1st Main", H2:H91, "&gt;0")</f>
+      <c r="H106" s="37">
+        <f>COUNTIFS(D2:D95, "1st Main", H2:H95, "&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="I106" s="37">
+        <f>COUNTIFS(D2:D95, "1st Main", I2:I95, "&gt;0")</f>
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E103" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F103" s="37">
-        <f>COUNTIFS(D2:D91, "2nd Main", F2:F91, "&gt;0")</f>
+    <row r="107" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E107" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F107" s="37">
+        <f>COUNTIFS(D2:D95, "2nd Main", F2:F95, "&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="G103" s="37">
-        <f>COUNTIFS(D2:D91, "2nd Main", G2:G91, "&gt;0")</f>
+      <c r="G107" s="37">
+        <f>COUNTIFS(D2:D95, "2nd Main", G2:G95, "&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="H107" s="37">
+        <f>COUNTIFS(D2:D95, "2nd Main", H2:H95, "&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="I107" s="37">
+        <f>COUNTIFS(D2:D95, "2nd Main", I2:I95, "&gt;0")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E108" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" s="37">
+        <f>COUNTIFS(D2:D95, "3rd Main", F2:F95, "&gt;0")</f>
+        <v>12</v>
+      </c>
+      <c r="G108" s="37">
+        <f>COUNTIFS(D2:D95, "3rd Main", G2:G95, "&gt;0")</f>
+        <v>18</v>
+      </c>
+      <c r="H108" s="37">
+        <f>COUNTIFS(D2:D95, "3rd Main", H2:H95, "&gt;0")</f>
+        <v>15</v>
+      </c>
+      <c r="I108" s="37">
+        <f>COUNTIFS(D2:D95, "3rd Main", I2:I95, "&gt;0")</f>
         <v>7</v>
       </c>
-      <c r="H103" s="37">
-        <f>COUNTIFS(D2:D91, "2nd Main", H2:H91, "&gt;0")</f>
+    </row>
+    <row r="109" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E109" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" s="37">
+        <f>COUNTIFS(D2:D95, "1st Cross", F2:F95, "&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="G109" s="37">
+        <f>COUNTIFS(D2:D95, "1st Cross", G2:G95, "&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="H109" s="37">
+        <f>COUNTIFS(D2:D95, "1st Cross", H2:H95, "&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="I109" s="37">
+        <f>COUNTIFS(D2:D95, "1st Cross", I2:I95, "&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E104" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F104" s="37">
-        <f>COUNTIFS(D2:D91, "3rd Main", F2:F91, "&gt;0")</f>
-        <v>12</v>
-      </c>
-      <c r="G104" s="37">
-        <f>COUNTIFS(D2:D91, "3rd Main", G2:G91, "&gt;0")</f>
+    <row r="110" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E110" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="37">
+        <f>COUNTIFS(D2:D95, "2nd Cross", F2:F95, "&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="G110" s="37">
+        <f>COUNTIFS(D2:D95, "2nd Cross", G2:G95, "&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="H110" s="37">
+        <f>COUNTIFS(D2:D95, "2nd Cross", H2:H95, "&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="I110" s="37">
+        <f>COUNTIFS(D2:D95, "2nd Cross", I2:I95, "&gt;0")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E111" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" s="37">
+        <f>COUNTIFS(D2:D95, "3rd Cross", F2:F95, "&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="G111" s="37">
+        <f>COUNTIFS(D2:D95, "3rd Cross", G2:G95, "&gt;0")</f>
+        <v>9</v>
+      </c>
+      <c r="H111" s="37">
+        <f>COUNTIFS(D2:D95, "3rd Cross", H2:H95, "&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="I111" s="37">
+        <f>COUNTIFS(D2:D95, "3rd Cross", I2:I95, "&gt;0")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E112" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F112" s="37">
+        <f>COUNTIFS(D2:D95, "4th Cross", F2:F95, "&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="G112" s="37">
+        <f>COUNTIFS(D2:D95, "4th Cross", G2:G95, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="37">
+        <f>COUNTIFS(D2:D95, "4th Cross", H2:H95, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="37">
+        <f>COUNTIFS(D2:D95, "4th Cross", I2:I95, "&gt;0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E113" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" s="37">
+        <f>COUNTIFS(D2:D95, "Seethammal Road", F2:F95, "&gt;0")</f>
         <v>18</v>
       </c>
-      <c r="H104" s="37">
-        <f>COUNTIFS(D2:D91, "3rd Main", H2:H91, "&gt;0")</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E105" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="F105" s="37">
-        <f>COUNTIFS(D2:D91, "1st Cross", F2:F91, "&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="G105" s="37">
-        <f>COUNTIFS(D2:D91, "1st Cross", G2:G91, "&gt;0")</f>
-        <v>6</v>
-      </c>
-      <c r="H105" s="37">
-        <f>COUNTIFS(D2:D91, "1st Cross", H2:H91, "&gt;0")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E106" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" s="37">
-        <f>COUNTIFS(D2:D91, "2nd Cross", F2:F91, "&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="G106" s="37">
-        <f>COUNTIFS(D2:D91, "2nd Cross", G2:G91, "&gt;0")</f>
-        <v>6</v>
-      </c>
-      <c r="H106" s="37">
-        <f>COUNTIFS(D2:D91, "2nd Cross", H2:H91, "&gt;0")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E107" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F107" s="37">
-        <f>COUNTIFS(D2:D91, "3rd Cross", F2:F91, "&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="G107" s="37">
-        <f>COUNTIFS(D2:D91, "3rd Cross", G2:G91, "&gt;0")</f>
-        <v>8</v>
-      </c>
-      <c r="H107" s="37">
-        <f>COUNTIFS(D2:D91, "3rd Cross", H2:H91, "&gt;0")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E108" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F108" s="37">
-        <f>COUNTIFS(D2:D91, "4th Cross", F2:F91, "&gt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="G108" s="37">
-        <f>COUNTIFS(D2:D91, "4th Cross", G2:G91, "&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="H108" s="37">
-        <f>COUNTIFS(D2:D91, "4th Cross", H2:H91, "&gt;0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E109" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="37">
-        <f>COUNTIFS(D2:D91, "Seethammal Road", F2:F91, "&gt;0")</f>
-        <v>17</v>
-      </c>
-      <c r="G109" s="37">
-        <f>COUNTIFS(D2:D91, "Seethammal Road", G2:G91, "&gt;0")</f>
+      <c r="G113" s="37">
+        <f>COUNTIFS(D2:D95, "Seethammal Road", G2:G95, "&gt;0")</f>
+        <v>15</v>
+      </c>
+      <c r="H113" s="37">
+        <f>COUNTIFS(D2:D95, "Seethammal Road", H2:H95, "&gt;0")</f>
         <v>14</v>
       </c>
-      <c r="H109" s="37">
-        <f>COUNTIFS(D2:D91, "Seethammal Road", H2:H91, "&gt;0")</f>
-        <v>12</v>
+      <c r="I113" s="37">
+        <f>COUNTIFS(D2:D95, "Seethammal Road", I2:I95, "&gt;0")</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I88">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="A1:J95">
+    <sortState ref="A2:J95">
+      <sortCondition ref="D1:D95"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="184">
   <si>
     <t>S No</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Mukundan &amp; Komalam Mukundan</t>
   </si>
   <si>
-    <t>Old 61 New 16, Seethamma Road</t>
-  </si>
-  <si>
     <t>P Karthikesan</t>
   </si>
   <si>
@@ -365,9 +362,6 @@
     <t>Shankar Ram</t>
   </si>
   <si>
-    <t>20B 3rd Main Road</t>
-  </si>
-  <si>
     <t>Shanmuganathan S</t>
   </si>
   <si>
@@ -597,9 +591,6 @@
 9444176758</t>
   </si>
   <si>
-    <t xml:space="preserve">S Sankarram (MM Dental) </t>
-  </si>
-  <si>
     <t>20/1 3rd Main Road (MM Dental)</t>
   </si>
   <si>
@@ -610,12 +601,6 @@
 7/4 second cross street (Moved in after buying house)</t>
   </si>
   <si>
-    <t>#9/5 Aster Apartment
-3rd Cross Street
-+61 433158930
-Melbourne Australia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Venkatraman </t>
   </si>
   <si>
@@ -630,15 +615,9 @@
 17/2, FIRST MAIN ROAD SEETHAMMAL COLONY ALWARPET CHENNAI 600018</t>
   </si>
   <si>
-    <t>Rajaram Rajsekar</t>
-  </si>
-  <si>
     <t>Rajaram Rajsekar ,Shantha Nilayam,No.1, Masilamani Street, Seethammal colony 3rd Main road.</t>
   </si>
   <si>
-    <t>Cheque returned. Spoken with her. She'll reissue cheque or make online payment when back in Chennai</t>
-  </si>
-  <si>
     <t>Subscription Breakdown</t>
   </si>
   <si>
@@ -678,16 +657,7 @@
     <t>2500/- for subscription + 2500/- for Family meet</t>
   </si>
   <si>
-    <t>2500 for subscription + 5000 for Family meet</t>
-  </si>
-  <si>
-    <t>Johna Stephen Jeremiah</t>
-  </si>
-  <si>
     <t>Also has donated Rs1000 for buying dresses for Urbaser Sumeet employees + 2500 for subscription</t>
-  </si>
-  <si>
-    <t>Special Donation Family meet</t>
   </si>
   <si>
     <t>Subscription 2500/- and Pongalfest 15000</t>
@@ -728,12 +698,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>B R Rangamani (J Stephen later)</t>
-  </si>
-  <si>
-    <t>J S Jeremiah (Before - BR Rangamani)</t>
-  </si>
-  <si>
     <t>Vignesh (Same as Dorayswamy)</t>
   </si>
   <si>
@@ -746,23 +710,25 @@
     <t>Suprasanna Vijayaraghavan (Same as Uma Maheswari Vijayaraghavan)</t>
   </si>
   <si>
-    <t>Uma Maheswari Vijayaraghavan (Same as above)</t>
-  </si>
-  <si>
     <t>S. Ganesh (Same as below)</t>
   </si>
   <si>
-    <t>Ganesh Sivaraman (Same as above)</t>
-  </si>
-  <si>
-    <t>Narayanaswami Ravichandran
-(Same as N Ravichandran)</t>
-  </si>
-  <si>
     <t>Chandrasekar TS &amp; Lalitha</t>
   </si>
   <si>
     <t>3000 for 23-24 and 24-25</t>
+  </si>
+  <si>
+    <t>DummyRow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Special Donation Family meet (22-23)</t>
+  </si>
+  <si>
+    <t>B R Rangamani (J Stephen /Jonah Stephen Jeremiah)</t>
   </si>
 </sst>
 </file>
@@ -828,7 +794,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -879,20 +845,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFC2E0AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor rgb="FFFFDAA2"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor rgb="FFC2E0AE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFDAA2"/>
       </patternFill>
     </fill>
   </fills>
@@ -923,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,19 +940,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -999,7 +969,23 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1286,10 +1272,10 @@
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,10 +1283,10 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
     <col min="3" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="27" customWidth="1"/>
-    <col min="8" max="9" width="17.7109375" style="27" customWidth="1"/>
-    <col min="10" max="10" width="45.5703125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="24" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" style="27" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -1330,16 +1316,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="e">
-        <f t="shared" ref="A2:A33" si="0">A1+1</f>
-        <v>#VALUE!</v>
+      <c r="A2" s="5">
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>42</v>
@@ -1362,7 +1347,7 @@
       <c r="H2" s="19">
         <v>2500</v>
       </c>
-      <c r="I2" s="41"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11"/>
@@ -1371,9 +1356,9 @@
       <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="A3" s="5">
+        <f t="shared" ref="A2:A33" si="0">A2+1</f>
+        <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>45</v>
@@ -1407,15 +1392,15 @@
       <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="e">
+      <c r="A4" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>44</v>
@@ -1436,7 +1421,7 @@
         <v>2500</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="11"/>
@@ -1444,15 +1429,15 @@
       <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="e">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>44</v>
@@ -1477,15 +1462,15 @@
       <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="e">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>44</v>
@@ -1502,7 +1487,7 @@
       <c r="H6" s="19">
         <v>15000</v>
       </c>
-      <c r="I6" s="41"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
       <c r="L6" s="11"/>
@@ -1511,21 +1496,21 @@
       <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="e">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8">
@@ -1537,8 +1522,8 @@
       <c r="I7" s="8">
         <v>1500</v>
       </c>
-      <c r="J7" s="28" t="s">
-        <v>164</v>
+      <c r="J7" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
@@ -1547,9 +1532,9 @@
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="e">
+      <c r="A8" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>24</v>
@@ -1570,7 +1555,7 @@
       <c r="H8" s="9">
         <v>2500</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
@@ -1579,15 +1564,15 @@
       <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="e">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>26</v>
@@ -1599,8 +1584,8 @@
         <v>2500</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
@@ -1609,15 +1594,15 @@
       <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="e">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>26</v>
@@ -1643,15 +1628,15 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="e">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>26</v>
@@ -1679,15 +1664,15 @@
       <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="e">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>26</v>
@@ -1702,8 +1687,10 @@
       <c r="H12" s="8">
         <v>2500</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="28"/>
+      <c r="I12" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J12" s="25"/>
       <c r="K12" s="10"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -1711,15 +1698,15 @@
       <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="e">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>26</v>
@@ -1742,13 +1729,13 @@
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="e">
+    <row r="14" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>22</v>
@@ -1765,8 +1752,12 @@
       <c r="G14" s="8">
         <v>2500</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="H14" s="9">
+        <v>7500</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2500</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="11"/>
@@ -1775,35 +1766,35 @@
       <c r="O14" s="12"/>
     </row>
     <row r="15" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="e">
+      <c r="A15" s="45">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G15" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H15" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I15" s="9">
-        <v>2500</v>
-      </c>
-      <c r="J15" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" s="43"/>
       <c r="K15" s="10"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -1811,9 +1802,9 @@
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="e">
+      <c r="A16" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>54</v>
@@ -1827,16 +1818,20 @@
       <c r="E16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8">
+        <v>2500</v>
+      </c>
       <c r="G16" s="14">
-        <v>25000</v>
-      </c>
-      <c r="H16" s="29">
+        <v>27500</v>
+      </c>
+      <c r="H16" s="26">
         <v>5000</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29" t="s">
-        <v>169</v>
+      <c r="I16" s="26">
+        <v>2500</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="11"/>
@@ -1845,12 +1840,12 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="e">
+      <c r="A17" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>22</v>
@@ -1865,8 +1860,8 @@
         <v>2500</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="11"/>
@@ -1875,12 +1870,12 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="e">
+      <c r="A18" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>22</v>
@@ -1902,7 +1897,7 @@
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="11"/>
@@ -1911,12 +1906,12 @@
       <c r="O18" s="12"/>
     </row>
     <row r="19" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="e">
+      <c r="A19" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>22</v>
@@ -1940,36 +1935,22 @@
       <c r="N19" s="11"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="e">
+    <row r="20" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H20" s="14">
-        <v>7500</v>
-      </c>
-      <c r="I20" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>166</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="46"/>
       <c r="K20" s="10"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -1977,15 +1958,15 @@
       <c r="O20" s="12"/>
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="e">
+      <c r="A21" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>23</v>
@@ -2003,7 +1984,7 @@
       <c r="I21" s="23">
         <v>2500</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="10"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
@@ -2011,9 +1992,9 @@
       <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="e">
+      <c r="A22" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>35</v>
@@ -2033,8 +2014,8 @@
       <c r="G22" s="17">
         <v>2500</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="9"/>
       <c r="K22" s="10"/>
       <c r="L22" s="11"/>
@@ -2043,15 +2024,15 @@
       <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="e">
+      <c r="A23" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>37</v>
@@ -2072,7 +2053,7 @@
         <v>2500</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="11"/>
@@ -2081,21 +2062,21 @@
       <c r="O23" s="12"/>
     </row>
     <row r="24" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="e">
+      <c r="A24" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8">
@@ -2115,15 +2096,15 @@
       <c r="O24" s="12"/>
     </row>
     <row r="25" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="e">
+      <c r="A25" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>37</v>
@@ -2151,21 +2132,21 @@
       <c r="O25" s="12"/>
     </row>
     <row r="26" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="e">
+      <c r="A26" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8">
@@ -2175,7 +2156,7 @@
         <v>1500</v>
       </c>
       <c r="I26" s="21"/>
-      <c r="J26" s="28"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="10"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -2183,15 +2164,15 @@
       <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="e">
+      <c r="A27" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>37</v>
@@ -2215,9 +2196,9 @@
       <c r="O27" s="12"/>
     </row>
     <row r="28" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="e">
+      <c r="A28" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>17</v>
@@ -2251,15 +2232,15 @@
       <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="e">
+      <c r="A29" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>19</v>
@@ -2287,15 +2268,15 @@
       <c r="O29" s="12"/>
     </row>
     <row r="30" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="e">
+      <c r="A30" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>19</v>
@@ -2323,15 +2304,15 @@
       <c r="O30" s="12"/>
     </row>
     <row r="31" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="e">
+      <c r="A31" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>19</v>
@@ -2343,8 +2324,8 @@
         <v>5000</v>
       </c>
       <c r="G31" s="21"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
       <c r="J31" s="9"/>
       <c r="K31" s="10"/>
       <c r="L31" s="11"/>
@@ -2353,15 +2334,15 @@
       <c r="O31" s="12"/>
     </row>
     <row r="32" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="e">
+      <c r="A32" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>19</v>
@@ -2377,8 +2358,8 @@
       <c r="I32" s="8">
         <v>2500</v>
       </c>
-      <c r="J32" s="28" t="s">
-        <v>186</v>
+      <c r="J32" s="25" t="s">
+        <v>175</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32" s="11"/>
@@ -2387,21 +2368,21 @@
       <c r="O32" s="12"/>
     </row>
     <row r="33" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="e">
+      <c r="A33" s="5">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8">
@@ -2413,7 +2394,7 @@
       <c r="I33" s="23">
         <v>1500</v>
       </c>
-      <c r="J33" s="28"/>
+      <c r="J33" s="25"/>
       <c r="K33" s="10"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
@@ -2421,21 +2402,21 @@
       <c r="O33" s="12"/>
     </row>
     <row r="34" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="e">
-        <f t="shared" ref="A34:A68" si="1">A33+1</f>
-        <v>#VALUE!</v>
+      <c r="A34" s="5">
+        <f t="shared" ref="A34:A69" si="1">A33+1</f>
+        <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8">
@@ -2443,7 +2424,7 @@
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
-      <c r="J34" s="28"/>
+      <c r="J34" s="25"/>
       <c r="K34" s="10"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
@@ -2451,21 +2432,21 @@
       <c r="O34" s="12"/>
     </row>
     <row r="35" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="e">
+      <c r="A35" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8">
@@ -2475,7 +2456,7 @@
       <c r="I35" s="8">
         <v>1500</v>
       </c>
-      <c r="J35" s="28"/>
+      <c r="J35" s="25"/>
       <c r="K35" s="10"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
@@ -2483,61 +2464,55 @@
       <c r="O35" s="12"/>
     </row>
     <row r="36" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="e">
+      <c r="A36" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8">
         <v>1500</v>
       </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="28"/>
+      <c r="H36" s="8">
+        <v>1500</v>
+      </c>
+      <c r="I36" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J36" s="25"/>
       <c r="K36" s="10"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="e">
+    <row r="37" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8">
-        <v>1500</v>
-      </c>
-      <c r="I37" s="8">
-        <v>1500</v>
-      </c>
-      <c r="J37" s="28"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="46"/>
       <c r="K37" s="10"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
@@ -2545,21 +2520,21 @@
       <c r="O37" s="12"/>
     </row>
     <row r="38" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="e">
+      <c r="A38" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8">
@@ -2567,7 +2542,7 @@
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
-      <c r="J38" s="28"/>
+      <c r="J38" s="25"/>
       <c r="K38" s="10"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
@@ -2575,9 +2550,9 @@
       <c r="O38" s="12"/>
     </row>
     <row r="39" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="e">
+      <c r="A39" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>32</v>
@@ -2600,9 +2575,9 @@
       <c r="H39" s="9">
         <v>12500</v>
       </c>
-      <c r="I39" s="40"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="11"/>
@@ -2611,9 +2586,9 @@
       <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="e">
+      <c r="A40" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>38</v>
@@ -2631,16 +2606,16 @@
         <v>2500</v>
       </c>
       <c r="G40" s="8">
-        <v>2500</v>
+        <v>5500</v>
       </c>
       <c r="H40" s="19">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="I40" s="19">
         <v>2500</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K40" s="10"/>
       <c r="L40" s="11"/>
@@ -2649,31 +2624,21 @@
       <c r="O40" s="12"/>
     </row>
     <row r="41" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="e">
+      <c r="A41" s="40">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="14">
-        <v>3000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="29" t="s">
-        <v>13</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="43"/>
       <c r="K41" s="10"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
@@ -2681,31 +2646,21 @@
       <c r="O41" s="12"/>
     </row>
     <row r="42" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="e">
+      <c r="A42" s="40">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="22">
-        <v>3000</v>
-      </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="29" t="s">
-        <v>13</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="43"/>
       <c r="K42" s="10"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
@@ -2713,9 +2668,9 @@
       <c r="O42" s="12"/>
     </row>
     <row r="43" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="e">
+      <c r="A43" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>47</v>
@@ -2735,8 +2690,8 @@
       <c r="G43" s="8">
         <v>2500</v>
       </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
       <c r="L43" s="11"/>
@@ -2745,15 +2700,15 @@
       <c r="O43" s="12"/>
     </row>
     <row r="44" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="e">
+      <c r="A44" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>34</v>
@@ -2770,7 +2725,7 @@
       <c r="H44" s="9">
         <v>7500</v>
       </c>
-      <c r="I44" s="40"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="9"/>
       <c r="K44" s="10"/>
       <c r="L44" s="11"/>
@@ -2779,15 +2734,15 @@
       <c r="O44" s="12"/>
     </row>
     <row r="45" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="e">
+      <c r="A45" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>34</v>
@@ -2815,12 +2770,12 @@
       <c r="O45" s="12"/>
     </row>
     <row r="46" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="e">
+      <c r="A46" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>33</v>
@@ -2844,7 +2799,7 @@
         <v>2500</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="11"/>
@@ -2853,15 +2808,15 @@
       <c r="O46" s="12"/>
     </row>
     <row r="47" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="e">
+      <c r="A47" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>34</v>
@@ -2872,9 +2827,13 @@
       <c r="F47" s="8">
         <v>2500</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="40"/>
+      <c r="G47" s="8">
+        <v>5500</v>
+      </c>
+      <c r="H47" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I47" s="36"/>
       <c r="J47" s="9"/>
       <c r="K47" s="10"/>
       <c r="L47" s="11"/>
@@ -2883,15 +2842,15 @@
       <c r="O47" s="12"/>
     </row>
     <row r="48" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="e">
+      <c r="A48" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>34</v>
@@ -2903,8 +2862,8 @@
         <v>2500</v>
       </c>
       <c r="G48" s="17"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
       <c r="J48" s="9"/>
       <c r="K48" s="10"/>
       <c r="L48" s="11"/>
@@ -2913,15 +2872,15 @@
       <c r="O48" s="12"/>
     </row>
     <row r="49" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="e">
+      <c r="A49" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>34</v>
@@ -2938,7 +2897,7 @@
       <c r="H49" s="9">
         <v>2500</v>
       </c>
-      <c r="I49" s="40"/>
+      <c r="I49" s="36"/>
       <c r="J49" s="9"/>
       <c r="K49" s="10"/>
       <c r="L49" s="11"/>
@@ -2947,15 +2906,15 @@
       <c r="O49" s="12"/>
     </row>
     <row r="50" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="e">
+      <c r="A50" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>34</v>
@@ -2972,7 +2931,7 @@
       <c r="H50" s="9">
         <v>2500</v>
       </c>
-      <c r="I50" s="40"/>
+      <c r="I50" s="36"/>
       <c r="J50" s="9"/>
       <c r="K50" s="10"/>
       <c r="L50" s="11"/>
@@ -2981,15 +2940,15 @@
       <c r="O50" s="12"/>
     </row>
     <row r="51" spans="1:15" s="13" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="e">
+      <c r="A51" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>34</v>
@@ -3001,8 +2960,8 @@
         <v>2500</v>
       </c>
       <c r="G51" s="8"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
       <c r="J51" s="9"/>
       <c r="K51" s="10"/>
       <c r="L51" s="11"/>
@@ -3011,12 +2970,12 @@
       <c r="O51" s="12"/>
     </row>
     <row r="52" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="e">
+      <c r="A52" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>33</v>
@@ -3047,15 +3006,15 @@
       <c r="O52" s="12"/>
     </row>
     <row r="53" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="e">
+      <c r="A53" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>34</v>
@@ -3069,7 +3028,7 @@
       </c>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
-      <c r="J53" s="28"/>
+      <c r="J53" s="25"/>
       <c r="K53" s="10"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
@@ -3077,12 +3036,12 @@
       <c r="O53" s="12"/>
     </row>
     <row r="54" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="e">
+      <c r="A54" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>33</v>
@@ -3103,7 +3062,7 @@
       <c r="I54" s="8">
         <v>2500</v>
       </c>
-      <c r="J54" s="28"/>
+      <c r="J54" s="25"/>
       <c r="K54" s="10"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
@@ -3111,15 +3070,15 @@
       <c r="O54" s="12"/>
     </row>
     <row r="55" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="e">
+      <c r="A55" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>34</v>
@@ -3137,7 +3096,7 @@
       <c r="I55" s="8">
         <v>2500</v>
       </c>
-      <c r="J55" s="28"/>
+      <c r="J55" s="25"/>
       <c r="K55" s="10"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
@@ -3145,15 +3104,15 @@
       <c r="O55" s="12"/>
     </row>
     <row r="56" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="e">
+      <c r="A56" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>34</v>
@@ -3168,9 +3127,11 @@
       <c r="H56" s="14">
         <v>5000</v>
       </c>
-      <c r="I56" s="21"/>
-      <c r="J56" s="28" t="s">
-        <v>165</v>
+      <c r="I56" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="11"/>
@@ -3179,15 +3140,15 @@
       <c r="O56" s="12"/>
     </row>
     <row r="57" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="e">
+      <c r="A57" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>34</v>
@@ -3205,8 +3166,8 @@
       <c r="I57" s="8">
         <v>3000</v>
       </c>
-      <c r="J57" s="28" t="s">
-        <v>193</v>
+      <c r="J57" s="25" t="s">
+        <v>179</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="11"/>
@@ -3215,31 +3176,21 @@
       <c r="O57" s="12"/>
     </row>
     <row r="58" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="e">
+      <c r="A58" s="40">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H58" s="23">
-        <v>2500</v>
-      </c>
-      <c r="I58" s="21"/>
-      <c r="J58" s="28"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="41"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="46"/>
       <c r="K58" s="10"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
@@ -3247,63 +3198,43 @@
       <c r="O58" s="12"/>
     </row>
     <row r="59" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="e">
+      <c r="A59" s="40">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="14">
-        <v>3000</v>
-      </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="30" t="s">
-        <v>13</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" s="41"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="46"/>
       <c r="K59" s="10"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="e">
+    <row r="60" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="40">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23">
-        <v>2500</v>
-      </c>
-      <c r="I60" s="21"/>
-      <c r="J60" s="28" t="s">
-        <v>152</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="46"/>
       <c r="K60" s="10"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
@@ -3311,21 +3242,21 @@
       <c r="O60" s="12"/>
     </row>
     <row r="61" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="e">
+      <c r="A61" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8">
@@ -3341,19 +3272,19 @@
       <c r="O61" s="12"/>
     </row>
     <row r="62" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="e">
+      <c r="A62" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="D62" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="E62" s="7" t="s">
         <v>12</v>
       </c>
@@ -3361,8 +3292,8 @@
         <v>2500</v>
       </c>
       <c r="G62" s="21"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
       <c r="J62" s="9"/>
       <c r="K62" s="10"/>
       <c r="L62" s="11"/>
@@ -3371,9 +3302,9 @@
       <c r="O62" s="12"/>
     </row>
     <row r="63" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="e">
+      <c r="A63" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>51</v>
@@ -3405,12 +3336,12 @@
       <c r="O63" s="12"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="e">
+      <c r="A64" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>53</v>
@@ -3436,15 +3367,15 @@
       <c r="J64" s="9"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="e">
+      <c r="A65" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>64</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>53</v>
@@ -3455,48 +3386,58 @@
       <c r="F65" s="17">
         <v>2500</v>
       </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="41"/>
+      <c r="G65" s="17">
+        <v>2500</v>
+      </c>
+      <c r="H65" s="19">
+        <v>2500</v>
+      </c>
+      <c r="I65" s="19">
+        <v>2500</v>
+      </c>
       <c r="J65" s="9"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="e">
+      <c r="A66" s="40">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H66" s="21"/>
-      <c r="I66" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J66" s="28"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E66" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="H66" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="I66" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="J66" s="46"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="e">
+      <c r="A67" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>53</v>
@@ -3514,15 +3455,15 @@
       <c r="I67" s="8">
         <v>2500</v>
       </c>
-      <c r="J67" s="28"/>
+      <c r="J67" s="25"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="e">
+      <c r="A68" s="5">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C68" s="6">
         <v>9840023316</v>
@@ -3543,11 +3484,12 @@
       <c r="I68" s="23">
         <v>2500</v>
       </c>
-      <c r="J68" s="28"/>
+      <c r="J68" s="25"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>9</v>
@@ -3578,7 +3520,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <f t="shared" ref="A70:A95" si="2">A69+1</f>
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>9</v>
@@ -3598,14 +3540,14 @@
       </c>
       <c r="H70" s="18"/>
       <c r="I70" s="18"/>
-      <c r="J70" s="29" t="s">
+      <c r="J70" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>15</v>
@@ -3634,7 +3576,7 @@
     <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>20</v>
@@ -3652,14 +3594,14 @@
         <v>10000</v>
       </c>
       <c r="G72" s="21"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
       <c r="J72" s="9"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>27</v>
@@ -3680,13 +3622,13 @@
       <c r="H73" s="9">
         <v>7500</v>
       </c>
-      <c r="I73" s="40"/>
+      <c r="I73" s="36"/>
       <c r="J73" s="9"/>
     </row>
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>29</v>
@@ -3704,17 +3646,17 @@
         <v>10000</v>
       </c>
       <c r="G74" s="21"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
       <c r="J74" s="9"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>31</v>
@@ -3742,7 +3684,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>40</v>
@@ -3773,7 +3715,7 @@
     <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>48</v>
@@ -3804,7 +3746,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>50</v>
@@ -3822,14 +3764,14 @@
         <v>2500</v>
       </c>
       <c r="G78" s="21"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>55</v>
@@ -3860,7 +3802,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>57</v>
@@ -3883,45 +3825,47 @@
       <c r="H80" s="9">
         <v>2500</v>
       </c>
-      <c r="I80" s="40"/>
+      <c r="I80" s="36"/>
       <c r="J80" s="9"/>
     </row>
-    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="40">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G81" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H81" s="40"/>
-      <c r="I81" s="9">
-        <v>2500</v>
-      </c>
-      <c r="J81" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E81" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F81" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="H81" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="I81" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="J81" s="43"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>10</v>
@@ -3947,13 +3891,13 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>11</v>
@@ -3966,21 +3910,21 @@
       <c r="H83" s="9">
         <v>12500</v>
       </c>
-      <c r="I83" s="40"/>
+      <c r="I83" s="36"/>
       <c r="J83" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>11</v>
@@ -3997,19 +3941,19 @@
       <c r="H84" s="19">
         <v>2500</v>
       </c>
-      <c r="I84" s="41"/>
+      <c r="I84" s="37"/>
       <c r="J84" s="9"/>
     </row>
     <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>11</v>
@@ -4034,10 +3978,10 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>10</v>
@@ -4054,20 +3998,20 @@
       <c r="G86" s="8">
         <v>2500</v>
       </c>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
       <c r="J86" s="9"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>11</v>
@@ -4092,10 +4036,10 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>10</v>
@@ -4110,20 +4054,20 @@
         <v>2500</v>
       </c>
       <c r="G88" s="21"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
       <c r="J88" s="9"/>
     </row>
     <row r="89" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>11</v>
@@ -4141,18 +4085,18 @@
       <c r="I89" s="23">
         <v>7500</v>
       </c>
-      <c r="J89" s="28"/>
+      <c r="J89" s="25"/>
     </row>
     <row r="90" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>11</v>
@@ -4165,25 +4109,25 @@
         <v>10000</v>
       </c>
       <c r="H90" s="21"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="28"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="25"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
@@ -4191,24 +4135,24 @@
       <c r="I91" s="8">
         <v>3000</v>
       </c>
-      <c r="J91" s="28"/>
+      <c r="J91" s="25"/>
     </row>
     <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
@@ -4221,19 +4165,19 @@
     <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
@@ -4246,19 +4190,19 @@
     <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -4271,14 +4215,14 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="16" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>12</v>
@@ -4292,275 +4236,275 @@
       <c r="J95" s="9"/>
     </row>
     <row r="97" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C97" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
+      <c r="C97" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
     </row>
     <row r="98" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
     </row>
     <row r="99" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D99" s="33"/>
-      <c r="E99" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="F99" s="37">
+      <c r="D99" s="29"/>
+      <c r="E99" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F99" s="33">
         <f>COUNTIFS(E2:E95, "House", F2:F95, "&gt;0")</f>
-        <v>42</v>
-      </c>
-      <c r="G99" s="37">
+        <v>41</v>
+      </c>
+      <c r="G99" s="33">
         <f>COUNTIFS(E2:E95, "House", G2:G95, "&gt;0")</f>
-        <v>45</v>
-      </c>
-      <c r="H99" s="37">
+        <v>40</v>
+      </c>
+      <c r="H99" s="33">
         <f>COUNTIFS(E2:E95, "House", H2:H95, "&gt;0")</f>
-        <v>41</v>
-      </c>
-      <c r="I99" s="37">
+        <v>39</v>
+      </c>
+      <c r="I99" s="33">
         <f>COUNTIFS(E2:E95, "House", I2:I95, "&gt;0")</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D100" s="33"/>
-      <c r="E100" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F100" s="37">
+      <c r="D100" s="29"/>
+      <c r="E100" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F100" s="33">
         <f>COUNTIFS(E2:E95, "Apartment", F2:F95, "&gt;0")</f>
         <v>11</v>
       </c>
-      <c r="G100" s="37">
+      <c r="G100" s="33">
         <f>COUNTIFS(E2:E95, "Apartment", G2:G95, "&gt;0")</f>
         <v>10</v>
       </c>
-      <c r="H100" s="37">
+      <c r="H100" s="33">
         <f>COUNTIFS(E2:E95, "Apartment", H2:H95, "&gt;0")</f>
         <v>9</v>
       </c>
-      <c r="I100" s="37">
+      <c r="I100" s="33">
         <f>COUNTIFS(E2:E95, "Apartment", I2:I95, "&gt;0")</f>
         <v>8</v>
       </c>
     </row>
     <row r="101" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D101" s="33"/>
-      <c r="E101" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="F101" s="37">
+      <c r="D101" s="29"/>
+      <c r="E101" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F101" s="33">
         <f>COUNTIFS(E2:E95, "Ind. Apartment", F2:F95, "&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="G101" s="37">
+      <c r="G101" s="33">
         <f>COUNTIFS(E2:E95, "Ind. Apartment", G2:G95, "&gt;0")</f>
         <v>9</v>
       </c>
-      <c r="H101" s="37">
+      <c r="H101" s="33">
         <f>COUNTIFS(E2:E95, "Ind. Apartment", H2:H95, "&gt;0")</f>
         <v>5</v>
       </c>
-      <c r="I101" s="37">
+      <c r="I101" s="33">
         <f>COUNTIFS(E2:E95, "Ind. Apartment", I2:I95, "&gt;0")</f>
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C102" s="38"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
     </row>
     <row r="104" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C104" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="J104" s="42"/>
+      <c r="C104" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="J104" s="38"/>
     </row>
     <row r="105" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C105" s="36"/>
+      <c r="C105" s="32"/>
     </row>
     <row r="106" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E106" s="36" t="s">
+      <c r="E106" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F106" s="37">
+      <c r="F106" s="33">
         <f>COUNTIFS(D2:D95, "1st Main", F2:F95, "&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="G106" s="37">
+      <c r="G106" s="33">
         <f>COUNTIFS(D2:D95, "1st Main", G2:G95, "&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="H106" s="37">
+      <c r="H106" s="33">
         <f>COUNTIFS(D2:D95, "1st Main", H2:H95, "&gt;0")</f>
         <v>5</v>
       </c>
-      <c r="I106" s="37">
+      <c r="I106" s="33">
         <f>COUNTIFS(D2:D95, "1st Main", I2:I95, "&gt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E107" s="36" t="s">
+      <c r="E107" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F107" s="37">
+      <c r="F107" s="33">
         <f>COUNTIFS(D2:D95, "2nd Main", F2:F95, "&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="G107" s="37">
+      <c r="G107" s="33">
         <f>COUNTIFS(D2:D95, "2nd Main", G2:G95, "&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="H107" s="37">
+      <c r="H107" s="33">
         <f>COUNTIFS(D2:D95, "2nd Main", H2:H95, "&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="I107" s="37">
+      <c r="I107" s="33">
         <f>COUNTIFS(D2:D95, "2nd Main", I2:I95, "&gt;0")</f>
         <v>4</v>
       </c>
     </row>
     <row r="108" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E108" s="36" t="s">
+      <c r="E108" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F108" s="37">
+      <c r="F108" s="33">
         <f>COUNTIFS(D2:D95, "3rd Main", F2:F95, "&gt;0")</f>
         <v>12</v>
       </c>
-      <c r="G108" s="37">
+      <c r="G108" s="33">
         <f>COUNTIFS(D2:D95, "3rd Main", G2:G95, "&gt;0")</f>
-        <v>18</v>
-      </c>
-      <c r="H108" s="37">
+        <v>16</v>
+      </c>
+      <c r="H108" s="33">
         <f>COUNTIFS(D2:D95, "3rd Main", H2:H95, "&gt;0")</f>
-        <v>15</v>
-      </c>
-      <c r="I108" s="37">
+        <v>13</v>
+      </c>
+      <c r="I108" s="33">
         <f>COUNTIFS(D2:D95, "3rd Main", I2:I95, "&gt;0")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E109" s="36" t="s">
+      <c r="E109" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F109" s="37">
+      <c r="F109" s="33">
         <f>COUNTIFS(D2:D95, "1st Cross", F2:F95, "&gt;0")</f>
         <v>5</v>
       </c>
-      <c r="G109" s="37">
+      <c r="G109" s="33">
         <f>COUNTIFS(D2:D95, "1st Cross", G2:G95, "&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="H109" s="37">
+      <c r="H109" s="33">
         <f>COUNTIFS(D2:D95, "1st Cross", H2:H95, "&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="I109" s="37">
+      <c r="I109" s="33">
         <f>COUNTIFS(D2:D95, "1st Cross", I2:I95, "&gt;0")</f>
         <v>4</v>
       </c>
     </row>
     <row r="110" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E110" s="36" t="s">
+      <c r="E110" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F110" s="37">
+      <c r="F110" s="33">
         <f>COUNTIFS(D2:D95, "2nd Cross", F2:F95, "&gt;0")</f>
         <v>5</v>
       </c>
-      <c r="G110" s="37">
+      <c r="G110" s="33">
         <f>COUNTIFS(D2:D95, "2nd Cross", G2:G95, "&gt;0")</f>
-        <v>6</v>
-      </c>
-      <c r="H110" s="37">
+        <v>4</v>
+      </c>
+      <c r="H110" s="33">
         <f>COUNTIFS(D2:D95, "2nd Cross", H2:H95, "&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="I110" s="37">
+        <v>4</v>
+      </c>
+      <c r="I110" s="33">
         <f>COUNTIFS(D2:D95, "2nd Cross", I2:I95, "&gt;0")</f>
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E111" s="36" t="s">
+      <c r="E111" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F111" s="37">
+      <c r="F111" s="33">
         <f>COUNTIFS(D2:D95, "3rd Cross", F2:F95, "&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="G111" s="37">
+      <c r="G111" s="33">
         <f>COUNTIFS(D2:D95, "3rd Cross", G2:G95, "&gt;0")</f>
         <v>9</v>
       </c>
-      <c r="H111" s="37">
+      <c r="H111" s="33">
         <f>COUNTIFS(D2:D95, "3rd Cross", H2:H95, "&gt;0")</f>
         <v>5</v>
       </c>
-      <c r="I111" s="37">
+      <c r="I111" s="33">
         <f>COUNTIFS(D2:D95, "3rd Cross", I2:I95, "&gt;0")</f>
         <v>7</v>
       </c>
     </row>
     <row r="112" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E112" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F112" s="37">
+      <c r="E112" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F112" s="33">
         <f>COUNTIFS(D2:D95, "4th Cross", F2:F95, "&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="G112" s="37">
+      <c r="G112" s="33">
         <f>COUNTIFS(D2:D95, "4th Cross", G2:G95, "&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="H112" s="37">
+      <c r="H112" s="33">
         <f>COUNTIFS(D2:D95, "4th Cross", H2:H95, "&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="I112" s="37">
+      <c r="I112" s="33">
         <f>COUNTIFS(D2:D95, "4th Cross", I2:I95, "&gt;0")</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E113" s="36" t="s">
+      <c r="E113" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="37">
+      <c r="F113" s="33">
         <f>COUNTIFS(D2:D95, "Seethammal Road", F2:F95, "&gt;0")</f>
-        <v>18</v>
-      </c>
-      <c r="G113" s="37">
+        <v>17</v>
+      </c>
+      <c r="G113" s="33">
         <f>COUNTIFS(D2:D95, "Seethammal Road", G2:G95, "&gt;0")</f>
-        <v>15</v>
-      </c>
-      <c r="H113" s="37">
+        <v>14</v>
+      </c>
+      <c r="H113" s="33">
         <f>COUNTIFS(D2:D95, "Seethammal Road", H2:H95, "&gt;0")</f>
         <v>14</v>
       </c>
-      <c r="I113" s="37">
+      <c r="I113" s="33">
         <f>COUNTIFS(D2:D95, "Seethammal Road", I2:I95, "&gt;0")</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$96</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="184">
   <si>
     <t>S No</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>House</t>
-  </si>
-  <si>
-    <t>Special Donation</t>
   </si>
   <si>
     <t>Ajay N</t>
@@ -100,9 +97,6 @@
   </si>
   <si>
     <t>2nd Cross</t>
-  </si>
-  <si>
-    <t>B Suresh</t>
   </si>
   <si>
     <r>
@@ -229,9 +223,6 @@
     <t>Seethammal Road (9440684956)</t>
   </si>
   <si>
-    <t>Mukundan &amp; Komalam Mukundan</t>
-  </si>
-  <si>
     <t>P Karthikesan</t>
   </si>
   <si>
@@ -270,9 +261,6 @@
     <t>4th Cross</t>
   </si>
   <si>
-    <t>Peter Premraj</t>
-  </si>
-  <si>
     <t>R Padmanabhan</t>
   </si>
   <si>
@@ -319,9 +307,6 @@
   </si>
   <si>
     <t>Malavika Apartment</t>
-  </si>
-  <si>
-    <t>S Ravichandran</t>
   </si>
   <si>
     <t>S Sankaran (Auditor)</t>
@@ -405,9 +390,6 @@
     <t>Sundararajan R</t>
   </si>
   <si>
-    <t>1 Main Road</t>
-  </si>
-  <si>
     <t>Suresh Ramaswamy</t>
   </si>
   <si>
@@ -474,11 +456,6 @@
     <t>Velayutham R V</t>
   </si>
   <si>
-    <t>First Floor
-6/13 Third cross .st
-9840486437, 04448630884</t>
-  </si>
-  <si>
     <t>Vijay Jesudasan</t>
   </si>
   <si>
@@ -537,9 +514,6 @@
     <t xml:space="preserve">Aster Apartment  9/5  third cross street </t>
   </si>
   <si>
-    <t>Mukundan P</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Door No. 5 (old 2), 3rd Main Road
 98407 36396</t>
   </si>
@@ -594,9 +568,6 @@
     <t>20/1 3rd Main Road (MM Dental)</t>
   </si>
   <si>
-    <t>S V M Srinivasan</t>
-  </si>
-  <si>
     <t>"+91 98410 25999"
 7/4 second cross street (Moved in after buying house)</t>
   </si>
@@ -646,24 +617,6 @@
   </si>
   <si>
     <t>Flat 3rd Main Road</t>
-  </si>
-  <si>
-    <t>12 1st Main</t>
-  </si>
-  <si>
-    <t>Rs 1500/= Sreshta Tripura Apt Individual subscription + 2500/-for Family meet</t>
-  </si>
-  <si>
-    <t>2500/- for subscription + 2500/- for Family meet</t>
-  </si>
-  <si>
-    <t>Also has donated Rs1000 for buying dresses for Urbaser Sumeet employees + 2500 for subscription</t>
-  </si>
-  <si>
-    <t>Subscription 2500/- and Pongalfest 15000</t>
-  </si>
-  <si>
-    <t>Subscription 2500/- and Pongalfest 5000</t>
   </si>
   <si>
     <t>2500 Subscription + 10000 Pongalfest</t>
@@ -698,9 +651,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Vignesh (Same as Dorayswamy)</t>
-  </si>
-  <si>
     <t>Dorayswamy (Same as Vignesh)</t>
   </si>
   <si>
@@ -725,10 +675,59 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Special Donation Family meet (22-23)</t>
-  </si>
-  <si>
     <t>B R Rangamani (J Stephen /Jonah Stephen Jeremiah)</t>
+  </si>
+  <si>
+    <t>Mukundan P &amp; Komala Mukundan</t>
+  </si>
+  <si>
+    <t>11A, 1 Main Road</t>
+  </si>
+  <si>
+    <t>9840023316
+2 Crescent Street</t>
+  </si>
+  <si>
+    <t>J P Karunakaran</t>
+  </si>
+  <si>
+    <t>No. 3, F-2, Second Floor, Navin’s May Flower, 4th Cross Street</t>
+  </si>
+  <si>
+    <t>B Suresh / Boopathy Suresh</t>
+  </si>
+  <si>
+    <t>12 Seethamma Road</t>
+  </si>
+  <si>
+    <t>Subscription and 24 pongalfest donation</t>
+  </si>
+  <si>
+    <t>Peter Premraj / S V M Srinivasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Donation for pongal festival </t>
+  </si>
+  <si>
+    <t>Subscription 2500/- and Pongalfest 15000 + 2020 Family</t>
+  </si>
+  <si>
+    <t>Rs 1500/= Sreshta Tripura Apt Individual subscription + 2500/-for Family meet + subscription for 2025-26</t>
+  </si>
+  <si>
+    <t>2500/- for subscription + 2500/- for Family meet + 2024 Urbaser</t>
+  </si>
+  <si>
+    <t>Special Donation Family meet (22-23) + 2024 Urbaser</t>
+  </si>
+  <si>
+    <t>Also has donated Rs1000 for buying dresses for Urbaser Sumeet employees + 2500 for subscription + 2024 Urbaser</t>
+  </si>
+  <si>
+    <t>A M Raja</t>
+  </si>
+  <si>
+    <t>Maragathamani</t>
   </si>
 </sst>
 </file>
@@ -738,7 +737,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,8 +792,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -873,6 +879,24 @@
         <bgColor rgb="FFFFDAA2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFC2E0AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC2E0AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -901,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -986,6 +1010,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1266,16 +1297,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1347,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="J1" s="25" t="s">
         <v>8</v>
@@ -1327,14 +1358,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1347,7 +1378,9 @@
       <c r="H2" s="19">
         <v>2500</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="19">
+        <v>2500</v>
+      </c>
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
       <c r="L2" s="11"/>
@@ -1357,20 +1390,20 @@
     </row>
     <row r="3" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f t="shared" ref="A2:A33" si="0">A2+1</f>
+        <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="17">
         <v>10000</v>
@@ -1391,19 +1424,19 @@
       <c r="N3" s="11"/>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>12</v>
@@ -1418,10 +1451,10 @@
         <v>17500</v>
       </c>
       <c r="I4" s="9">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="11"/>
@@ -1434,13 +1467,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8">
@@ -1467,16 +1500,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="8">
         <v>15000</v>
@@ -1487,7 +1520,9 @@
       <c r="H6" s="19">
         <v>15000</v>
       </c>
-      <c r="I6" s="37"/>
+      <c r="I6" s="37">
+        <v>0</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
       <c r="L6" s="11"/>
@@ -1501,18 +1536,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
       <c r="G7" s="8">
         <v>1500</v>
       </c>
@@ -1520,10 +1557,10 @@
         <v>4000</v>
       </c>
       <c r="I7" s="8">
-        <v>1500</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>158</v>
+        <v>3000</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>178</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
@@ -1537,25 +1574,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="8">
         <v>2500</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
       <c r="H8" s="9">
         <v>2500</v>
       </c>
-      <c r="I8" s="36"/>
+      <c r="I8" s="9">
+        <v>2500</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
@@ -1569,13 +1610,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
@@ -1583,9 +1624,15 @@
       <c r="F9" s="8">
         <v>2500</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
@@ -1599,13 +1646,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8">
@@ -1628,18 +1675,18 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="49">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
@@ -1654,7 +1701,7 @@
         <v>2500</v>
       </c>
       <c r="I11" s="9">
-        <v>2512</v>
+        <v>2500</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
@@ -1669,60 +1716,68 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
       <c r="G12" s="8">
         <v>2500</v>
       </c>
       <c r="H12" s="8">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="I12" s="8">
         <v>2500</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="25" t="s">
+        <v>174</v>
+      </c>
       <c r="K12" s="10"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I13" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J13" s="8"/>
+      <c r="F13" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G13" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H13" s="9">
+        <v>7500</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J13" s="9"/>
       <c r="K13" s="10"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -1735,64 +1790,66 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="8">
         <v>2500</v>
       </c>
-      <c r="G14" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H14" s="9">
-        <v>7500</v>
-      </c>
-      <c r="I14" s="9">
-        <v>2500</v>
-      </c>
-      <c r="J14" s="9"/>
+      <c r="G14" s="14">
+        <v>27500</v>
+      </c>
+      <c r="H14" s="26">
+        <v>5000</v>
+      </c>
+      <c r="I14" s="26">
+        <v>3500</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>180</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="J15" s="43"/>
       <c r="K15" s="10"/>
@@ -1801,68 +1858,44 @@
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G16" s="14">
-        <v>27500</v>
-      </c>
-      <c r="H16" s="26">
-        <v>5000</v>
-      </c>
-      <c r="I16" s="26">
-        <v>2500</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>182</v>
-      </c>
+      <c r="B16" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
       <c r="K16" s="10"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="9"/>
+      <c r="B17" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="10"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
@@ -1875,73 +1908,79 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="E18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="8">
         <v>2500</v>
       </c>
-      <c r="G18" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H18" s="9">
-        <v>7500</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9" t="s">
-        <v>162</v>
-      </c>
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="H18" s="36">
+        <v>0</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9"/>
       <c r="K18" s="10"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="E19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="8">
         <v>2500</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="G19" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H19" s="23">
+        <v>2500</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2500</v>
+      </c>
+      <c r="J19" s="25"/>
       <c r="K19" s="10"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C20" s="41"/>
       <c r="D20" s="42"/>
@@ -1957,136 +1996,144 @@
       <c r="N20" s="11"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>140</v>
+      <c r="B21" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H21" s="23">
-        <v>2500</v>
-      </c>
-      <c r="I21" s="23">
-        <v>2500</v>
-      </c>
-      <c r="J21" s="25"/>
+        <v>15</v>
+      </c>
+      <c r="F21" s="17">
+        <v>7500</v>
+      </c>
+      <c r="G21" s="17">
+        <v>2500</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9"/>
       <c r="K21" s="10"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F22" s="17">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="G22" s="17">
         <v>2500</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="9"/>
+      <c r="H22" s="22">
+        <v>3500</v>
+      </c>
+      <c r="I22" s="19">
+        <v>3500</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="K22" s="10"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>74</v>
+      <c r="B23" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G23" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H23" s="22">
-        <v>3500</v>
-      </c>
-      <c r="I23" s="19">
-        <v>2500</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>160</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1500</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1500</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1500</v>
+      </c>
+      <c r="J23" s="9"/>
       <c r="K23" s="10"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="F24" s="8">
+        <v>7500</v>
+      </c>
       <c r="G24" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1500</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1500</v>
+        <v>7500</v>
+      </c>
+      <c r="H24" s="19">
+        <v>7500</v>
+      </c>
+      <c r="I24" s="19">
+        <v>7500</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
@@ -2095,68 +2142,72 @@
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="F25" s="8">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
-        <v>7500</v>
-      </c>
-      <c r="H25" s="19">
-        <v>7500</v>
-      </c>
-      <c r="I25" s="19">
-        <v>7500</v>
-      </c>
-      <c r="J25" s="9"/>
+        <v>1875</v>
+      </c>
+      <c r="H25" s="23">
+        <v>1500</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0</v>
+      </c>
+      <c r="J25" s="25"/>
       <c r="K25" s="10"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
       <c r="G26" s="8">
-        <v>1875</v>
-      </c>
-      <c r="H26" s="23">
-        <v>1500</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="25"/>
+        <v>2500</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J26" s="8"/>
       <c r="K26" s="10"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -2169,59 +2220,63 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J27" s="8"/>
+      <c r="F27" s="17">
+        <v>2500</v>
+      </c>
+      <c r="G27" s="17">
+        <v>2500</v>
+      </c>
+      <c r="H27" s="19">
+        <v>2500</v>
+      </c>
+      <c r="I27" s="19">
+        <v>2500</v>
+      </c>
+      <c r="J27" s="9"/>
       <c r="K27" s="10"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="E28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G28" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H28" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I28" s="19">
+      <c r="F28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I28" s="9">
         <v>2500</v>
       </c>
       <c r="J28" s="9"/>
@@ -2237,13 +2292,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>12</v>
@@ -2267,55 +2322,41 @@
       <c r="N29" s="11"/>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="30" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G30" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H30" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I30" s="9">
-        <v>2500</v>
-      </c>
-      <c r="J30" s="9"/>
+      <c r="B30" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="10"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="12"/>
     </row>
-    <row r="31" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>12</v>
@@ -2323,10 +2364,18 @@
       <c r="F31" s="8">
         <v>5000</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="9"/>
+      <c r="G31" s="8">
+        <v>5000</v>
+      </c>
+      <c r="H31" s="21">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J31" s="25" t="s">
+        <v>159</v>
+      </c>
       <c r="K31" s="10"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -2339,28 +2388,30 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
       <c r="G32" s="8">
-        <v>5000</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>175</v>
-      </c>
+        <v>1500</v>
+      </c>
+      <c r="H32" s="23">
+        <v>1500</v>
+      </c>
+      <c r="I32" s="23">
+        <v>1500</v>
+      </c>
+      <c r="J32" s="25"/>
       <c r="K32" s="10"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
@@ -2373,25 +2424,27 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
       <c r="G33" s="8">
         <v>1500</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="8">
         <v>1500</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="8">
         <v>1500</v>
       </c>
       <c r="J33" s="25"/>
@@ -2403,27 +2456,33 @@
     </row>
     <row r="34" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <f t="shared" ref="A34:A69" si="1">A33+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
       <c r="G34" s="8">
         <v>1500</v>
       </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="H34" s="21">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
+        <v>1500</v>
+      </c>
       <c r="J34" s="25"/>
       <c r="K34" s="10"/>
       <c r="L34" s="11"/>
@@ -2433,26 +2492,30 @@
     </row>
     <row r="35" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A35:A66" si="1">A34+1</f>
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
       <c r="G35" s="8">
         <v>1500</v>
       </c>
-      <c r="H35" s="21"/>
+      <c r="H35" s="8">
+        <v>1500</v>
+      </c>
       <c r="I35" s="8">
         <v>1500</v>
       </c>
@@ -2469,26 +2532,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
       <c r="G36" s="8">
         <v>1500</v>
       </c>
-      <c r="H36" s="8">
-        <v>1500</v>
-      </c>
-      <c r="I36" s="8">
-        <v>1500</v>
+      <c r="H36" s="21">
+        <v>0</v>
+      </c>
+      <c r="I36" s="21">
+        <v>0</v>
       </c>
       <c r="J36" s="25"/>
       <c r="K36" s="10"/>
@@ -2497,13 +2562,13 @@
       <c r="N36" s="11"/>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="42"/>
@@ -2519,50 +2584,58 @@
       <c r="N37" s="11"/>
       <c r="O37" s="12"/>
     </row>
-    <row r="38" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2500</v>
+      </c>
       <c r="G38" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="25"/>
+        <v>2500</v>
+      </c>
+      <c r="H38" s="9">
+        <v>12500</v>
+      </c>
+      <c r="I38" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="K38" s="10"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E39" s="7" t="s">
         <v>12</v>
       </c>
@@ -2570,14 +2643,16 @@
         <v>2500</v>
       </c>
       <c r="G39" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H39" s="9">
-        <v>12500</v>
-      </c>
-      <c r="I39" s="36"/>
+        <v>5500</v>
+      </c>
+      <c r="H39" s="19">
+        <v>9500</v>
+      </c>
+      <c r="I39" s="19">
+        <v>2500</v>
+      </c>
       <c r="J39" s="9" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="11"/>
@@ -2585,19 +2660,19 @@
       <c r="N39" s="11"/>
       <c r="O39" s="12"/>
     </row>
-    <row r="40" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>38</v>
+      <c r="B40" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>12</v>
@@ -2606,30 +2681,28 @@
         <v>2500</v>
       </c>
       <c r="G40" s="8">
-        <v>5500</v>
-      </c>
-      <c r="H40" s="19">
-        <v>9500</v>
-      </c>
-      <c r="I40" s="19">
-        <v>2500</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>165</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="H40" s="36">
+        <v>0</v>
+      </c>
+      <c r="I40" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J40" s="9"/>
       <c r="K40" s="10"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
     </row>
-    <row r="41" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="13" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C41" s="41"/>
       <c r="D41" s="42"/>
@@ -2645,13 +2718,13 @@
       <c r="N41" s="11"/>
       <c r="O41" s="12"/>
     </row>
-    <row r="42" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="13" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C42" s="41"/>
       <c r="D42" s="42"/>
@@ -2673,25 +2746,29 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="8">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="G43" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
+        <v>7500</v>
+      </c>
+      <c r="H43" s="9">
+        <v>7500</v>
+      </c>
+      <c r="I43" s="9">
+        <v>7500</v>
+      </c>
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
       <c r="L43" s="11"/>
@@ -2705,16 +2782,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F44" s="8">
         <v>7500</v>
@@ -2725,7 +2802,9 @@
       <c r="H44" s="9">
         <v>7500</v>
       </c>
-      <c r="I44" s="36"/>
+      <c r="I44" s="9">
+        <v>7500</v>
+      </c>
       <c r="J44" s="9"/>
       <c r="K44" s="10"/>
       <c r="L44" s="11"/>
@@ -2739,30 +2818,32 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F45" s="8">
-        <v>7500</v>
+        <v>2500.59</v>
       </c>
       <c r="G45" s="8">
-        <v>7500</v>
+        <v>2501.1799999999998</v>
       </c>
       <c r="H45" s="9">
         <v>7500</v>
       </c>
       <c r="I45" s="9">
-        <v>7500</v>
-      </c>
-      <c r="J45" s="9"/>
+        <v>2500</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="K45" s="10"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
@@ -2775,32 +2856,30 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="8">
-        <v>2500.59</v>
+        <v>2500</v>
       </c>
       <c r="G46" s="8">
-        <v>2501.1799999999998</v>
+        <v>5500</v>
       </c>
       <c r="H46" s="9">
-        <v>7500</v>
-      </c>
-      <c r="I46" s="9">
-        <v>2500</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>164</v>
-      </c>
+        <v>2500</v>
+      </c>
+      <c r="I46" s="36">
+        <v>0</v>
+      </c>
+      <c r="J46" s="9"/>
       <c r="K46" s="10"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
@@ -2812,28 +2891,30 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>85</v>
+      <c r="B47" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G47" s="8">
-        <v>5500</v>
-      </c>
-      <c r="H47" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I47" s="36"/>
+      <c r="F47" s="17">
+        <v>2500</v>
+      </c>
+      <c r="G47" s="18">
+        <v>0</v>
+      </c>
+      <c r="H47" s="37">
+        <v>0</v>
+      </c>
+      <c r="I47" s="37">
+        <v>0</v>
+      </c>
       <c r="J47" s="9"/>
       <c r="K47" s="10"/>
       <c r="L47" s="11"/>
@@ -2846,24 +2927,30 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>94</v>
+      <c r="B48" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
+      <c r="F48" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G48" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H48" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I48" s="9">
+        <v>2500</v>
+      </c>
       <c r="J48" s="9"/>
       <c r="K48" s="10"/>
       <c r="L48" s="11"/>
@@ -2883,7 +2970,7 @@
         <v>97</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>12</v>
@@ -2897,7 +2984,9 @@
       <c r="H49" s="9">
         <v>2500</v>
       </c>
-      <c r="I49" s="36"/>
+      <c r="I49" s="9">
+        <v>2500</v>
+      </c>
       <c r="J49" s="9"/>
       <c r="K49" s="10"/>
       <c r="L49" s="11"/>
@@ -2905,19 +2994,19 @@
       <c r="N49" s="11"/>
       <c r="O49" s="12"/>
     </row>
-    <row r="50" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="13" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>12</v>
@@ -2925,13 +3014,15 @@
       <c r="F50" s="8">
         <v>2500</v>
       </c>
-      <c r="G50" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H50" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I50" s="36"/>
+      <c r="G50" s="21">
+        <v>0</v>
+      </c>
+      <c r="H50" s="36">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
+        <v>2500</v>
+      </c>
       <c r="J50" s="9"/>
       <c r="K50" s="10"/>
       <c r="L50" s="11"/>
@@ -2945,13 +3036,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>12</v>
@@ -2959,9 +3050,15 @@
       <c r="F51" s="8">
         <v>2500</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
+      <c r="G51" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H51" s="19">
+        <v>2500</v>
+      </c>
+      <c r="I51" s="19">
+        <v>2500</v>
+      </c>
       <c r="J51" s="9"/>
       <c r="K51" s="10"/>
       <c r="L51" s="11"/>
@@ -2969,65 +3066,71 @@
       <c r="N51" s="11"/>
       <c r="O51" s="12"/>
     </row>
-    <row r="52" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="8">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G52" s="8">
         <v>2500</v>
       </c>
-      <c r="H52" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I52" s="19">
-        <v>2500</v>
-      </c>
-      <c r="J52" s="9"/>
+      <c r="H52" s="21">
+        <v>0</v>
+      </c>
+      <c r="I52" s="21">
+        <v>0</v>
+      </c>
+      <c r="J52" s="25"/>
       <c r="K52" s="10"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="12"/>
     </row>
-    <row r="53" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="8"/>
+      <c r="F53" s="8">
+        <v>0</v>
+      </c>
       <c r="G53" s="8">
         <v>2500</v>
       </c>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
+      <c r="H53" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I53" s="8">
+        <v>2500</v>
+      </c>
       <c r="J53" s="25"/>
       <c r="K53" s="10"/>
       <c r="L53" s="11"/>
@@ -3035,24 +3138,26 @@
       <c r="N53" s="11"/>
       <c r="O53" s="12"/>
     </row>
-    <row r="54" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+    <row r="54" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="49">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="D54" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="8"/>
+      <c r="F54" s="8">
+        <v>2500</v>
+      </c>
       <c r="G54" s="8">
         <v>2500</v>
       </c>
@@ -3069,69 +3174,75 @@
       <c r="N54" s="11"/>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="8"/>
+      <c r="F55" s="8">
+        <v>0</v>
+      </c>
       <c r="G55" s="8">
         <v>2500</v>
       </c>
-      <c r="H55" s="8">
-        <v>2500</v>
+      <c r="H55" s="14">
+        <v>5000</v>
       </c>
       <c r="I55" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J55" s="25"/>
+        <v>3500</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>179</v>
+      </c>
       <c r="K55" s="10"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="8"/>
+      <c r="F56" s="8">
+        <v>0</v>
+      </c>
       <c r="G56" s="8">
         <v>2500</v>
       </c>
-      <c r="H56" s="14">
-        <v>5000</v>
+      <c r="H56" s="8">
+        <v>1500</v>
       </c>
       <c r="I56" s="8">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="11"/>
@@ -3139,49 +3250,49 @@
       <c r="N56" s="11"/>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F57" s="8">
+        <v>0</v>
+      </c>
       <c r="G57" s="8">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="H57" s="8">
-        <v>1500</v>
-      </c>
-      <c r="I57" s="8">
-        <v>3000</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" s="21">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8"/>
       <c r="K57" s="10"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C58" s="41"/>
       <c r="D58" s="42"/>
@@ -3197,13 +3308,13 @@
       <c r="N58" s="11"/>
       <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C59" s="41"/>
       <c r="D59" s="42"/>
@@ -3219,13 +3330,13 @@
       <c r="N59" s="11"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C60" s="41"/>
       <c r="D60" s="42"/>
@@ -3246,54 +3357,66 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>155</v>
+      <c r="B61" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8">
-        <v>1500</v>
-      </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="F61" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G61" s="21">
+        <v>0</v>
+      </c>
+      <c r="H61" s="37">
+        <v>0</v>
+      </c>
+      <c r="I61" s="19">
+        <v>2500</v>
+      </c>
+      <c r="J61" s="9"/>
       <c r="K61" s="10"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>60</v>
+      <c r="B62" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G62" s="21"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
+        <v>171</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="17">
+        <v>0</v>
+      </c>
+      <c r="G62" s="18">
+        <v>0</v>
+      </c>
+      <c r="H62" s="18">
+        <v>0</v>
+      </c>
+      <c r="I62" s="17">
+        <v>2500</v>
+      </c>
       <c r="J62" s="9"/>
       <c r="K62" s="10"/>
       <c r="L62" s="11"/>
@@ -3307,13 +3430,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>12</v>
@@ -3321,7 +3444,9 @@
       <c r="F63" s="8">
         <v>5000</v>
       </c>
-      <c r="G63" s="21"/>
+      <c r="G63" s="21">
+        <v>0</v>
+      </c>
       <c r="H63" s="19">
         <v>2500</v>
       </c>
@@ -3341,13 +3466,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>12</v>
@@ -3372,13 +3497,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>12</v>
@@ -3397,84 +3522,88 @@
       </c>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H66" s="39" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="J66" s="46"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A67:A96" si="2">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="8">
+        <v>0</v>
+      </c>
+      <c r="G67" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H67" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I67" s="8">
+        <v>2500</v>
+      </c>
+      <c r="J67" s="25"/>
+    </row>
+    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H67" s="8">
-        <v>2500</v>
-      </c>
-      <c r="I67" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J67" s="25"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="6">
-        <v>9840023316</v>
+      <c r="C68" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="8"/>
+      <c r="F68" s="8">
+        <v>0</v>
+      </c>
       <c r="G68" s="8">
         <v>2500</v>
       </c>
@@ -3487,15 +3616,15 @@
       <c r="J68" s="25"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <f t="shared" si="1"/>
+      <c r="A69" s="48">
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>11</v>
@@ -3504,22 +3633,22 @@
         <v>12</v>
       </c>
       <c r="F69" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G69" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H69" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I69" s="9">
-        <v>2500</v>
-      </c>
-      <c r="J69" s="9"/>
+        <v>2512</v>
+      </c>
+      <c r="G69" s="21">
+        <v>0</v>
+      </c>
+      <c r="H69" s="8">
+        <v>2500</v>
+      </c>
+      <c r="I69" s="8">
+        <v>2512</v>
+      </c>
+      <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <f t="shared" ref="A70:A95" si="2">A69+1</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -3534,150 +3663,158 @@
       <c r="E70" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="14">
-        <v>20000</v>
-      </c>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="F70" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G70" s="8">
+        <v>22500</v>
+      </c>
+      <c r="H70" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I70" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="40">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G71" s="20"/>
-      <c r="H71" s="19">
-        <v>10000</v>
-      </c>
-      <c r="I71" s="19">
-        <v>10000</v>
-      </c>
-      <c r="J71" s="9"/>
-    </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="41"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="43"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="8">
+        <v>15</v>
+      </c>
+      <c r="F72" s="17">
         <v>10000</v>
       </c>
-      <c r="G72" s="21"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
+      <c r="G72" s="20">
+        <v>0</v>
+      </c>
+      <c r="H72" s="19">
+        <v>10000</v>
+      </c>
+      <c r="I72" s="19">
+        <v>10000</v>
+      </c>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E73" s="7"/>
+      <c r="E73" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F73" s="8">
-        <v>7500</v>
-      </c>
-      <c r="G73" s="8">
-        <v>7500</v>
-      </c>
-      <c r="H73" s="9">
-        <v>7500</v>
-      </c>
-      <c r="I73" s="36"/>
+        <v>10000</v>
+      </c>
+      <c r="G73" s="21">
+        <v>0</v>
+      </c>
+      <c r="H73" s="36">
+        <v>0</v>
+      </c>
+      <c r="I73" s="36">
+        <v>0</v>
+      </c>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="E74" s="7"/>
       <c r="F74" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G74" s="21"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
+        <v>7500</v>
+      </c>
+      <c r="G74" s="8">
+        <v>7500</v>
+      </c>
+      <c r="H74" s="9">
+        <v>7500</v>
+      </c>
+      <c r="I74" s="36">
+        <v>0</v>
+      </c>
       <c r="J74" s="9"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F75" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G75" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H75" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I75" s="9">
-        <v>2500</v>
+        <v>10000</v>
+      </c>
+      <c r="G75" s="21">
+        <v>0</v>
+      </c>
+      <c r="H75" s="36">
+        <v>0</v>
+      </c>
+      <c r="I75" s="36">
+        <v>0</v>
       </c>
       <c r="J75" s="9"/>
     </row>
@@ -3687,10 +3824,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>11</v>
@@ -3698,74 +3835,80 @@
       <c r="E76" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="8">
         <v>2500</v>
       </c>
       <c r="G76" s="8">
         <v>2500</v>
       </c>
-      <c r="H76" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I76" s="19">
+      <c r="H76" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I76" s="9">
         <v>2500</v>
       </c>
       <c r="J76" s="9"/>
     </row>
-    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F77" s="17">
-        <v>10000</v>
-      </c>
-      <c r="G77" s="17">
-        <v>10000</v>
+        <v>2500</v>
+      </c>
+      <c r="G77" s="8">
+        <v>2500</v>
       </c>
       <c r="H77" s="19">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="I77" s="19">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G78" s="21"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
+        <v>15</v>
+      </c>
+      <c r="F78" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G78" s="17">
+        <v>10000</v>
+      </c>
+      <c r="H78" s="19">
+        <v>10000</v>
+      </c>
+      <c r="I78" s="19">
+        <v>10000</v>
+      </c>
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3774,10 +3917,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>11</v>
@@ -3786,107 +3929,83 @@
         <v>12</v>
       </c>
       <c r="F79" s="8">
-        <v>5000</v>
-      </c>
-      <c r="G79" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H79" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I79" s="19">
-        <v>2500</v>
+        <v>2500</v>
+      </c>
+      <c r="G79" s="21">
+        <v>0</v>
+      </c>
+      <c r="H79" s="36">
+        <v>0</v>
+      </c>
+      <c r="I79" s="36">
+        <v>0</v>
       </c>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="40">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G80" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H80" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I80" s="36"/>
-      <c r="J80" s="9"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="41"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E81" s="42" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F81" s="39" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H81" s="43" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="I81" s="43" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="J81" s="43"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="40">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="8">
-        <v>2512</v>
-      </c>
-      <c r="G82" s="21"/>
-      <c r="H82" s="9">
-        <v>2500</v>
-      </c>
-      <c r="I82" s="9">
-        <v>2500</v>
-      </c>
-      <c r="J82" s="9"/>
+      <c r="B82" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="41"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
@@ -3894,10 +4013,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>11</v>
@@ -3905,26 +4024,30 @@
       <c r="E83" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="9">
-        <v>12500</v>
-      </c>
-      <c r="I83" s="36"/>
-      <c r="J83" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="F83" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G83" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H83" s="19">
+        <v>2500</v>
+      </c>
+      <c r="I83" s="19">
+        <v>2500</v>
+      </c>
+      <c r="J83" s="9"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B84" s="15" t="s">
-        <v>86</v>
+      <c r="B84" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>11</v>
@@ -3932,74 +4055,78 @@
       <c r="E84" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G84" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H84" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I84" s="37"/>
-      <c r="J84" s="9"/>
-    </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="9">
+        <v>12500</v>
+      </c>
+      <c r="I84" s="9">
+        <v>2500</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>91</v>
+      <c r="B85" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="8">
-        <v>15000</v>
-      </c>
-      <c r="G85" s="8">
-        <v>15000</v>
+        <v>12</v>
+      </c>
+      <c r="F85" s="17">
+        <v>2500</v>
+      </c>
+      <c r="G85" s="17">
+        <v>2500</v>
       </c>
       <c r="H85" s="19">
-        <v>15000</v>
-      </c>
-      <c r="I85" s="19">
-        <v>15000</v>
+        <v>2500</v>
+      </c>
+      <c r="I85" s="37">
+        <v>0</v>
       </c>
       <c r="J85" s="9"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F86" s="8">
-        <v>2500</v>
+        <v>15000</v>
       </c>
       <c r="G86" s="8">
-        <v>2500</v>
-      </c>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36"/>
+        <v>15000</v>
+      </c>
+      <c r="H86" s="19">
+        <v>15000</v>
+      </c>
+      <c r="I86" s="19">
+        <v>15000</v>
+      </c>
       <c r="J86" s="9"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4008,28 +4135,28 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F87" s="8">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="G87" s="8">
         <v>2500</v>
       </c>
-      <c r="H87" s="9">
-        <v>2500</v>
+      <c r="H87" s="36">
+        <v>0</v>
       </c>
       <c r="I87" s="9">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="J87" s="9"/>
     </row>
@@ -4039,128 +4166,148 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F88" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G88" s="21"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
+        <v>7500</v>
+      </c>
+      <c r="G88" s="8">
+        <v>2500</v>
+      </c>
+      <c r="H88" s="9">
+        <v>2500</v>
+      </c>
+      <c r="I88" s="9">
+        <v>7500</v>
+      </c>
       <c r="J88" s="9"/>
     </row>
-    <row r="89" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8">
-        <v>7500</v>
-      </c>
-      <c r="H89" s="23">
-        <v>7500</v>
-      </c>
-      <c r="I89" s="23">
-        <v>7500</v>
-      </c>
-      <c r="J89" s="25"/>
-    </row>
-    <row r="90" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F89" s="8">
+        <v>2500</v>
+      </c>
+      <c r="G89" s="21">
+        <v>0</v>
+      </c>
+      <c r="H89" s="36">
+        <v>0</v>
+      </c>
+      <c r="I89" s="36">
+        <v>0</v>
+      </c>
+      <c r="J89" s="9"/>
+    </row>
+    <row r="90" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D90" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="8"/>
+      <c r="E90" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="21">
+        <v>0</v>
+      </c>
       <c r="G90" s="8">
-        <v>10000</v>
-      </c>
-      <c r="H90" s="21"/>
-      <c r="I90" s="39"/>
+        <v>7500</v>
+      </c>
+      <c r="H90" s="23">
+        <v>7500</v>
+      </c>
+      <c r="I90" s="23">
+        <v>7500</v>
+      </c>
       <c r="J90" s="25"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="8">
-        <v>3000</v>
+        <v>15</v>
+      </c>
+      <c r="F91" s="21">
+        <v>0</v>
+      </c>
+      <c r="G91" s="8">
+        <v>10000</v>
+      </c>
+      <c r="H91" s="21">
+        <v>0</v>
+      </c>
+      <c r="I91" s="39">
+        <v>1</v>
       </c>
       <c r="J91" s="25"/>
     </row>
-    <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D92" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E92" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
+      <c r="E92" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
       <c r="I92" s="8">
-        <v>1500</v>
-      </c>
-      <c r="J92" s="8"/>
+        <v>3000</v>
+      </c>
+      <c r="J92" s="25"/>
     </row>
     <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
@@ -4168,22 +4315,28 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F93" s="21">
+        <v>0</v>
+      </c>
+      <c r="G93" s="21">
+        <v>0</v>
+      </c>
+      <c r="H93" s="21">
+        <v>0</v>
+      </c>
       <c r="I93" s="8">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="J93" s="8"/>
     </row>
@@ -4193,327 +4346,516 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="F94" s="21">
+        <v>0</v>
+      </c>
+      <c r="G94" s="21">
+        <v>0</v>
+      </c>
+      <c r="H94" s="21">
+        <v>0</v>
+      </c>
       <c r="I94" s="8">
         <v>1500</v>
       </c>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B95" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="9"/>
-    </row>
-    <row r="97" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C97" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
-    </row>
-    <row r="98" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
-    </row>
-    <row r="99" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D99" s="29"/>
-      <c r="E99" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="F99" s="33">
-        <f>COUNTIFS(E2:E95, "House", F2:F95, "&gt;0")</f>
-        <v>41</v>
-      </c>
-      <c r="G99" s="33">
-        <f>COUNTIFS(E2:E95, "House", G2:G95, "&gt;0")</f>
-        <v>40</v>
-      </c>
-      <c r="H99" s="33">
-        <f>COUNTIFS(E2:E95, "House", H2:H95, "&gt;0")</f>
-        <v>39</v>
-      </c>
-      <c r="I99" s="33">
-        <f>COUNTIFS(E2:E95, "House", I2:I95, "&gt;0")</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D100" s="29"/>
-      <c r="E100" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="F100" s="33">
-        <f>COUNTIFS(E2:E95, "Apartment", F2:F95, "&gt;0")</f>
+      <c r="B95" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G100" s="33">
-        <f>COUNTIFS(E2:E95, "Apartment", G2:G95, "&gt;0")</f>
-        <v>10</v>
-      </c>
-      <c r="H100" s="33">
-        <f>COUNTIFS(E2:E95, "Apartment", H2:H95, "&gt;0")</f>
-        <v>9</v>
-      </c>
-      <c r="I100" s="33">
-        <f>COUNTIFS(E2:E95, "Apartment", I2:I95, "&gt;0")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E95" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="21">
+        <v>0</v>
+      </c>
+      <c r="G95" s="21">
+        <v>0</v>
+      </c>
+      <c r="H95" s="21">
+        <v>0</v>
+      </c>
+      <c r="I95" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J95" s="8"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="17">
+        <v>2500</v>
+      </c>
+      <c r="G96" s="18">
+        <v>0</v>
+      </c>
+      <c r="H96" s="18">
+        <v>0</v>
+      </c>
+      <c r="I96" s="18">
+        <v>0</v>
+      </c>
+      <c r="J96" s="9"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="18">
+        <v>0</v>
+      </c>
+      <c r="G97" s="18">
+        <v>0</v>
+      </c>
+      <c r="H97" s="18">
+        <v>0</v>
+      </c>
+      <c r="I97" s="17">
+        <v>2500</v>
+      </c>
+      <c r="J97" s="9"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F98" s="18">
+        <v>0</v>
+      </c>
+      <c r="G98" s="18">
+        <v>0</v>
+      </c>
+      <c r="H98" s="18">
+        <v>0</v>
+      </c>
+      <c r="I98" s="17">
+        <v>1500</v>
+      </c>
+      <c r="J98" s="9"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="9"/>
+    </row>
+    <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C101" s="28" t="s">
+        <v>138</v>
+      </c>
       <c r="D101" s="29"/>
-      <c r="E101" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F101" s="33">
-        <f>COUNTIFS(E2:E95, "Ind. Apartment", F2:F95, "&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="33">
-        <f>COUNTIFS(E2:E95, "Ind. Apartment", G2:G95, "&gt;0")</f>
-        <v>9</v>
-      </c>
-      <c r="H101" s="33">
-        <f>COUNTIFS(E2:E95, "Ind. Apartment", H2:H95, "&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="I101" s="33">
-        <f>COUNTIFS(E2:E95, "Ind. Apartment", I2:I95, "&gt;0")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C102" s="34"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+    </row>
+    <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C102" s="29"/>
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
-    </row>
-    <row r="104" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C104" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="J104" s="38"/>
-    </row>
-    <row r="105" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C105" s="32"/>
-    </row>
-    <row r="106" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E106" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F106" s="33">
-        <f>COUNTIFS(D2:D95, "1st Main", F2:F95, "&gt;0")</f>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+    </row>
+    <row r="103" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D103" s="29"/>
+      <c r="E103" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F103" s="33">
+        <f>COUNTIFS(E2:E98, "House", F2:F98, "&lt;&gt;0")</f>
+        <v>41</v>
+      </c>
+      <c r="G103" s="33">
+        <f>COUNTIFS(E2:E98, "House", G2:G98, "&lt;&gt;0")</f>
+        <v>38</v>
+      </c>
+      <c r="H103" s="33">
+        <f>COUNTIFS(E2:E98, "House", H2:H98, "&lt;&gt;0")</f>
+        <v>36</v>
+      </c>
+      <c r="I103" s="33">
+        <f>COUNTIFS(E2:E98, "House", I2:I98, "&lt;&gt;0")</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D104" s="29"/>
+      <c r="E104" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F104" s="33">
+        <f>COUNTIFS(E2:E98, "Apartment", F2:F98, "&lt;&gt;0")</f>
+        <v>11</v>
+      </c>
+      <c r="G104" s="33">
+        <f>COUNTIFS(E2:E98, "Apartment", G2:G98, "&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="H104" s="33">
+        <f>COUNTIFS(E2:E98, "Apartment", H2:H98, "&lt;&gt;0")</f>
+        <v>9</v>
+      </c>
+      <c r="I104" s="33">
+        <f>COUNTIFS(E2:E98, "Apartment", I2:I98, "&lt;&gt;0")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D105" s="29"/>
+      <c r="E105" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F105" s="33">
+        <f>COUNTIFS(E2:E98, "Ind. Apartment", F2:F98, "&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="G105" s="33">
+        <f>COUNTIFS(E2:E98, "Ind. Apartment", G2:G98, "&lt;&gt;0.00")</f>
+        <v>10</v>
+      </c>
+      <c r="H105" s="33">
+        <f>COUNTIFS(E2:E98, "Ind. Apartment", H2:H98, "&lt;&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="I105" s="33">
+        <f>COUNTIFS(E2:E98, "Ind. Apartment", I2:I98, "&lt;&gt;0")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C106" s="34"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+    </row>
+    <row r="108" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C108" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="J108" s="38"/>
+    </row>
+    <row r="109" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C109" s="32"/>
+    </row>
+    <row r="110" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E110" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="33">
+        <f>COUNTIFS(D2:D98, "1st Main", F2:F98, "&lt;&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="G106" s="33">
-        <f>COUNTIFS(D2:D95, "1st Main", G2:G95, "&gt;0")</f>
+      <c r="G110" s="33">
+        <f>COUNTIFS(D2:D98, "1st Main", G2:G98, "&lt;&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="H106" s="33">
-        <f>COUNTIFS(D2:D95, "1st Main", H2:H95, "&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="I106" s="33">
-        <f>COUNTIFS(D2:D95, "1st Main", I2:I95, "&gt;0")</f>
+      <c r="H110" s="33">
+        <f>COUNTIFS(D2:D98, "1st Main", H2:H98, "&lt;&gt;0")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E107" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F107" s="33">
-        <f>COUNTIFS(D2:D95, "2nd Main", F2:F95, "&gt;0")</f>
+      <c r="I110" s="33">
+        <f>COUNTIFS(D2:D98, "1st Main", I2:I98, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E111" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F111" s="33">
+        <f>COUNTIFS(D2:D98, "2nd Main", F2:F98, "&lt;&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="G107" s="33">
-        <f>COUNTIFS(D2:D95, "2nd Main", G2:G95, "&gt;0")</f>
+      <c r="G111" s="33">
+        <f>COUNTIFS(D2:D98, "2nd Main", G2:G98, "&lt;&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="H107" s="33">
-        <f>COUNTIFS(D2:D95, "2nd Main", H2:H95, "&gt;0")</f>
+      <c r="H111" s="33">
+        <f>COUNTIFS(D2:D98, "2nd Main", H2:H98, "&lt;&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="I107" s="33">
-        <f>COUNTIFS(D2:D95, "2nd Main", I2:I95, "&gt;0")</f>
+      <c r="I111" s="33">
+        <f>COUNTIFS(D2:D98, "2nd Main", I2:I98, "&lt;&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E108" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F108" s="33">
-        <f>COUNTIFS(D2:D95, "3rd Main", F2:F95, "&gt;0")</f>
-        <v>12</v>
-      </c>
-      <c r="G108" s="33">
-        <f>COUNTIFS(D2:D95, "3rd Main", G2:G95, "&gt;0")</f>
+    <row r="112" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E112" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" s="33">
+        <f>COUNTIFS(D2:D98, "3rd Main", F2:F98, "&lt;&gt;0")</f>
+        <v>13</v>
+      </c>
+      <c r="G112" s="33">
+        <f>COUNTIFS(D2:D98, "3rd Main", G2:G98, "&lt;&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="H108" s="33">
-        <f>COUNTIFS(D2:D95, "3rd Main", H2:H95, "&gt;0")</f>
+      <c r="H112" s="33">
+        <f>COUNTIFS(D2:D98, "3rd Main", H2:H98, "&lt;&gt;0")</f>
         <v>13</v>
       </c>
-      <c r="I108" s="33">
-        <f>COUNTIFS(D2:D95, "3rd Main", I2:I95, "&gt;0")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E109" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F109" s="33">
-        <f>COUNTIFS(D2:D95, "1st Cross", F2:F95, "&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="G109" s="33">
-        <f>COUNTIFS(D2:D95, "1st Cross", G2:G95, "&gt;0")</f>
-        <v>6</v>
-      </c>
-      <c r="H109" s="33">
-        <f>COUNTIFS(D2:D95, "1st Cross", H2:H95, "&gt;0")</f>
-        <v>6</v>
-      </c>
-      <c r="I109" s="33">
-        <f>COUNTIFS(D2:D95, "1st Cross", I2:I95, "&gt;0")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E110" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F110" s="33">
-        <f>COUNTIFS(D2:D95, "2nd Cross", F2:F95, "&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="G110" s="33">
-        <f>COUNTIFS(D2:D95, "2nd Cross", G2:G95, "&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="H110" s="33">
-        <f>COUNTIFS(D2:D95, "2nd Cross", H2:H95, "&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="I110" s="33">
-        <f>COUNTIFS(D2:D95, "2nd Cross", I2:I95, "&gt;0")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E111" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="33">
-        <f>COUNTIFS(D2:D95, "3rd Cross", F2:F95, "&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="G111" s="33">
-        <f>COUNTIFS(D2:D95, "3rd Cross", G2:G95, "&gt;0")</f>
-        <v>9</v>
-      </c>
-      <c r="H111" s="33">
-        <f>COUNTIFS(D2:D95, "3rd Cross", H2:H95, "&gt;0")</f>
-        <v>5</v>
-      </c>
-      <c r="I111" s="33">
-        <f>COUNTIFS(D2:D95, "3rd Cross", I2:I95, "&gt;0")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E112" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F112" s="33">
-        <f>COUNTIFS(D2:D95, "4th Cross", F2:F95, "&gt;0")</f>
-        <v>1</v>
-      </c>
-      <c r="G112" s="33">
-        <f>COUNTIFS(D2:D95, "4th Cross", G2:G95, "&gt;0")</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="33">
-        <f>COUNTIFS(D2:D95, "4th Cross", H2:H95, "&gt;0")</f>
-        <v>0</v>
-      </c>
       <c r="I112" s="33">
-        <f>COUNTIFS(D2:D95, "4th Cross", I2:I95, "&gt;0")</f>
-        <v>0</v>
+        <f>COUNTIFS(D2:D98, "3rd Main", I2:I98, "&lt;&gt;0")</f>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E113" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" s="33">
+        <f>COUNTIFS(D2:D98, "1st Cross", F2:F98, "&lt;&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="G113" s="33">
+        <f>COUNTIFS(D2:D98, "1st Cross", G2:G98, "&lt;&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="H113" s="33">
+        <f>COUNTIFS(D2:D98, "1st Cross", H2:H98, "&lt;&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="I113" s="33">
+        <f>COUNTIFS(D2:D98, "1st Cross", I2:I98, "&lt;&gt;0")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E114" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" s="33">
+        <f>COUNTIFS(D2:D98, "2nd Cross", F2:F98, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="G114" s="33">
+        <f>COUNTIFS(D2:D98, "2nd Cross", G2:G98, "&lt;&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="H114" s="33">
+        <f>COUNTIFS(D2:D98, "2nd Cross", H2:H98, "&lt;&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="I114" s="33">
+        <f>COUNTIFS(D2:D98, "2nd Cross", I2:I98, "&lt;&gt;0")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E115" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="33">
+        <f>COUNTIFS(D2:D98, "3rd Cross", F2:F98, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="G115" s="33">
+        <f>COUNTIFS(D2:D98, "3rd Cross", G2:G98, "&lt;&gt;0")</f>
+        <v>9</v>
+      </c>
+      <c r="H115" s="33">
+        <f>COUNTIFS(D2:D98, "3rd Cross", H2:H98, "&lt;&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="I115" s="33">
+        <f>COUNTIFS(D2:D98, "3rd Cross", I2:I98, "&lt;&gt;0")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E116" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F116" s="33">
+        <f>COUNTIFS(D2:D98, "4th Cross", F2:F98, "&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="G116" s="33">
+        <f>COUNTIFS(D2:D98, "4th Cross", G2:G98, "&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="H116" s="33">
+        <f>COUNTIFS(D2:D98, "4th Cross", H2:H98, "&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="I116" s="33">
+        <f>COUNTIFS(D2:D98, "4th Cross", I2:I98, "&lt;&gt;0")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E117" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="33">
-        <f>COUNTIFS(D2:D95, "Seethammal Road", F2:F95, "&gt;0")</f>
+      <c r="F117" s="33">
+        <f>COUNTIFS(D2:D98, "Seethammal Road", F2:F98, "&lt;&gt;0")</f>
+        <v>18</v>
+      </c>
+      <c r="G117" s="33">
+        <f>COUNTIFS(D2:D98, "Seethammal Road", G2:G98, "&lt;&gt;0")</f>
+        <v>14</v>
+      </c>
+      <c r="H117" s="33">
+        <f>COUNTIFS(D2:D98, "Seethammal Road", H2:H98, "&lt;&gt;0")</f>
+        <v>14</v>
+      </c>
+      <c r="I117" s="33">
+        <f>COUNTIFS(D2:D98, "Seethammal Road", I2:I98, "&lt;&gt;0")</f>
         <v>17</v>
       </c>
-      <c r="G113" s="33">
-        <f>COUNTIFS(D2:D95, "Seethammal Road", G2:G95, "&gt;0")</f>
-        <v>14</v>
-      </c>
-      <c r="H113" s="33">
-        <f>COUNTIFS(D2:D95, "Seethammal Road", H2:H95, "&gt;0")</f>
-        <v>14</v>
-      </c>
-      <c r="I113" s="33">
-        <f>COUNTIFS(D2:D95, "Seethammal Road", I2:I95, "&gt;0")</f>
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J95">
-    <sortState ref="A2:J95">
-      <sortCondition ref="D1:D95"/>
+  <autoFilter ref="A1:J96">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="A Sridharan"/>
+        <filter val="Ajay N"/>
+        <filter val="Alaknanda Apartments"/>
+        <filter val="Allauddin"/>
+        <filter val="Anandhi Karthik"/>
+        <filter val="B K Jain"/>
+        <filter val="B R Rangamani (J Stephen /Jonah Stephen Jeremiah)"/>
+        <filter val="B Suresh / Boopathy Suresh"/>
+        <filter val="Balakrishnan Janakiraman"/>
+        <filter val="Bhagyashree Apartment  Owners Association"/>
+        <filter val="Chandrasekar TS &amp; Lalitha"/>
+        <filter val="Chithralekha Rangabashyam"/>
+        <filter val="Daniel &amp; Beula Daniel"/>
+        <filter val="Devi Prasad Marimuthu"/>
+        <filter val="Dorayswamy (Same as Vignesh)"/>
+        <filter val="Dr Harish Mahendar"/>
+        <filter val="G Baskar"/>
+        <filter val="G Gopalakrishnan"/>
+        <filter val="Guruswamy Manokaran"/>
+        <filter val="H Pandian"/>
+        <filter val="J P Karunakaran"/>
+        <filter val="K Bapiah"/>
+        <filter val="K Suryanarayanan"/>
+        <filter val="Kamala Ramakrishnan"/>
+        <filter val="Koushik Apartments"/>
+        <filter val="Kousthubham Apartments"/>
+        <filter val="Latha Ramabadhran"/>
+        <filter val="M Renganathan"/>
+        <filter val="Mahesh Shankar"/>
+        <filter val="Mrs Geetha Durairajan"/>
+        <filter val="Mukundan P &amp; Komala Mukundan"/>
+        <filter val="Mukundan V R"/>
+        <filter val="N Ravichandran"/>
+        <filter val="Narayanan Chettiyar"/>
+        <filter val="Nirmala Rajasekar"/>
+        <filter val="P Karthikesan"/>
+        <filter val="P Neethirajan"/>
+        <filter val="P Ravikumar"/>
+        <filter val="P V Jagannatham Chetty"/>
+        <filter val="Padmavathy Krishnaswamy"/>
+        <filter val="Peter Premraj / S V M Srinivasan"/>
+        <filter val="R Krishnamoorthy Rao"/>
+        <filter val="R Padmanabhan"/>
+        <filter val="R Sundar"/>
+        <filter val="Rajam Subbarayan"/>
+        <filter val="Rajammal Kasthuri"/>
+        <filter val="RajaSekhar, Sarojini"/>
+        <filter val="Rajesh K"/>
+        <filter val="Rajiv R"/>
+        <filter val="Raman Srinivasan"/>
+        <filter val="Raveendra Reddy"/>
+        <filter val="S Padmanabhan"/>
+        <filter val="S R Sadhakkathulla"/>
+        <filter val="S Sankaran (Auditor)"/>
+        <filter val="S Saravanan"/>
+        <filter val="S. Ganesh (Same as below)"/>
+        <filter val="Senniappan"/>
+        <filter val="Shankar Ram"/>
+        <filter val="Shanmuganathan S"/>
+        <filter val="Shantha Durairaj"/>
+        <filter val="Shiva"/>
+        <filter val="Shyam's Sri Saratha Apts Flat owners Assn."/>
+        <filter val="Srikanth (Ex Treasurer)"/>
+        <filter val="Subbiah Nagarajan"/>
+        <filter val="Sudharsan Anandakumar"/>
+        <filter val="Sundar Ram"/>
+        <filter val="Sundararajan R"/>
+        <filter val="Suprasanna Vijayaraghavan (Same as Uma Maheswari Vijayaraghavan)"/>
+        <filter val="Suresh Ramaswamy"/>
+        <filter val="U R Srinivasan"/>
+        <filter val="Vedamanikkam"/>
+        <filter val="Velayutham R V"/>
+        <filter val="Venkatraman"/>
+        <filter val="Vijay Jesudasan"/>
+        <filter val="Vijay Venkatesh"/>
+        <filter val="Zakir Hussein"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:J96">
+      <sortCondition ref="D1:D96"/>
     </sortState>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="185">
   <si>
     <t>S No</t>
   </si>
@@ -718,9 +718,6 @@
     <t>2500/- for subscription + 2500/- for Family meet + 2024 Urbaser</t>
   </si>
   <si>
-    <t>Special Donation Family meet (22-23) + 2024 Urbaser</t>
-  </si>
-  <si>
     <t>Also has donated Rs1000 for buying dresses for Urbaser Sumeet employees + 2500 for subscription + 2024 Urbaser</t>
   </si>
   <si>
@@ -728,6 +725,12 @@
   </si>
   <si>
     <t>Maragathamani</t>
+  </si>
+  <si>
+    <t>Special Donation Family meet (22-23) + 2024 Urbaser + Donation 5K for 24 Family</t>
+  </si>
+  <si>
+    <t>Subscription + 5K Donation for Family 24</t>
   </si>
 </sst>
 </file>
@@ -1303,10 +1306,10 @@
   <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,10 +1814,10 @@
         <v>5000</v>
       </c>
       <c r="I14" s="26">
-        <v>3500</v>
+        <v>8500</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="11"/>
@@ -2062,7 +2065,7 @@
         <v>3500</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="11"/>
@@ -2168,8 +2171,8 @@
       <c r="H25" s="23">
         <v>1500</v>
       </c>
-      <c r="I25" s="21">
-        <v>0</v>
+      <c r="I25" s="8">
+        <v>1500</v>
       </c>
       <c r="J25" s="25"/>
       <c r="K25" s="10"/>
@@ -4156,9 +4159,11 @@
         <v>0</v>
       </c>
       <c r="I87" s="9">
-        <v>2500</v>
-      </c>
-      <c r="J87" s="9"/>
+        <v>7500</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
@@ -4436,7 +4441,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="50" t="s">
@@ -4464,7 +4469,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="50"/>
@@ -4580,7 +4585,7 @@
       </c>
       <c r="I105" s="33">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", I2:I98, "&lt;&gt;0")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -4640,7 +4645,7 @@
       </c>
       <c r="I111" s="33">
         <f>COUNTIFS(D2:D98, "2nd Main", I2:I98, "&lt;&gt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">

--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$98</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="186">
   <si>
     <t>S No</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>House</t>
-  </si>
-  <si>
-    <t>Ajay N</t>
   </si>
   <si>
     <t>Alaknanda Apartments</t>
@@ -525,9 +522,6 @@
 9/5 3rd Cross Street</t>
   </si>
   <si>
-    <t>Narayanan Chettiyar</t>
-  </si>
-  <si>
     <t>1 Crescent Street</t>
   </si>
   <si>
@@ -648,12 +642,6 @@
     <t xml:space="preserve"> Flat B1 and A2</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Dorayswamy (Same as Vignesh)</t>
-  </si>
-  <si>
     <t>Payments for Dorayswamy + Sai Subramanian</t>
   </si>
   <si>
@@ -706,9 +694,6 @@
     <t>Peter Premraj / S V M Srinivasan</t>
   </si>
   <si>
-    <t xml:space="preserve">Special Donation for pongal festival </t>
-  </si>
-  <si>
     <t>Subscription 2500/- and Pongalfest 15000 + 2020 Family</t>
   </si>
   <si>
@@ -731,6 +716,26 @@
   </si>
   <si>
     <t>Subscription + 5K Donation for Family 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received in the month of march last year. </t>
+  </si>
+  <si>
+    <t>Doraiswamy (Same as Vignesh)
+Sai Subramaniam</t>
+  </si>
+  <si>
+    <t>Narayanan Chettiyar (Ajay)</t>
+  </si>
+  <si>
+    <t>2022 Special Donation for pongal festival 
+2025 Donatin for pongalfest 20000</t>
+  </si>
+  <si>
+    <t>S P Lakshmanan Chettiyar</t>
+  </si>
+  <si>
+    <t>24/14 3rd Main Road</t>
   </si>
 </sst>
 </file>
@@ -803,7 +808,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,12 +843,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor rgb="FFE2F0D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -928,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,14 +954,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -987,37 +985,44 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1300,16 +1305,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,10 +1322,10 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
     <col min="3" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="24" customWidth="1"/>
-    <col min="8" max="9" width="17.7109375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="45.5703125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="23" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" style="26" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -1350,9 +1355,9 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J1" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1361,14 +1366,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1378,10 +1383,10 @@
       <c r="G2" s="8">
         <v>2500</v>
       </c>
-      <c r="H2" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I2" s="19">
+      <c r="H2" s="18">
+        <v>2500</v>
+      </c>
+      <c r="I2" s="18">
         <v>2500</v>
       </c>
       <c r="J2" s="9"/>
@@ -1397,27 +1402,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="17">
+        <v>14</v>
+      </c>
+      <c r="F3" s="16">
         <v>10000</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>7500</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>7500</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <v>7500</v>
       </c>
       <c r="J3" s="9"/>
@@ -1433,13 +1438,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>12</v>
@@ -1457,7 +1462,7 @@
         <v>7500</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="11"/>
@@ -1470,13 +1475,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8">
@@ -1503,16 +1508,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="8">
         <v>15000</v>
@@ -1520,10 +1525,10 @@
       <c r="G6" s="8">
         <v>15000</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>15000</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <v>0</v>
       </c>
       <c r="J6" s="9"/>
@@ -1539,18 +1544,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="21">
+        <v>103</v>
+      </c>
+      <c r="F7" s="20">
         <v>0</v>
       </c>
       <c r="G7" s="8">
@@ -1562,8 +1567,8 @@
       <c r="I7" s="8">
         <v>3000</v>
       </c>
-      <c r="J7" s="52" t="s">
-        <v>178</v>
+      <c r="J7" s="51" t="s">
+        <v>173</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
@@ -1577,21 +1582,21 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="8">
         <v>2500</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>0</v>
       </c>
       <c r="H8" s="9">
@@ -1613,13 +1618,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>12</v>
@@ -1627,13 +1632,13 @@
       <c r="F9" s="8">
         <v>2500</v>
       </c>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36">
-        <v>0</v>
-      </c>
-      <c r="I9" s="36">
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0</v>
+      </c>
+      <c r="I9" s="35">
         <v>0</v>
       </c>
       <c r="J9" s="9"/>
@@ -1649,13 +1654,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8">
@@ -1678,18 +1683,18 @@
       <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+      <c r="A11" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>12</v>
@@ -1719,13 +1724,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>12</v>
@@ -1742,8 +1747,8 @@
       <c r="I12" s="8">
         <v>2500</v>
       </c>
-      <c r="J12" s="25" t="s">
-        <v>174</v>
+      <c r="J12" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="11"/>
@@ -1757,13 +1762,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>12</v>
@@ -1793,13 +1798,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>12</v>
@@ -1810,14 +1815,14 @@
       <c r="G14" s="14">
         <v>27500</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>5000</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <v>8500</v>
       </c>
-      <c r="J14" s="26" t="s">
-        <v>183</v>
+      <c r="J14" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="11"/>
@@ -1825,80 +1830,80 @@
       <c r="N14" s="11"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+    <row r="15" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" s="43"/>
+      <c r="B15" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="42"/>
       <c r="K15" s="10"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+    <row r="16" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="B16" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="10"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
+    <row r="17" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="B17" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="10"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
@@ -1911,27 +1916,27 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="8">
         <v>2500</v>
       </c>
-      <c r="G18" s="21">
-        <v>0</v>
-      </c>
-      <c r="H18" s="36">
-        <v>0</v>
-      </c>
-      <c r="I18" s="36">
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
         <v>0</v>
       </c>
       <c r="J18" s="9"/>
@@ -1947,13 +1952,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>12</v>
@@ -1964,35 +1969,35 @@
       <c r="G19" s="8">
         <v>2500</v>
       </c>
-      <c r="H19" s="23">
-        <v>2500</v>
-      </c>
-      <c r="I19" s="23">
-        <v>2500</v>
-      </c>
-      <c r="J19" s="25"/>
+      <c r="H19" s="22">
+        <v>2500</v>
+      </c>
+      <c r="I19" s="22">
+        <v>2500</v>
+      </c>
+      <c r="J19" s="24"/>
       <c r="K19" s="10"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+    <row r="20" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="46"/>
+      <c r="B20" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="45"/>
       <c r="K20" s="10"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -2005,28 +2010,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="17">
+        <v>14</v>
+      </c>
+      <c r="F21" s="16">
         <v>7500</v>
       </c>
-      <c r="G21" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H21" s="37">
-        <v>0</v>
-      </c>
-      <c r="I21" s="37">
-        <v>0</v>
+      <c r="G21" s="16">
+        <v>2500</v>
+      </c>
+      <c r="H21" s="36">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1500</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
@@ -2041,31 +2046,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="D22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G22" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H22" s="22">
+      <c r="F22" s="16">
+        <v>2500</v>
+      </c>
+      <c r="G22" s="16">
+        <v>2500</v>
+      </c>
+      <c r="H22" s="21">
         <v>3500</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="18">
         <v>3500</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="11"/>
@@ -2079,16 +2084,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="F23" s="8">
         <v>0</v>
@@ -2115,16 +2120,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="8">
         <v>7500</v>
@@ -2132,10 +2137,10 @@
       <c r="G24" s="8">
         <v>7500</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="18">
         <v>7500</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="18">
         <v>7500</v>
       </c>
       <c r="J24" s="9"/>
@@ -2151,16 +2156,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
@@ -2168,13 +2173,13 @@
       <c r="G25" s="8">
         <v>1875</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>1500</v>
       </c>
       <c r="I25" s="8">
         <v>1500</v>
       </c>
-      <c r="J25" s="25"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="10"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -2187,13 +2192,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>12</v>
@@ -2204,7 +2209,7 @@
       <c r="G26" s="8">
         <v>2500</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="20">
         <v>0</v>
       </c>
       <c r="I26" s="8">
@@ -2223,27 +2228,27 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="E27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G27" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H27" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I27" s="19">
+      <c r="F27" s="16">
+        <v>2500</v>
+      </c>
+      <c r="G27" s="16">
+        <v>2500</v>
+      </c>
+      <c r="H27" s="18">
+        <v>2500</v>
+      </c>
+      <c r="I27" s="18">
         <v>2500</v>
       </c>
       <c r="J27" s="9"/>
@@ -2259,13 +2264,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>12</v>
@@ -2295,13 +2300,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>12</v>
@@ -2325,22 +2330,22 @@
       <c r="N29" s="11"/>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40">
+    <row r="30" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
+      <c r="B30" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="10"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
@@ -2353,13 +2358,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>12</v>
@@ -2370,14 +2375,14 @@
       <c r="G31" s="8">
         <v>5000</v>
       </c>
-      <c r="H31" s="21">
-        <v>0</v>
+      <c r="H31" s="8">
+        <v>5000</v>
       </c>
       <c r="I31" s="8">
-        <v>2500</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>159</v>
+        <v>5000</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="11"/>
@@ -2391,16 +2396,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D32" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -2408,13 +2413,13 @@
       <c r="G32" s="8">
         <v>1500</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="22">
         <v>1500</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <v>1500</v>
       </c>
-      <c r="J32" s="25"/>
+      <c r="J32" s="24"/>
       <c r="K32" s="10"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
@@ -2427,16 +2432,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="D33" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="8">
         <v>0</v>
@@ -2450,7 +2455,7 @@
       <c r="I33" s="8">
         <v>1500</v>
       </c>
-      <c r="J33" s="25"/>
+      <c r="J33" s="24"/>
       <c r="K33" s="10"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
@@ -2463,16 +2468,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" s="8">
         <v>0</v>
@@ -2480,13 +2485,13 @@
       <c r="G34" s="8">
         <v>1500</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="20">
         <v>0</v>
       </c>
       <c r="I34" s="8">
         <v>1500</v>
       </c>
-      <c r="J34" s="25"/>
+      <c r="J34" s="24"/>
       <c r="K34" s="10"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
@@ -2499,16 +2504,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F35" s="8">
         <v>0</v>
@@ -2522,7 +2527,7 @@
       <c r="I35" s="8">
         <v>1500</v>
       </c>
-      <c r="J35" s="25"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="10"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
@@ -2535,16 +2540,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F36" s="8">
         <v>0</v>
@@ -2552,35 +2557,35 @@
       <c r="G36" s="8">
         <v>1500</v>
       </c>
-      <c r="H36" s="21">
-        <v>0</v>
-      </c>
-      <c r="I36" s="21">
-        <v>0</v>
-      </c>
-      <c r="J36" s="25"/>
+      <c r="H36" s="20">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20">
+        <v>0</v>
+      </c>
+      <c r="J36" s="24"/>
       <c r="K36" s="10"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
+    <row r="37" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="46"/>
+      <c r="B37" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="45"/>
       <c r="K37" s="10"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
@@ -2593,13 +2598,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>12</v>
@@ -2617,7 +2622,7 @@
         <v>2500</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="11"/>
@@ -2631,13 +2636,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="D39" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>12</v>
@@ -2648,14 +2653,14 @@
       <c r="G39" s="8">
         <v>5500</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="18">
         <v>9500</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="18">
         <v>2500</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="11"/>
@@ -2669,14 +2674,14 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="E40" s="7" t="s">
         <v>12</v>
       </c>
@@ -2686,7 +2691,7 @@
       <c r="G40" s="8">
         <v>2500</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="35">
         <v>0</v>
       </c>
       <c r="I40" s="9">
@@ -2699,44 +2704,44 @@
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
     </row>
-    <row r="41" spans="1:15" s="13" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
+    <row r="41" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B41" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="43"/>
+      <c r="B41" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="42"/>
       <c r="K41" s="10"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
       <c r="O41" s="12"/>
     </row>
-    <row r="42" spans="1:15" s="13" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
+    <row r="42" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B42" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="43"/>
+      <c r="B42" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="10"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
@@ -2749,13 +2754,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="D43" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>12</v>
@@ -2785,16 +2790,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="D44" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F44" s="8">
         <v>7500</v>
@@ -2821,13 +2826,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>12</v>
@@ -2845,7 +2850,7 @@
         <v>2500</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="11"/>
@@ -2859,13 +2864,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>12</v>
@@ -2879,8 +2884,8 @@
       <c r="H46" s="9">
         <v>2500</v>
       </c>
-      <c r="I46" s="36">
-        <v>0</v>
+      <c r="I46" s="9">
+        <v>2500</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="10"/>
@@ -2895,27 +2900,27 @@
         <v>46</v>
       </c>
       <c r="B47" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="D47" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G47" s="18">
-        <v>0</v>
-      </c>
-      <c r="H47" s="37">
-        <v>0</v>
-      </c>
-      <c r="I47" s="37">
+      <c r="F47" s="16">
+        <v>2500</v>
+      </c>
+      <c r="G47" s="17">
+        <v>0</v>
+      </c>
+      <c r="H47" s="36">
+        <v>0</v>
+      </c>
+      <c r="I47" s="36">
         <v>0</v>
       </c>
       <c r="J47" s="9"/>
@@ -2931,13 +2936,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="D48" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>12</v>
@@ -2967,13 +2972,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="D49" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>12</v>
@@ -3003,13 +3008,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D50" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>12</v>
@@ -3017,10 +3022,10 @@
       <c r="F50" s="8">
         <v>2500</v>
       </c>
-      <c r="G50" s="21">
-        <v>0</v>
-      </c>
-      <c r="H50" s="36">
+      <c r="G50" s="20">
+        <v>0</v>
+      </c>
+      <c r="H50" s="35">
         <v>0</v>
       </c>
       <c r="I50" s="9">
@@ -3039,14 +3044,14 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="E51" s="7" t="s">
         <v>12</v>
       </c>
@@ -3056,10 +3061,10 @@
       <c r="G51" s="8">
         <v>2500</v>
       </c>
-      <c r="H51" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I51" s="19">
+      <c r="H51" s="18">
+        <v>2500</v>
+      </c>
+      <c r="I51" s="18">
         <v>2500</v>
       </c>
       <c r="J51" s="9"/>
@@ -3075,13 +3080,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="D52" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>12</v>
@@ -3092,13 +3097,13 @@
       <c r="G52" s="8">
         <v>2500</v>
       </c>
-      <c r="H52" s="21">
-        <v>0</v>
-      </c>
-      <c r="I52" s="21">
-        <v>0</v>
-      </c>
-      <c r="J52" s="25"/>
+      <c r="H52" s="20">
+        <v>0</v>
+      </c>
+      <c r="I52" s="20">
+        <v>0</v>
+      </c>
+      <c r="J52" s="24"/>
       <c r="K52" s="10"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
@@ -3111,14 +3116,14 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="E53" s="7" t="s">
         <v>12</v>
       </c>
@@ -3134,7 +3139,7 @@
       <c r="I53" s="8">
         <v>2500</v>
       </c>
-      <c r="J53" s="25"/>
+      <c r="J53" s="24"/>
       <c r="K53" s="10"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
@@ -3142,18 +3147,18 @@
       <c r="O53" s="12"/>
     </row>
     <row r="54" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="49">
+      <c r="A54" s="48">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>12</v>
@@ -3170,7 +3175,7 @@
       <c r="I54" s="8">
         <v>2500</v>
       </c>
-      <c r="J54" s="25"/>
+      <c r="J54" s="24"/>
       <c r="K54" s="10"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
@@ -3183,13 +3188,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>12</v>
@@ -3206,8 +3211,8 @@
       <c r="I55" s="8">
         <v>3500</v>
       </c>
-      <c r="J55" s="25" t="s">
-        <v>179</v>
+      <c r="J55" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="K55" s="10"/>
       <c r="L55" s="11"/>
@@ -3221,13 +3226,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>12</v>
@@ -3244,8 +3249,8 @@
       <c r="I56" s="8">
         <v>3000</v>
       </c>
-      <c r="J56" s="25" t="s">
-        <v>163</v>
+      <c r="J56" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="11"/>
@@ -3259,16 +3264,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F57" s="8">
         <v>0</v>
@@ -3279,7 +3284,7 @@
       <c r="H57" s="8">
         <v>0</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="20">
         <v>0</v>
       </c>
       <c r="J57" s="8"/>
@@ -3289,66 +3294,66 @@
       <c r="N57" s="11"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40">
+    <row r="58" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="39">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B58" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="46"/>
+      <c r="B58" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="40"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="45"/>
       <c r="K58" s="10"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40">
+    <row r="59" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="39">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B59" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="41"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="46"/>
+      <c r="B59" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="45"/>
       <c r="K59" s="10"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40">
+    <row r="60" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="39">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B60" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="46"/>
+      <c r="B60" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="45"/>
       <c r="K60" s="10"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
@@ -3361,27 +3366,27 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="E61" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="8">
         <v>2500</v>
       </c>
-      <c r="G61" s="21">
-        <v>0</v>
-      </c>
-      <c r="H61" s="37">
-        <v>0</v>
-      </c>
-      <c r="I61" s="19">
+      <c r="G61" s="20">
+        <v>0</v>
+      </c>
+      <c r="H61" s="36">
+        <v>0</v>
+      </c>
+      <c r="I61" s="18">
         <v>2500</v>
       </c>
       <c r="J61" s="9"/>
@@ -3397,27 +3402,27 @@
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D62" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="E62" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="17">
-        <v>0</v>
-      </c>
-      <c r="G62" s="18">
-        <v>0</v>
-      </c>
-      <c r="H62" s="18">
-        <v>0</v>
-      </c>
-      <c r="I62" s="17">
+        <v>167</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="16">
+        <v>0</v>
+      </c>
+      <c r="G62" s="17">
+        <v>0</v>
+      </c>
+      <c r="H62" s="17">
+        <v>0</v>
+      </c>
+      <c r="I62" s="16">
         <v>2500</v>
       </c>
       <c r="J62" s="9"/>
@@ -3433,13 +3438,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="D63" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>12</v>
@@ -3447,13 +3452,13 @@
       <c r="F63" s="8">
         <v>5000</v>
       </c>
-      <c r="G63" s="21">
-        <v>0</v>
-      </c>
-      <c r="H63" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I63" s="19">
+      <c r="G63" s="20">
+        <v>0</v>
+      </c>
+      <c r="H63" s="18">
+        <v>2500</v>
+      </c>
+      <c r="I63" s="18">
         <v>2500</v>
       </c>
       <c r="J63" s="9"/>
@@ -3469,13 +3474,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>12</v>
@@ -3500,61 +3505,61 @@
         <v>64</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G65" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H65" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I65" s="19">
+      <c r="F65" s="16">
+        <v>2500</v>
+      </c>
+      <c r="G65" s="16">
+        <v>2500</v>
+      </c>
+      <c r="H65" s="18">
+        <v>2500</v>
+      </c>
+      <c r="I65" s="18">
         <v>2500</v>
       </c>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="39">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B66" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="D66" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="F66" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="G66" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="H66" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="I66" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="J66" s="46"/>
+      <c r="B66" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H66" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="J66" s="45"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -3562,19 +3567,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="8">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G67" s="8">
         <v>2500</v>
@@ -3585,7 +3590,7 @@
       <c r="I67" s="8">
         <v>2500</v>
       </c>
-      <c r="J67" s="25"/>
+      <c r="J67" s="24"/>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
@@ -3593,13 +3598,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>12</v>
@@ -3610,24 +3615,24 @@
       <c r="G68" s="8">
         <v>2500</v>
       </c>
-      <c r="H68" s="23">
-        <v>2500</v>
-      </c>
-      <c r="I68" s="23">
-        <v>2500</v>
-      </c>
-      <c r="J68" s="25"/>
+      <c r="H68" s="22">
+        <v>2500</v>
+      </c>
+      <c r="I68" s="22">
+        <v>2500</v>
+      </c>
+      <c r="J68" s="24"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="48">
+      <c r="A69" s="47">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>11</v>
@@ -3638,7 +3643,7 @@
       <c r="F69" s="8">
         <v>2512</v>
       </c>
-      <c r="G69" s="21">
+      <c r="G69" s="20">
         <v>0</v>
       </c>
       <c r="H69" s="8">
@@ -3649,7 +3654,7 @@
       </c>
       <c r="J69" s="8"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -3676,28 +3681,28 @@
         <v>2500</v>
       </c>
       <c r="I70" s="9">
-        <v>2500</v>
+        <v>22500</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="39">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B71" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="41"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="43"/>
+      <c r="B71" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="40"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
@@ -3705,27 +3710,27 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F72" s="17">
+        <v>14</v>
+      </c>
+      <c r="F72" s="16">
         <v>10000</v>
       </c>
-      <c r="G72" s="20">
-        <v>0</v>
-      </c>
-      <c r="H72" s="19">
+      <c r="G72" s="19">
+        <v>0</v>
+      </c>
+      <c r="H72" s="18">
         <v>10000</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I72" s="18">
         <v>10000</v>
       </c>
       <c r="J72" s="9"/>
@@ -3736,27 +3741,27 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F73" s="8">
         <v>10000</v>
       </c>
-      <c r="G73" s="21">
-        <v>0</v>
-      </c>
-      <c r="H73" s="36">
-        <v>0</v>
-      </c>
-      <c r="I73" s="36">
+      <c r="G73" s="20">
+        <v>0</v>
+      </c>
+      <c r="H73" s="35">
+        <v>0</v>
+      </c>
+      <c r="I73" s="35">
         <v>0</v>
       </c>
       <c r="J73" s="9"/>
@@ -3767,10 +3772,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>11</v>
@@ -3785,7 +3790,7 @@
       <c r="H74" s="9">
         <v>7500</v>
       </c>
-      <c r="I74" s="36">
+      <c r="I74" s="35">
         <v>0</v>
       </c>
       <c r="J74" s="9"/>
@@ -3796,28 +3801,28 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F75" s="8">
         <v>10000</v>
       </c>
-      <c r="G75" s="21">
-        <v>0</v>
-      </c>
-      <c r="H75" s="36">
-        <v>0</v>
-      </c>
-      <c r="I75" s="36">
-        <v>0</v>
+      <c r="G75" s="20">
+        <v>0</v>
+      </c>
+      <c r="H75" s="35">
+        <v>0</v>
+      </c>
+      <c r="I75" s="9">
+        <v>10000</v>
       </c>
       <c r="J75" s="9"/>
     </row>
@@ -3827,10 +3832,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>11</v>
@@ -3858,10 +3863,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>11</v>
@@ -3869,16 +3874,16 @@
       <c r="E77" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="16">
         <v>2500</v>
       </c>
       <c r="G77" s="8">
         <v>2500</v>
       </c>
-      <c r="H77" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I77" s="19">
+      <c r="H77" s="18">
+        <v>2500</v>
+      </c>
+      <c r="I77" s="18">
         <v>2500</v>
       </c>
       <c r="J77" s="9"/>
@@ -3889,27 +3894,27 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="17">
+        <v>14</v>
+      </c>
+      <c r="F78" s="16">
         <v>10000</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="16">
         <v>10000</v>
       </c>
-      <c r="H78" s="19">
+      <c r="H78" s="18">
         <v>10000</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I78" s="18">
         <v>10000</v>
       </c>
       <c r="J78" s="9"/>
@@ -3920,7 +3925,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>10</v>
@@ -3934,81 +3939,81 @@
       <c r="F79" s="8">
         <v>2500</v>
       </c>
-      <c r="G79" s="21">
-        <v>0</v>
-      </c>
-      <c r="H79" s="36">
-        <v>0</v>
-      </c>
-      <c r="I79" s="36">
+      <c r="G79" s="20">
+        <v>0</v>
+      </c>
+      <c r="H79" s="35">
+        <v>0</v>
+      </c>
+      <c r="I79" s="35">
         <v>0</v>
       </c>
       <c r="J79" s="9"/>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="39">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B80" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-    </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
+      <c r="B80" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="40"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="39">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B81" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="E81" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="F81" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="G81" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="H81" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="I81" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="J81" s="43"/>
-    </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
+      <c r="B81" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E81" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F81" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="G81" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H81" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="I81" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="J81" s="42"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="39">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B82" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" s="41"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
+      <c r="B82" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="40"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
@@ -4016,10 +4021,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>11</v>
@@ -4033,10 +4038,10 @@
       <c r="G83" s="8">
         <v>2500</v>
       </c>
-      <c r="H83" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I83" s="19">
+      <c r="H83" s="18">
+        <v>2500</v>
+      </c>
+      <c r="I83" s="18">
         <v>2500</v>
       </c>
       <c r="J83" s="9"/>
@@ -4047,10 +4052,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>11</v>
@@ -4067,7 +4072,7 @@
         <v>2500</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4076,10 +4081,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>11</v>
@@ -4087,19 +4092,21 @@
       <c r="E85" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G85" s="17">
-        <v>2500</v>
-      </c>
-      <c r="H85" s="19">
-        <v>2500</v>
-      </c>
-      <c r="I85" s="37">
-        <v>0</v>
-      </c>
-      <c r="J85" s="9"/>
+      <c r="F85" s="16">
+        <v>2500</v>
+      </c>
+      <c r="G85" s="16">
+        <v>2500</v>
+      </c>
+      <c r="H85" s="18">
+        <v>2500</v>
+      </c>
+      <c r="I85" s="18">
+        <v>2500</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
@@ -4107,16 +4114,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F86" s="8">
         <v>15000</v>
@@ -4124,10 +4131,10 @@
       <c r="G86" s="8">
         <v>15000</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H86" s="18">
         <v>15000</v>
       </c>
-      <c r="I86" s="19">
+      <c r="I86" s="18">
         <v>15000</v>
       </c>
       <c r="J86" s="9"/>
@@ -4138,7 +4145,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>10</v>
@@ -4155,14 +4162,14 @@
       <c r="G87" s="8">
         <v>2500</v>
       </c>
-      <c r="H87" s="36">
+      <c r="H87" s="35">
         <v>0</v>
       </c>
       <c r="I87" s="9">
         <v>7500</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4171,16 +4178,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F88" s="8">
         <v>7500</v>
@@ -4202,7 +4209,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>10</v>
@@ -4216,13 +4223,13 @@
       <c r="F89" s="8">
         <v>2500</v>
       </c>
-      <c r="G89" s="21">
-        <v>0</v>
-      </c>
-      <c r="H89" s="36">
-        <v>0</v>
-      </c>
-      <c r="I89" s="36">
+      <c r="G89" s="20">
+        <v>0</v>
+      </c>
+      <c r="H89" s="35">
+        <v>0</v>
+      </c>
+      <c r="I89" s="35">
         <v>0</v>
       </c>
       <c r="J89" s="9"/>
@@ -4233,30 +4240,30 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="21">
+        <v>14</v>
+      </c>
+      <c r="F90" s="20">
         <v>0</v>
       </c>
       <c r="G90" s="8">
         <v>7500</v>
       </c>
-      <c r="H90" s="23">
+      <c r="H90" s="22">
         <v>7500</v>
       </c>
-      <c r="I90" s="23">
+      <c r="I90" s="22">
         <v>7500</v>
       </c>
-      <c r="J90" s="25"/>
+      <c r="J90" s="24"/>
     </row>
     <row r="91" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
@@ -4264,30 +4271,30 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" s="21">
+        <v>14</v>
+      </c>
+      <c r="F91" s="20">
         <v>0</v>
       </c>
       <c r="G91" s="8">
         <v>10000</v>
       </c>
-      <c r="H91" s="21">
-        <v>0</v>
-      </c>
-      <c r="I91" s="39">
+      <c r="H91" s="20">
+        <v>0</v>
+      </c>
+      <c r="I91" s="38">
         <v>1</v>
       </c>
-      <c r="J91" s="25"/>
+      <c r="J91" s="24"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
@@ -4295,24 +4302,24 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
+        <v>103</v>
+      </c>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
       <c r="I92" s="8">
         <v>3000</v>
       </c>
-      <c r="J92" s="25"/>
+      <c r="J92" s="24"/>
     </row>
     <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
@@ -4320,24 +4327,24 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F93" s="21">
-        <v>0</v>
-      </c>
-      <c r="G93" s="21">
-        <v>0</v>
-      </c>
-      <c r="H93" s="21">
+        <v>103</v>
+      </c>
+      <c r="F93" s="20">
+        <v>0</v>
+      </c>
+      <c r="G93" s="20">
+        <v>0</v>
+      </c>
+      <c r="H93" s="20">
         <v>0</v>
       </c>
       <c r="I93" s="8">
@@ -4351,24 +4358,24 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F94" s="21">
-        <v>0</v>
-      </c>
-      <c r="G94" s="21">
-        <v>0</v>
-      </c>
-      <c r="H94" s="21">
+        <v>103</v>
+      </c>
+      <c r="F94" s="20">
+        <v>0</v>
+      </c>
+      <c r="G94" s="20">
+        <v>0</v>
+      </c>
+      <c r="H94" s="20">
         <v>0</v>
       </c>
       <c r="I94" s="8">
@@ -4382,24 +4389,24 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F95" s="21">
-        <v>0</v>
-      </c>
-      <c r="G95" s="21">
-        <v>0</v>
-      </c>
-      <c r="H95" s="21">
+        <v>103</v>
+      </c>
+      <c r="F95" s="20">
+        <v>0</v>
+      </c>
+      <c r="G95" s="20">
+        <v>0</v>
+      </c>
+      <c r="H95" s="20">
         <v>0</v>
       </c>
       <c r="I95" s="8">
@@ -4407,32 +4414,34 @@
       </c>
       <c r="J95" s="8"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+    <row r="96" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="52">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B96" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="17">
-        <v>2500</v>
-      </c>
-      <c r="G96" s="18">
-        <v>0</v>
-      </c>
-      <c r="H96" s="18">
-        <v>0</v>
-      </c>
-      <c r="I96" s="18">
-        <v>0</v>
+      <c r="B96" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="I96" s="16">
+        <v>2500</v>
       </c>
       <c r="J96" s="9"/>
     </row>
@@ -4441,25 +4450,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C97" s="6"/>
-      <c r="D97" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="18">
-        <v>0</v>
-      </c>
-      <c r="G97" s="18">
-        <v>0</v>
-      </c>
-      <c r="H97" s="18">
-        <v>0</v>
-      </c>
-      <c r="I97" s="17">
+      <c r="D97" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="17">
+        <v>0</v>
+      </c>
+      <c r="G97" s="17">
+        <v>0</v>
+      </c>
+      <c r="H97" s="17">
+        <v>0</v>
+      </c>
+      <c r="I97" s="16">
         <v>2500</v>
       </c>
       <c r="J97" s="9"/>
@@ -4469,23 +4478,23 @@
         <v>97</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C98" s="6"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="F98" s="18">
-        <v>0</v>
-      </c>
-      <c r="G98" s="18">
-        <v>0</v>
-      </c>
-      <c r="H98" s="18">
-        <v>0</v>
-      </c>
-      <c r="I98" s="17">
+      <c r="D98" s="49"/>
+      <c r="E98" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F98" s="17">
+        <v>0</v>
+      </c>
+      <c r="G98" s="17">
+        <v>0</v>
+      </c>
+      <c r="H98" s="17">
+        <v>0</v>
+      </c>
+      <c r="I98" s="16">
         <v>1500</v>
       </c>
       <c r="J98" s="9"/>
@@ -4494,368 +4503,288 @@
       <c r="A99" s="5"/>
       <c r="B99" s="15"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
+      <c r="D99" s="49"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
       <c r="J99" s="9"/>
     </row>
     <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C101" s="28" t="s">
+      <c r="C101" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+    </row>
+    <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+    </row>
+    <row r="103" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D103" s="28"/>
+      <c r="E103" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" s="32">
+        <f>COUNTIFS(E2:E98, "House", F2:F98, "&lt;&gt;0")</f>
+        <v>42</v>
+      </c>
+      <c r="G103" s="32">
+        <f>COUNTIFS(E2:E98, "House", G2:G98, "&lt;&gt;0")</f>
+        <v>39</v>
+      </c>
+      <c r="H103" s="32">
+        <f>COUNTIFS(E2:E98, "House", H2:H98, "&lt;&gt;0")</f>
+        <v>38</v>
+      </c>
+      <c r="I103" s="32">
+        <f>COUNTIFS(E2:E98, "House", I2:I98, "&lt;&gt;0")</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D104" s="28"/>
+      <c r="E104" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
-    </row>
-    <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="30"/>
-      <c r="I102" s="30"/>
-    </row>
-    <row r="103" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D103" s="29"/>
-      <c r="E103" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F103" s="33">
-        <f>COUNTIFS(E2:E98, "House", F2:F98, "&lt;&gt;0")</f>
-        <v>41</v>
-      </c>
-      <c r="G103" s="33">
-        <f>COUNTIFS(E2:E98, "House", G2:G98, "&lt;&gt;0")</f>
-        <v>38</v>
-      </c>
-      <c r="H103" s="33">
-        <f>COUNTIFS(E2:E98, "House", H2:H98, "&lt;&gt;0")</f>
-        <v>36</v>
-      </c>
-      <c r="I103" s="33">
-        <f>COUNTIFS(E2:E98, "House", I2:I98, "&lt;&gt;0")</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D104" s="29"/>
-      <c r="E104" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="F104" s="33">
+      <c r="F104" s="32">
         <f>COUNTIFS(E2:E98, "Apartment", F2:F98, "&lt;&gt;0")</f>
         <v>11</v>
       </c>
-      <c r="G104" s="33">
+      <c r="G104" s="32">
         <f>COUNTIFS(E2:E98, "Apartment", G2:G98, "&lt;&gt;0")</f>
         <v>10</v>
       </c>
-      <c r="H104" s="33">
+      <c r="H104" s="32">
         <f>COUNTIFS(E2:E98, "Apartment", H2:H98, "&lt;&gt;0")</f>
         <v>9</v>
       </c>
-      <c r="I104" s="33">
+      <c r="I104" s="32">
         <f>COUNTIFS(E2:E98, "Apartment", I2:I98, "&lt;&gt;0")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D105" s="29"/>
-      <c r="E105" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="F105" s="33">
+      <c r="D105" s="28"/>
+      <c r="E105" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", F2:F98, "&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="G105" s="33">
+      <c r="G105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", G2:G98, "&lt;&gt;0.00")</f>
         <v>10</v>
       </c>
-      <c r="H105" s="33">
+      <c r="H105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", H2:H98, "&lt;&gt;0")</f>
         <v>7</v>
       </c>
-      <c r="I105" s="33">
+      <c r="I105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", I2:I98, "&lt;&gt;0")</f>
         <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C106" s="34"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="35"/>
-      <c r="I106" s="35"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
     </row>
     <row r="108" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C108" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J108" s="38"/>
+      <c r="C108" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="J108" s="37"/>
     </row>
     <row r="109" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C109" s="32"/>
+      <c r="C109" s="31"/>
     </row>
     <row r="110" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E110" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110" s="33">
+      <c r="E110" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="32">
         <f>COUNTIFS(D2:D98, "1st Main", F2:F98, "&lt;&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="G110" s="33">
+      <c r="G110" s="32">
         <f>COUNTIFS(D2:D98, "1st Main", G2:G98, "&lt;&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="H110" s="33">
+      <c r="H110" s="32">
         <f>COUNTIFS(D2:D98, "1st Main", H2:H98, "&lt;&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="I110" s="33">
+      <c r="I110" s="32">
         <f>COUNTIFS(D2:D98, "1st Main", I2:I98, "&lt;&gt;0")</f>
         <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E111" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F111" s="33">
+      <c r="E111" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F111" s="32">
         <f>COUNTIFS(D2:D98, "2nd Main", F2:F98, "&lt;&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="G111" s="33">
+      <c r="G111" s="32">
         <f>COUNTIFS(D2:D98, "2nd Main", G2:G98, "&lt;&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="H111" s="33">
+      <c r="H111" s="32">
         <f>COUNTIFS(D2:D98, "2nd Main", H2:H98, "&lt;&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="I111" s="33">
+      <c r="I111" s="32">
         <f>COUNTIFS(D2:D98, "2nd Main", I2:I98, "&lt;&gt;0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E112" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F112" s="33">
+      <c r="E112" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112" s="32">
         <f>COUNTIFS(D2:D98, "3rd Main", F2:F98, "&lt;&gt;0")</f>
-        <v>13</v>
-      </c>
-      <c r="G112" s="33">
+        <v>14</v>
+      </c>
+      <c r="G112" s="32">
         <f>COUNTIFS(D2:D98, "3rd Main", G2:G98, "&lt;&gt;0")</f>
+        <v>17</v>
+      </c>
+      <c r="H112" s="32">
+        <f>COUNTIFS(D2:D98, "3rd Main", H2:H98, "&lt;&gt;0")</f>
+        <v>14</v>
+      </c>
+      <c r="I112" s="32">
+        <f>COUNTIFS(D2:D98, "3rd Main", I2:I98, "&lt;&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="H112" s="33">
-        <f>COUNTIFS(D2:D98, "3rd Main", H2:H98, "&lt;&gt;0")</f>
-        <v>13</v>
-      </c>
-      <c r="I112" s="33">
-        <f>COUNTIFS(D2:D98, "3rd Main", I2:I98, "&lt;&gt;0")</f>
-        <v>14</v>
-      </c>
     </row>
     <row r="113" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E113" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F113" s="33">
+      <c r="E113" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F113" s="32">
         <f>COUNTIFS(D2:D98, "1st Cross", F2:F98, "&lt;&gt;0")</f>
         <v>5</v>
       </c>
-      <c r="G113" s="33">
+      <c r="G113" s="32">
         <f>COUNTIFS(D2:D98, "1st Cross", G2:G98, "&lt;&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="H113" s="33">
+      <c r="H113" s="32">
         <f>COUNTIFS(D2:D98, "1st Cross", H2:H98, "&lt;&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="I113" s="33">
+      <c r="I113" s="32">
         <f>COUNTIFS(D2:D98, "1st Cross", I2:I98, "&lt;&gt;0")</f>
         <v>5</v>
       </c>
     </row>
     <row r="114" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E114" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F114" s="33">
+      <c r="E114" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" s="32">
         <f>COUNTIFS(D2:D98, "2nd Cross", F2:F98, "&lt;&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="G114" s="33">
+      <c r="G114" s="32">
         <f>COUNTIFS(D2:D98, "2nd Cross", G2:G98, "&lt;&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="H114" s="33">
+      <c r="H114" s="32">
         <f>COUNTIFS(D2:D98, "2nd Cross", H2:H98, "&lt;&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="I114" s="33">
+      <c r="I114" s="32">
         <f>COUNTIFS(D2:D98, "2nd Cross", I2:I98, "&lt;&gt;0")</f>
         <v>3</v>
       </c>
     </row>
     <row r="115" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E115" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" s="33">
+      <c r="E115" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="32">
         <f>COUNTIFS(D2:D98, "3rd Cross", F2:F98, "&lt;&gt;0")</f>
         <v>4</v>
       </c>
-      <c r="G115" s="33">
+      <c r="G115" s="32">
         <f>COUNTIFS(D2:D98, "3rd Cross", G2:G98, "&lt;&gt;0")</f>
         <v>9</v>
       </c>
-      <c r="H115" s="33">
+      <c r="H115" s="32">
         <f>COUNTIFS(D2:D98, "3rd Cross", H2:H98, "&lt;&gt;0")</f>
-        <v>6</v>
-      </c>
-      <c r="I115" s="33">
+        <v>7</v>
+      </c>
+      <c r="I115" s="32">
         <f>COUNTIFS(D2:D98, "3rd Cross", I2:I98, "&lt;&gt;0")</f>
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E116" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F116" s="33">
+      <c r="E116" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F116" s="32">
         <f>COUNTIFS(D2:D98, "4th Cross", F2:F98, "&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="G116" s="33">
+      <c r="G116" s="32">
         <f>COUNTIFS(D2:D98, "4th Cross", G2:G98, "&lt;&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="H116" s="33">
+      <c r="H116" s="32">
         <f>COUNTIFS(D2:D98, "4th Cross", H2:H98, "&lt;&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="I116" s="33">
+      <c r="I116" s="32">
         <f>COUNTIFS(D2:D98, "4th Cross", I2:I98, "&lt;&gt;0")</f>
         <v>2</v>
       </c>
     </row>
     <row r="117" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E117" s="32" t="s">
+      <c r="E117" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F117" s="33">
+      <c r="F117" s="32">
         <f>COUNTIFS(D2:D98, "Seethammal Road", F2:F98, "&lt;&gt;0")</f>
         <v>18</v>
       </c>
-      <c r="G117" s="33">
+      <c r="G117" s="32">
         <f>COUNTIFS(D2:D98, "Seethammal Road", G2:G98, "&lt;&gt;0")</f>
         <v>14</v>
       </c>
-      <c r="H117" s="33">
+      <c r="H117" s="32">
         <f>COUNTIFS(D2:D98, "Seethammal Road", H2:H98, "&lt;&gt;0")</f>
         <v>14</v>
       </c>
-      <c r="I117" s="33">
+      <c r="I117" s="32">
         <f>COUNTIFS(D2:D98, "Seethammal Road", I2:I98, "&lt;&gt;0")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J96">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="A Sridharan"/>
-        <filter val="Ajay N"/>
-        <filter val="Alaknanda Apartments"/>
-        <filter val="Allauddin"/>
-        <filter val="Anandhi Karthik"/>
-        <filter val="B K Jain"/>
-        <filter val="B R Rangamani (J Stephen /Jonah Stephen Jeremiah)"/>
-        <filter val="B Suresh / Boopathy Suresh"/>
-        <filter val="Balakrishnan Janakiraman"/>
-        <filter val="Bhagyashree Apartment  Owners Association"/>
-        <filter val="Chandrasekar TS &amp; Lalitha"/>
-        <filter val="Chithralekha Rangabashyam"/>
-        <filter val="Daniel &amp; Beula Daniel"/>
-        <filter val="Devi Prasad Marimuthu"/>
-        <filter val="Dorayswamy (Same as Vignesh)"/>
-        <filter val="Dr Harish Mahendar"/>
-        <filter val="G Baskar"/>
-        <filter val="G Gopalakrishnan"/>
-        <filter val="Guruswamy Manokaran"/>
-        <filter val="H Pandian"/>
-        <filter val="J P Karunakaran"/>
-        <filter val="K Bapiah"/>
-        <filter val="K Suryanarayanan"/>
-        <filter val="Kamala Ramakrishnan"/>
-        <filter val="Koushik Apartments"/>
-        <filter val="Kousthubham Apartments"/>
-        <filter val="Latha Ramabadhran"/>
-        <filter val="M Renganathan"/>
-        <filter val="Mahesh Shankar"/>
-        <filter val="Mrs Geetha Durairajan"/>
-        <filter val="Mukundan P &amp; Komala Mukundan"/>
-        <filter val="Mukundan V R"/>
-        <filter val="N Ravichandran"/>
-        <filter val="Narayanan Chettiyar"/>
-        <filter val="Nirmala Rajasekar"/>
-        <filter val="P Karthikesan"/>
-        <filter val="P Neethirajan"/>
-        <filter val="P Ravikumar"/>
-        <filter val="P V Jagannatham Chetty"/>
-        <filter val="Padmavathy Krishnaswamy"/>
-        <filter val="Peter Premraj / S V M Srinivasan"/>
-        <filter val="R Krishnamoorthy Rao"/>
-        <filter val="R Padmanabhan"/>
-        <filter val="R Sundar"/>
-        <filter val="Rajam Subbarayan"/>
-        <filter val="Rajammal Kasthuri"/>
-        <filter val="RajaSekhar, Sarojini"/>
-        <filter val="Rajesh K"/>
-        <filter val="Rajiv R"/>
-        <filter val="Raman Srinivasan"/>
-        <filter val="Raveendra Reddy"/>
-        <filter val="S Padmanabhan"/>
-        <filter val="S R Sadhakkathulla"/>
-        <filter val="S Sankaran (Auditor)"/>
-        <filter val="S Saravanan"/>
-        <filter val="S. Ganesh (Same as below)"/>
-        <filter val="Senniappan"/>
-        <filter val="Shankar Ram"/>
-        <filter val="Shanmuganathan S"/>
-        <filter val="Shantha Durairaj"/>
-        <filter val="Shiva"/>
-        <filter val="Shyam's Sri Saratha Apts Flat owners Assn."/>
-        <filter val="Srikanth (Ex Treasurer)"/>
-        <filter val="Subbiah Nagarajan"/>
-        <filter val="Sudharsan Anandakumar"/>
-        <filter val="Sundar Ram"/>
-        <filter val="Sundararajan R"/>
-        <filter val="Suprasanna Vijayaraghavan (Same as Uma Maheswari Vijayaraghavan)"/>
-        <filter val="Suresh Ramaswamy"/>
-        <filter val="U R Srinivasan"/>
-        <filter val="Vedamanikkam"/>
-        <filter val="Velayutham R V"/>
-        <filter val="Venkatraman"/>
-        <filter val="Vijay Jesudasan"/>
-        <filter val="Vijay Venkatesh"/>
-        <filter val="Zakir Hussein"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:J98">
     <sortState ref="A2:J96">
       <sortCondition ref="D1:D96"/>
     </sortState>

--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$98</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="187">
   <si>
     <t>S No</t>
   </si>
@@ -736,6 +736,9 @@
   </si>
   <si>
     <t>24/14 3rd Main Road</t>
+  </si>
+  <si>
+    <t>2025-2026</t>
   </si>
 </sst>
 </file>
@@ -1308,13 +1311,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I48" sqref="I48"/>
+      <selection pane="bottomRight" activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,12 +1327,12 @@
     <col min="3" max="5" width="30.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="23" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="23" customWidth="1"/>
-    <col min="8" max="9" width="17.7109375" style="23" customWidth="1"/>
-    <col min="10" max="10" width="45.5703125" style="26" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="10" width="17.7109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="45.5703125" style="26" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,11 +1360,14 @@
       <c r="I1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1389,14 +1395,17 @@
       <c r="I2" s="18">
         <v>2500</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
+      <c r="J2" s="18">
+        <v>2500</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
@@ -1425,14 +1434,17 @@
       <c r="I3" s="18">
         <v>7500</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
+      <c r="J3" s="18">
+        <v>7500</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-    </row>
-    <row r="4" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1461,15 +1473,18 @@
       <c r="I4" s="9">
         <v>7500</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="35">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="11"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="11"/>
+      <c r="P4" s="12"/>
+    </row>
+    <row r="5" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1496,13 +1511,16 @@
       <c r="I5" s="9">
         <v>10000</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
+      <c r="J5" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="11"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="N5" s="11"/>
+      <c r="P5" s="12"/>
+    </row>
+    <row r="6" spans="1:16" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1531,14 +1549,17 @@
       <c r="I6" s="36">
         <v>0</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
+      <c r="J6" s="36">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1567,16 +1588,19 @@
       <c r="I7" s="8">
         <v>3000</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:16" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1605,14 +1629,17 @@
       <c r="I8" s="9">
         <v>2500</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
+      <c r="J8" s="35">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
-    </row>
-    <row r="9" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1641,14 +1668,17 @@
       <c r="I9" s="35">
         <v>0</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
+      <c r="J9" s="35">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="12"/>
-    </row>
-    <row r="10" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="11"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1675,14 +1705,17 @@
       <c r="I10" s="9">
         <v>7500</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
+      <c r="J10" s="35">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="11"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1711,14 +1744,17 @@
       <c r="I11" s="9">
         <v>2500</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
+      <c r="J11" s="9">
+        <v>2500</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
-    </row>
-    <row r="12" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="O11" s="11"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1747,16 +1783,19 @@
       <c r="I12" s="8">
         <v>2500</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="20">
+        <v>0</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
+      <c r="L12" s="10"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-    </row>
-    <row r="13" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O12" s="11"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1785,14 +1824,17 @@
       <c r="I13" s="9">
         <v>2500</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
+      <c r="J13" s="35">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O13" s="11"/>
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1821,16 +1863,19 @@
       <c r="I14" s="25">
         <v>8500</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="25">
+        <v>2500</v>
+      </c>
+      <c r="K14" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1860,13 +1905,14 @@
         <v>161</v>
       </c>
       <c r="J15" s="42"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
-    </row>
-    <row r="16" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1882,13 +1928,14 @@
       <c r="H16" s="42"/>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="10"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1904,13 +1951,14 @@
       <c r="H17" s="42"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-    </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1939,14 +1987,17 @@
       <c r="I18" s="35">
         <v>0</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
+      <c r="J18" s="35">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
-    </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+    </row>
+    <row r="19" spans="1:16" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1975,14 +2026,17 @@
       <c r="I19" s="22">
         <v>2500</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
+      <c r="J19" s="20">
+        <v>0</v>
+      </c>
+      <c r="K19" s="24"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="11"/>
+      <c r="P19" s="12"/>
+    </row>
+    <row r="20" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1997,14 +2051,15 @@
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
-    </row>
-    <row r="21" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O20" s="11"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2033,14 +2088,17 @@
       <c r="I21" s="18">
         <v>1500</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
+      <c r="J21" s="36">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
-      <c r="O21" s="12"/>
-    </row>
-    <row r="22" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="O21" s="11"/>
+      <c r="P21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2069,16 +2127,19 @@
       <c r="I22" s="18">
         <v>3500</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="18">
+        <v>2500</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="11"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
-      <c r="O22" s="12"/>
-    </row>
-    <row r="23" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O22" s="11"/>
+      <c r="P22" s="12"/>
+    </row>
+    <row r="23" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2107,14 +2168,17 @@
       <c r="I23" s="9">
         <v>1500</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
+      <c r="J23" s="9">
+        <v>1500</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
-      <c r="O23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="O23" s="11"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="1:16" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2143,14 +2207,17 @@
       <c r="I24" s="18">
         <v>7500</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
+      <c r="J24" s="36">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="O24" s="11"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2179,14 +2246,17 @@
       <c r="I25" s="8">
         <v>1500</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
+      <c r="J25" s="20">
+        <v>0</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="12"/>
-    </row>
-    <row r="26" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="11"/>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2215,14 +2285,17 @@
       <c r="I26" s="8">
         <v>2500</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="11"/>
+      <c r="J26" s="20">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="11"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2251,14 +2324,17 @@
       <c r="I27" s="18">
         <v>2500</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11"/>
+      <c r="J27" s="36">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="12"/>
-    </row>
-    <row r="28" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="O27" s="11"/>
+      <c r="P27" s="12"/>
+    </row>
+    <row r="28" spans="1:16" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2287,14 +2363,17 @@
       <c r="I28" s="9">
         <v>2500</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="11"/>
+      <c r="J28" s="35">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
-      <c r="O28" s="12"/>
-    </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="O28" s="11"/>
+      <c r="P28" s="12"/>
+    </row>
+    <row r="29" spans="1:16" s="13" customFormat="1" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2323,14 +2402,17 @@
       <c r="I29" s="9">
         <v>2500</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11"/>
+      <c r="J29" s="35">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="12"/>
-    </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="11"/>
+      <c r="P29" s="12"/>
+    </row>
+    <row r="30" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2346,13 +2428,14 @@
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
       <c r="J30" s="42"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="12"/>
-    </row>
-    <row r="31" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O30" s="11"/>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2381,16 +2464,19 @@
       <c r="I31" s="8">
         <v>5000</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K31" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
+      <c r="L31" s="10"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O31" s="11"/>
+      <c r="P31" s="12"/>
+    </row>
+    <row r="32" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2419,14 +2505,17 @@
       <c r="I32" s="22">
         <v>1500</v>
       </c>
-      <c r="J32" s="24"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="11"/>
+      <c r="J32" s="22">
+        <v>1500</v>
+      </c>
+      <c r="K32" s="24"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
-      <c r="O32" s="12"/>
-    </row>
-    <row r="33" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O32" s="11"/>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2455,14 +2544,17 @@
       <c r="I33" s="8">
         <v>1500</v>
       </c>
-      <c r="J33" s="24"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="11"/>
+      <c r="J33" s="20">
+        <v>0</v>
+      </c>
+      <c r="K33" s="24"/>
+      <c r="L33" s="10"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="12"/>
-    </row>
-    <row r="34" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O33" s="11"/>
+      <c r="P33" s="12"/>
+    </row>
+    <row r="34" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2491,14 +2583,17 @@
       <c r="I34" s="8">
         <v>1500</v>
       </c>
-      <c r="J34" s="24"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="11"/>
+      <c r="J34" s="20">
+        <v>0</v>
+      </c>
+      <c r="K34" s="24"/>
+      <c r="L34" s="10"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="12"/>
-    </row>
-    <row r="35" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O34" s="11"/>
+      <c r="P34" s="12"/>
+    </row>
+    <row r="35" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f t="shared" ref="A35:A66" si="1">A34+1</f>
         <v>34</v>
@@ -2527,14 +2622,17 @@
       <c r="I35" s="8">
         <v>1500</v>
       </c>
-      <c r="J35" s="24"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="11"/>
+      <c r="J35" s="20">
+        <v>0</v>
+      </c>
+      <c r="K35" s="24"/>
+      <c r="L35" s="10"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="12"/>
-    </row>
-    <row r="36" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O35" s="11"/>
+      <c r="P35" s="12"/>
+    </row>
+    <row r="36" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -2563,14 +2661,17 @@
       <c r="I36" s="20">
         <v>0</v>
       </c>
-      <c r="J36" s="24"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="11"/>
+      <c r="J36" s="20">
+        <v>0</v>
+      </c>
+      <c r="K36" s="24"/>
+      <c r="L36" s="10"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
-      <c r="O36" s="12"/>
-    </row>
-    <row r="37" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="11"/>
+      <c r="P36" s="12"/>
+    </row>
+    <row r="37" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2585,14 +2686,15 @@
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="11"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="12"/>
-    </row>
-    <row r="38" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="11"/>
+      <c r="P37" s="12"/>
+    </row>
+    <row r="38" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -2621,16 +2723,19 @@
       <c r="I38" s="9">
         <v>2500</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="35">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="11"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="12"/>
-    </row>
-    <row r="39" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O38" s="11"/>
+      <c r="P38" s="12"/>
+    </row>
+    <row r="39" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -2659,16 +2764,19 @@
       <c r="I39" s="18">
         <v>2500</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="36">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="11"/>
+      <c r="L39" s="10"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="12"/>
-    </row>
-    <row r="40" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="11"/>
+      <c r="P39" s="12"/>
+    </row>
+    <row r="40" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2697,14 +2805,17 @@
       <c r="I40" s="9">
         <v>2500</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="11"/>
+      <c r="J40" s="35">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="10"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
-      <c r="O40" s="12"/>
-    </row>
-    <row r="41" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O40" s="11"/>
+      <c r="P40" s="12"/>
+    </row>
+    <row r="41" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2719,14 +2830,15 @@
       <c r="G41" s="38"/>
       <c r="H41" s="43"/>
       <c r="I41" s="43"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="10"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
-      <c r="O41" s="12"/>
-    </row>
-    <row r="42" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="11"/>
+      <c r="P41" s="12"/>
+    </row>
+    <row r="42" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2741,14 +2853,15 @@
       <c r="G42" s="38"/>
       <c r="H42" s="43"/>
       <c r="I42" s="43"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="11"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="10"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
-      <c r="O42" s="12"/>
-    </row>
-    <row r="43" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="11"/>
+      <c r="P42" s="12"/>
+    </row>
+    <row r="43" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2777,14 +2890,17 @@
       <c r="I43" s="9">
         <v>7500</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="11"/>
+      <c r="J43" s="35">
+        <v>0</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="10"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
-      <c r="O43" s="12"/>
-    </row>
-    <row r="44" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="11"/>
+      <c r="P43" s="12"/>
+    </row>
+    <row r="44" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2813,14 +2929,17 @@
       <c r="I44" s="9">
         <v>7500</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="11"/>
+      <c r="J44" s="35">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
-      <c r="O44" s="12"/>
-    </row>
-    <row r="45" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="11"/>
+      <c r="P44" s="12"/>
+    </row>
+    <row r="45" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2849,16 +2968,19 @@
       <c r="I45" s="9">
         <v>2500</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="35">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="11"/>
+      <c r="L45" s="10"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
-      <c r="O45" s="12"/>
-    </row>
-    <row r="46" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="11"/>
+      <c r="P45" s="12"/>
+    </row>
+    <row r="46" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2887,14 +3009,17 @@
       <c r="I46" s="9">
         <v>2500</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="11"/>
+      <c r="J46" s="35">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
-      <c r="O46" s="12"/>
-    </row>
-    <row r="47" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="11"/>
+      <c r="P46" s="12"/>
+    </row>
+    <row r="47" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2923,14 +3048,17 @@
       <c r="I47" s="36">
         <v>0</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="11"/>
+      <c r="J47" s="36">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
-      <c r="O47" s="12"/>
-    </row>
-    <row r="48" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="11"/>
+      <c r="P47" s="12"/>
+    </row>
+    <row r="48" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2959,14 +3087,17 @@
       <c r="I48" s="9">
         <v>2500</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="11"/>
+      <c r="J48" s="35">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
-      <c r="O48" s="12"/>
-    </row>
-    <row r="49" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="11"/>
+      <c r="P48" s="12"/>
+    </row>
+    <row r="49" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2995,14 +3126,17 @@
       <c r="I49" s="9">
         <v>2500</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11"/>
+      <c r="J49" s="35">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
-      <c r="O49" s="12"/>
-    </row>
-    <row r="50" spans="1:15" s="13" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="O49" s="11"/>
+      <c r="P49" s="12"/>
+    </row>
+    <row r="50" spans="1:16" s="13" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -3031,14 +3165,17 @@
       <c r="I50" s="9">
         <v>2500</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="11"/>
+      <c r="J50" s="35">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10"/>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
-      <c r="O50" s="12"/>
-    </row>
-    <row r="51" spans="1:15" s="13" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O50" s="11"/>
+      <c r="P50" s="12"/>
+    </row>
+    <row r="51" spans="1:16" s="13" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -3067,14 +3204,17 @@
       <c r="I51" s="18">
         <v>2500</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="11"/>
+      <c r="J51" s="36">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10"/>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
-      <c r="O51" s="12"/>
-    </row>
-    <row r="52" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O51" s="11"/>
+      <c r="P51" s="12"/>
+    </row>
+    <row r="52" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -3103,14 +3243,17 @@
       <c r="I52" s="20">
         <v>0</v>
       </c>
-      <c r="J52" s="24"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="11"/>
+      <c r="J52" s="20">
+        <v>0</v>
+      </c>
+      <c r="K52" s="24"/>
+      <c r="L52" s="10"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
-      <c r="O52" s="12"/>
-    </row>
-    <row r="53" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="11"/>
+      <c r="P52" s="12"/>
+    </row>
+    <row r="53" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -3139,14 +3282,17 @@
       <c r="I53" s="8">
         <v>2500</v>
       </c>
-      <c r="J53" s="24"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="11"/>
+      <c r="J53" s="20">
+        <v>0</v>
+      </c>
+      <c r="K53" s="24"/>
+      <c r="L53" s="10"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
-      <c r="O53" s="12"/>
-    </row>
-    <row r="54" spans="1:15" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="O53" s="11"/>
+      <c r="P53" s="12"/>
+    </row>
+    <row r="54" spans="1:16" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="48">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -3175,14 +3321,17 @@
       <c r="I54" s="8">
         <v>2500</v>
       </c>
-      <c r="J54" s="24"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="11"/>
+      <c r="J54" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K54" s="24"/>
+      <c r="L54" s="10"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
-      <c r="O54" s="12"/>
-    </row>
-    <row r="55" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="O54" s="11"/>
+      <c r="P54" s="12"/>
+    </row>
+    <row r="55" spans="1:16" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -3211,16 +3360,19 @@
       <c r="I55" s="8">
         <v>3500</v>
       </c>
-      <c r="J55" s="24" t="s">
+      <c r="J55" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K55" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="11"/>
+      <c r="L55" s="10"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
-      <c r="O55" s="12"/>
-    </row>
-    <row r="56" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O55" s="11"/>
+      <c r="P55" s="12"/>
+    </row>
+    <row r="56" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -3249,16 +3401,19 @@
       <c r="I56" s="8">
         <v>3000</v>
       </c>
-      <c r="J56" s="24" t="s">
+      <c r="J56" s="20">
+        <v>0</v>
+      </c>
+      <c r="K56" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="11"/>
+      <c r="L56" s="10"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
-      <c r="O56" s="12"/>
-    </row>
-    <row r="57" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="11"/>
+      <c r="P56" s="12"/>
+    </row>
+    <row r="57" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -3287,14 +3442,17 @@
       <c r="I57" s="20">
         <v>0</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="11"/>
+      <c r="J57" s="20">
+        <v>0</v>
+      </c>
+      <c r="K57" s="8"/>
+      <c r="L57" s="10"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
-      <c r="O57" s="12"/>
-    </row>
-    <row r="58" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O57" s="11"/>
+      <c r="P57" s="12"/>
+    </row>
+    <row r="58" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -3309,14 +3467,15 @@
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="11"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="10"/>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
-      <c r="O58" s="12"/>
-    </row>
-    <row r="59" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O58" s="11"/>
+      <c r="P58" s="12"/>
+    </row>
+    <row r="59" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -3331,14 +3490,15 @@
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="11"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="10"/>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
-      <c r="O59" s="12"/>
-    </row>
-    <row r="60" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O59" s="11"/>
+      <c r="P59" s="12"/>
+    </row>
+    <row r="60" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -3353,14 +3513,15 @@
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="11"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="10"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
-      <c r="O60" s="12"/>
-    </row>
-    <row r="61" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="11"/>
+      <c r="P60" s="12"/>
+    </row>
+    <row r="61" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -3389,14 +3550,17 @@
       <c r="I61" s="18">
         <v>2500</v>
       </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="11"/>
+      <c r="J61" s="36">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9"/>
+      <c r="L61" s="10"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
-      <c r="O61" s="12"/>
-    </row>
-    <row r="62" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O61" s="11"/>
+      <c r="P61" s="12"/>
+    </row>
+    <row r="62" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -3425,14 +3589,17 @@
       <c r="I62" s="16">
         <v>2500</v>
       </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="11"/>
+      <c r="J62" s="17">
+        <v>0</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10"/>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
-      <c r="O62" s="12"/>
-    </row>
-    <row r="63" spans="1:15" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O62" s="11"/>
+      <c r="P62" s="12"/>
+    </row>
+    <row r="63" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -3461,14 +3628,17 @@
       <c r="I63" s="18">
         <v>2500</v>
       </c>
-      <c r="J63" s="9"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="11"/>
+      <c r="J63" s="36">
+        <v>0</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="10"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
-      <c r="O63" s="12"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O63" s="11"/>
+      <c r="P63" s="12"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -3497,9 +3667,12 @@
       <c r="I64" s="9">
         <v>2500</v>
       </c>
-      <c r="J64" s="9"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J64" s="9">
+        <v>2500</v>
+      </c>
+      <c r="K64" s="9"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -3528,9 +3701,12 @@
       <c r="I65" s="18">
         <v>2500</v>
       </c>
-      <c r="J65" s="9"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J65" s="36">
+        <v>0</v>
+      </c>
+      <c r="K65" s="9"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -3559,9 +3735,10 @@
       <c r="I66" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="J66" s="45"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J66" s="38"/>
+      <c r="K66" s="45"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <f t="shared" ref="A67:A96" si="2">A66+1</f>
         <v>66</v>
@@ -3590,9 +3767,12 @@
       <c r="I67" s="8">
         <v>2500</v>
       </c>
-      <c r="J67" s="24"/>
-    </row>
-    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J67" s="20">
+        <v>0</v>
+      </c>
+      <c r="K67" s="24"/>
+    </row>
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -3621,9 +3801,12 @@
       <c r="I68" s="22">
         <v>2500</v>
       </c>
-      <c r="J68" s="24"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J68" s="20">
+        <v>0</v>
+      </c>
+      <c r="K68" s="24"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="47">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -3652,9 +3835,12 @@
       <c r="I69" s="8">
         <v>2512</v>
       </c>
-      <c r="J69" s="8"/>
-    </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J69" s="8">
+        <v>2500</v>
+      </c>
+      <c r="K69" s="8"/>
+    </row>
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -3683,11 +3869,14 @@
       <c r="I70" s="9">
         <v>22500</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="J70" s="9">
+        <v>2500</v>
+      </c>
+      <c r="K70" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -3702,9 +3891,10 @@
       <c r="G71" s="38"/>
       <c r="H71" s="50"/>
       <c r="I71" s="50"/>
-      <c r="J71" s="42"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J71" s="50"/>
+      <c r="K71" s="42"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -3733,9 +3923,12 @@
       <c r="I72" s="18">
         <v>10000</v>
       </c>
-      <c r="J72" s="9"/>
-    </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J72" s="18">
+        <v>10000</v>
+      </c>
+      <c r="K72" s="9"/>
+    </row>
+    <row r="73" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <f t="shared" si="2"/>
         <v>72</v>
@@ -3764,9 +3957,12 @@
       <c r="I73" s="35">
         <v>0</v>
       </c>
-      <c r="J73" s="9"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J73" s="35">
+        <v>0</v>
+      </c>
+      <c r="K73" s="9"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <f t="shared" si="2"/>
         <v>73</v>
@@ -3793,9 +3989,12 @@
       <c r="I74" s="35">
         <v>0</v>
       </c>
-      <c r="J74" s="9"/>
-    </row>
-    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J74" s="35">
+        <v>0</v>
+      </c>
+      <c r="K74" s="9"/>
+    </row>
+    <row r="75" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <f t="shared" si="2"/>
         <v>74</v>
@@ -3824,9 +4023,12 @@
       <c r="I75" s="9">
         <v>10000</v>
       </c>
-      <c r="J75" s="9"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J75" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K75" s="9"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -3855,9 +4057,12 @@
       <c r="I76" s="9">
         <v>2500</v>
       </c>
-      <c r="J76" s="9"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J76" s="35">
+        <v>0</v>
+      </c>
+      <c r="K76" s="9"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -3886,9 +4091,12 @@
       <c r="I77" s="18">
         <v>2500</v>
       </c>
-      <c r="J77" s="9"/>
-    </row>
-    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J77" s="36">
+        <v>0</v>
+      </c>
+      <c r="K77" s="9"/>
+    </row>
+    <row r="78" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -3917,9 +4125,12 @@
       <c r="I78" s="18">
         <v>10000</v>
       </c>
-      <c r="J78" s="9"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J78" s="36">
+        <v>0</v>
+      </c>
+      <c r="K78" s="9"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -3948,9 +4159,12 @@
       <c r="I79" s="35">
         <v>0</v>
       </c>
-      <c r="J79" s="9"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J79" s="35">
+        <v>0</v>
+      </c>
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -3966,8 +4180,9 @@
       <c r="H80" s="42"/>
       <c r="I80" s="42"/>
       <c r="J80" s="42"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="42"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -3997,8 +4212,9 @@
         <v>161</v>
       </c>
       <c r="J81" s="42"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="42"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39">
         <f t="shared" si="2"/>
         <v>81</v>
@@ -4014,8 +4230,9 @@
       <c r="H82" s="42"/>
       <c r="I82" s="42"/>
       <c r="J82" s="42"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="42"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <f t="shared" si="2"/>
         <v>82</v>
@@ -4044,9 +4261,12 @@
       <c r="I83" s="18">
         <v>2500</v>
       </c>
-      <c r="J83" s="9"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J83" s="18">
+        <v>2500</v>
+      </c>
+      <c r="K83" s="9"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -4071,11 +4291,14 @@
       <c r="I84" s="9">
         <v>2500</v>
       </c>
-      <c r="J84" s="9" t="s">
+      <c r="J84" s="35">
+        <v>0</v>
+      </c>
+      <c r="K84" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -4104,11 +4327,14 @@
       <c r="I85" s="18">
         <v>2500</v>
       </c>
-      <c r="J85" s="9" t="s">
+      <c r="J85" s="36">
+        <v>0</v>
+      </c>
+      <c r="K85" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -4137,9 +4363,12 @@
       <c r="I86" s="18">
         <v>15000</v>
       </c>
-      <c r="J86" s="9"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J86" s="36">
+        <v>0</v>
+      </c>
+      <c r="K86" s="9"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <f t="shared" si="2"/>
         <v>86</v>
@@ -4168,11 +4397,14 @@
       <c r="I87" s="9">
         <v>7500</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="J87" s="35">
+        <v>0</v>
+      </c>
+      <c r="K87" s="9" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -4201,9 +4433,12 @@
       <c r="I88" s="9">
         <v>7500</v>
       </c>
-      <c r="J88" s="9"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J88" s="35">
+        <v>0</v>
+      </c>
+      <c r="K88" s="9"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <f t="shared" si="2"/>
         <v>88</v>
@@ -4232,9 +4467,12 @@
       <c r="I89" s="35">
         <v>0</v>
       </c>
-      <c r="J89" s="9"/>
-    </row>
-    <row r="90" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J89" s="35">
+        <v>0</v>
+      </c>
+      <c r="K89" s="9"/>
+    </row>
+    <row r="90" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <f t="shared" si="2"/>
         <v>89</v>
@@ -4263,9 +4501,12 @@
       <c r="I90" s="22">
         <v>7500</v>
       </c>
-      <c r="J90" s="24"/>
-    </row>
-    <row r="91" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="J90" s="20">
+        <v>0</v>
+      </c>
+      <c r="K90" s="24"/>
+    </row>
+    <row r="91" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -4294,9 +4535,10 @@
       <c r="I91" s="38">
         <v>1</v>
       </c>
-      <c r="J91" s="24"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J91" s="38"/>
+      <c r="K91" s="24"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <f t="shared" si="2"/>
         <v>91</v>
@@ -4319,9 +4561,12 @@
       <c r="I92" s="8">
         <v>3000</v>
       </c>
-      <c r="J92" s="24"/>
-    </row>
-    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J92" s="20">
+        <v>0</v>
+      </c>
+      <c r="K92" s="24"/>
+    </row>
+    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <f t="shared" si="2"/>
         <v>92</v>
@@ -4350,9 +4595,12 @@
       <c r="I93" s="8">
         <v>1500</v>
       </c>
-      <c r="J93" s="8"/>
-    </row>
-    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J93" s="20">
+        <v>0</v>
+      </c>
+      <c r="K93" s="8"/>
+    </row>
+    <row r="94" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -4381,9 +4629,12 @@
       <c r="I94" s="8">
         <v>1500</v>
       </c>
-      <c r="J94" s="8"/>
-    </row>
-    <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J94" s="20">
+        <v>0</v>
+      </c>
+      <c r="K94" s="8"/>
+    </row>
+    <row r="95" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <f t="shared" si="2"/>
         <v>94</v>
@@ -4412,9 +4663,12 @@
       <c r="I95" s="8">
         <v>1500</v>
       </c>
-      <c r="J95" s="8"/>
-    </row>
-    <row r="96" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J95" s="20">
+        <v>0</v>
+      </c>
+      <c r="K95" s="8"/>
+    </row>
+    <row r="96" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="52">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -4443,9 +4697,12 @@
       <c r="I96" s="16">
         <v>2500</v>
       </c>
-      <c r="J96" s="9"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J96" s="17">
+        <v>0</v>
+      </c>
+      <c r="K96" s="9"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -4471,9 +4728,12 @@
       <c r="I97" s="16">
         <v>2500</v>
       </c>
-      <c r="J97" s="9"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J97" s="17">
+        <v>0</v>
+      </c>
+      <c r="K97" s="9"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -4497,9 +4757,12 @@
       <c r="I98" s="16">
         <v>1500</v>
       </c>
-      <c r="J98" s="9"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J98" s="17">
+        <v>0</v>
+      </c>
+      <c r="K98" s="9"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="15"/>
       <c r="C99" s="6"/>
@@ -4509,9 +4772,10 @@
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
-      <c r="J99" s="9"/>
-    </row>
-    <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J99" s="16"/>
+      <c r="K99" s="9"/>
+    </row>
+    <row r="101" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C101" s="27" t="s">
         <v>136</v>
       </c>
@@ -4521,8 +4785,9 @@
       <c r="G101" s="29"/>
       <c r="H101" s="29"/>
       <c r="I101" s="29"/>
-    </row>
-    <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J101" s="29"/>
+    </row>
+    <row r="102" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
       <c r="E102" s="28"/>
@@ -4530,8 +4795,9 @@
       <c r="G102" s="29"/>
       <c r="H102" s="29"/>
       <c r="I102" s="29"/>
-    </row>
-    <row r="103" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J102" s="29"/>
+    </row>
+    <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D103" s="28"/>
       <c r="E103" s="30" t="s">
         <v>137</v>
@@ -4552,8 +4818,12 @@
         <f>COUNTIFS(E2:E98, "House", I2:I98, "&lt;&gt;0")</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J103" s="32">
+        <f>COUNTIFS(E2:E98, "House", J2:J98, "&lt;&gt;0")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D104" s="28"/>
       <c r="E104" s="30" t="s">
         <v>138</v>
@@ -4574,8 +4844,12 @@
         <f>COUNTIFS(E2:E98, "Apartment", I2:I98, "&lt;&gt;0")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J104" s="32">
+        <f>COUNTIFS(E2:E98, "Apartment", J2:J98, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D105" s="28"/>
       <c r="E105" s="30" t="s">
         <v>139</v>
@@ -4596,8 +4870,12 @@
         <f>COUNTIFS(E2:E98, "Ind. Apartment", I2:I98, "&lt;&gt;0")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J105" s="32">
+        <f>COUNTIFS(E2:E98, "Ind. Apartment", J2:J98, "&lt;&gt;0")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C106" s="33"/>
       <c r="D106" s="28"/>
       <c r="E106" s="28"/>
@@ -4605,17 +4883,18 @@
       <c r="G106" s="34"/>
       <c r="H106" s="34"/>
       <c r="I106" s="34"/>
-    </row>
-    <row r="108" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J106" s="34"/>
+    </row>
+    <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C108" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="J108" s="37"/>
-    </row>
-    <row r="109" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K108" s="37"/>
+    </row>
+    <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C109" s="31"/>
     </row>
-    <row r="110" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E110" s="31" t="s">
         <v>23</v>
       </c>
@@ -4635,8 +4914,12 @@
         <f>COUNTIFS(D2:D98, "1st Main", I2:I98, "&lt;&gt;0")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J110" s="32">
+        <f>COUNTIFS(D2:D98, "1st Main", J2:J98, "&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E111" s="31" t="s">
         <v>34</v>
       </c>
@@ -4656,8 +4939,12 @@
         <f>COUNTIFS(D2:D98, "2nd Main", I2:I98, "&lt;&gt;0")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J111" s="32">
+        <f>COUNTIFS(D2:D98, "2nd Main", J2:J98, "&lt;&gt;0")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E112" s="31" t="s">
         <v>31</v>
       </c>
@@ -4677,8 +4964,12 @@
         <f>COUNTIFS(D2:D98, "3rd Main", I2:I98, "&lt;&gt;0")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J112" s="32">
+        <f>COUNTIFS(D2:D98, "3rd Main", J2:J98, "&lt;&gt;0")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E113" s="31" t="s">
         <v>41</v>
       </c>
@@ -4698,8 +4989,12 @@
         <f>COUNTIFS(D2:D98, "1st Cross", I2:I98, "&lt;&gt;0")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="114" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J113" s="32">
+        <f>COUNTIFS(D2:D98, "1st Cross", J2:J98, "&lt;&gt;0")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E114" s="31" t="s">
         <v>21</v>
       </c>
@@ -4719,8 +5014,12 @@
         <f>COUNTIFS(D2:D98, "2nd Cross", I2:I98, "&lt;&gt;0")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J114" s="32">
+        <f>COUNTIFS(D2:D98, "2nd Cross", J2:J98, "&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E115" s="31" t="s">
         <v>17</v>
       </c>
@@ -4740,8 +5039,12 @@
         <f>COUNTIFS(D2:D98, "3rd Cross", I2:I98, "&lt;&gt;0")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J115" s="32">
+        <f>COUNTIFS(D2:D98, "3rd Cross", J2:J98, "&lt;&gt;0")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E116" s="31" t="s">
         <v>58</v>
       </c>
@@ -4761,8 +5064,12 @@
         <f>COUNTIFS(D2:D98, "4th Cross", I2:I98, "&lt;&gt;0")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="5:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J116" s="32">
+        <f>COUNTIFS(D2:D98, "4th Cross", J2:J98, "&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E117" s="31" t="s">
         <v>10</v>
       </c>
@@ -4782,9 +5089,13 @@
         <f>COUNTIFS(D2:D98, "Seethammal Road", I2:I98, "&lt;&gt;0")</f>
         <v>19</v>
       </c>
+      <c r="J117" s="32">
+        <f>COUNTIFS(D2:D98, "Seethammal Road", J2:J98, "&lt;&gt;0")</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J98">
+  <autoFilter ref="A1:K98">
     <sortState ref="A2:J96">
       <sortCondition ref="D1:D96"/>
     </sortState>

--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -1317,7 +1317,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J121" sqref="J121"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,8 +2363,8 @@
       <c r="I28" s="9">
         <v>2500</v>
       </c>
-      <c r="J28" s="35">
-        <v>0</v>
+      <c r="J28" s="9">
+        <v>2500</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="10"/>
@@ -2622,8 +2622,8 @@
       <c r="I35" s="8">
         <v>1500</v>
       </c>
-      <c r="J35" s="20">
-        <v>0</v>
+      <c r="J35" s="8">
+        <v>1500</v>
       </c>
       <c r="K35" s="24"/>
       <c r="L35" s="10"/>
@@ -2968,8 +2968,8 @@
       <c r="I45" s="9">
         <v>2500</v>
       </c>
-      <c r="J45" s="35">
-        <v>0</v>
+      <c r="J45" s="9">
+        <v>2500</v>
       </c>
       <c r="K45" s="9" t="s">
         <v>147</v>
@@ -4125,8 +4125,8 @@
       <c r="I78" s="18">
         <v>10000</v>
       </c>
-      <c r="J78" s="36">
-        <v>0</v>
+      <c r="J78" s="18">
+        <v>10000</v>
       </c>
       <c r="K78" s="9"/>
     </row>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="J103" s="32">
         <f>COUNTIFS(E2:E98, "House", J2:J98, "&lt;&gt;0")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="J104" s="32">
         <f>COUNTIFS(E2:E98, "Apartment", J2:J98, "&lt;&gt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="J105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", J2:J98, "&lt;&gt;0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="J112" s="32">
         <f>COUNTIFS(D2:D98, "3rd Main", J2:J98, "&lt;&gt;0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="J115" s="32">
         <f>COUNTIFS(D2:D98, "3rd Cross", J2:J98, "&lt;&gt;0")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="J117" s="32">
         <f>COUNTIFS(D2:D98, "Seethammal Road", J2:J98, "&lt;&gt;0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="193">
   <si>
     <t>S No</t>
   </si>
@@ -739,6 +739,24 @@
   </si>
   <si>
     <t>2025-2026</t>
+  </si>
+  <si>
+    <t>Paid as ind. Apartm</t>
+  </si>
+  <si>
+    <t>2nd Main Road</t>
+  </si>
+  <si>
+    <t>2A Rathna Apt, Neethirajan P</t>
+  </si>
+  <si>
+    <t>1A, Rathna Apart, ECM Guptha</t>
+  </si>
+  <si>
+    <t>1B Rathna Apartment, S Daniel</t>
+  </si>
+  <si>
+    <t>2B Rathna Apartment, S Daniel</t>
   </si>
 </sst>
 </file>
@@ -874,12 +892,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor rgb="FFC2E0AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor rgb="FFFFDAA2"/>
       </patternFill>
@@ -900,6 +912,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFC2E0AE"/>
       </patternFill>
     </fill>
   </fills>
@@ -930,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,14 +1027,13 @@
     <xf numFmtId="2" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1026,6 +1043,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1317,7 +1338,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,10 +1609,10 @@
       <c r="I7" s="8">
         <v>3000</v>
       </c>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-      <c r="K7" s="51" t="s">
+      <c r="J7" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K7" s="50" t="s">
         <v>173</v>
       </c>
       <c r="L7" s="10"/>
@@ -1629,8 +1650,8 @@
       <c r="I8" s="9">
         <v>2500</v>
       </c>
-      <c r="J8" s="35">
-        <v>0</v>
+      <c r="J8" s="9">
+        <v>2500</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="10"/>
@@ -1705,8 +1726,8 @@
       <c r="I10" s="9">
         <v>7500</v>
       </c>
-      <c r="J10" s="35">
-        <v>0</v>
+      <c r="J10" s="9">
+        <v>7500</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="10"/>
@@ -1716,7 +1737,7 @@
       <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="47">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1824,8 +1845,8 @@
       <c r="I13" s="9">
         <v>2500</v>
       </c>
-      <c r="J13" s="35">
-        <v>0</v>
+      <c r="J13" s="9">
+        <v>2500</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="10"/>
@@ -1876,36 +1897,38 @@
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="54">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" s="40" t="s">
+      <c r="B15" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="G15" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="H15" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="I15" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="H15" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
+      <c r="J15" s="9">
+        <v>1500</v>
+      </c>
+      <c r="K15" s="9"/>
       <c r="L15" s="10"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -1913,22 +1936,30 @@
       <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="A16" s="54">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="B16" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9">
+        <v>1500</v>
+      </c>
+      <c r="K16" s="9"/>
       <c r="L16" s="10"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -1936,22 +1967,30 @@
       <c r="P16" s="12"/>
     </row>
     <row r="17" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+      <c r="A17" s="54">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="B17" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9">
+        <v>1500</v>
+      </c>
+      <c r="K17" s="9"/>
       <c r="L17" s="10"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -2041,18 +2080,26 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="45"/>
+      <c r="B20" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8">
+        <v>1500</v>
+      </c>
+      <c r="K20" s="53"/>
       <c r="L20" s="10"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -2088,8 +2135,8 @@
       <c r="I21" s="18">
         <v>1500</v>
       </c>
-      <c r="J21" s="36">
-        <v>0</v>
+      <c r="J21" s="18" t="s">
+        <v>187</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
@@ -2207,8 +2254,8 @@
       <c r="I24" s="18">
         <v>7500</v>
       </c>
-      <c r="J24" s="36">
-        <v>0</v>
+      <c r="J24" s="18">
+        <v>7500</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="10"/>
@@ -2324,8 +2371,8 @@
       <c r="I27" s="18">
         <v>2500</v>
       </c>
-      <c r="J27" s="36">
-        <v>0</v>
+      <c r="J27" s="18">
+        <v>2500</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="10"/>
@@ -2402,8 +2449,8 @@
       <c r="I29" s="9">
         <v>2500</v>
       </c>
-      <c r="J29" s="35">
-        <v>0</v>
+      <c r="J29" s="9">
+        <v>2500</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="10"/>
@@ -2583,8 +2630,8 @@
       <c r="I34" s="8">
         <v>1500</v>
       </c>
-      <c r="J34" s="20">
-        <v>0</v>
+      <c r="J34" s="8">
+        <v>1500</v>
       </c>
       <c r="K34" s="24"/>
       <c r="L34" s="10"/>
@@ -2687,7 +2734,7 @@
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
-      <c r="K37" s="45"/>
+      <c r="K37" s="44"/>
       <c r="L37" s="10"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
@@ -2764,8 +2811,8 @@
       <c r="I39" s="18">
         <v>2500</v>
       </c>
-      <c r="J39" s="36">
-        <v>0</v>
+      <c r="J39" s="18">
+        <v>2500</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>148</v>
@@ -2805,8 +2852,8 @@
       <c r="I40" s="9">
         <v>2500</v>
       </c>
-      <c r="J40" s="35">
-        <v>0</v>
+      <c r="J40" s="9">
+        <v>2500</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="10"/>
@@ -2890,8 +2937,8 @@
       <c r="I43" s="9">
         <v>7500</v>
       </c>
-      <c r="J43" s="35">
-        <v>0</v>
+      <c r="J43" s="9">
+        <v>7500</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="10"/>
@@ -3009,8 +3056,8 @@
       <c r="I46" s="9">
         <v>2500</v>
       </c>
-      <c r="J46" s="35">
-        <v>0</v>
+      <c r="J46" s="9">
+        <v>2500</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="10"/>
@@ -3087,8 +3134,8 @@
       <c r="I48" s="9">
         <v>2500</v>
       </c>
-      <c r="J48" s="35">
-        <v>0</v>
+      <c r="J48" s="9">
+        <v>2500</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="10"/>
@@ -3126,8 +3173,8 @@
       <c r="I49" s="9">
         <v>2500</v>
       </c>
-      <c r="J49" s="35">
-        <v>0</v>
+      <c r="J49" s="9">
+        <v>2500</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="10"/>
@@ -3293,7 +3340,7 @@
       <c r="P53" s="12"/>
     </row>
     <row r="54" spans="1:16" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="48">
+      <c r="A54" s="47">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
@@ -3402,7 +3449,7 @@
         <v>3000</v>
       </c>
       <c r="J56" s="20">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="K56" s="24" t="s">
         <v>159</v>
@@ -3468,7 +3515,7 @@
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
       <c r="J58" s="38"/>
-      <c r="K58" s="45"/>
+      <c r="K58" s="44"/>
       <c r="L58" s="10"/>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
@@ -3491,7 +3538,7 @@
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
       <c r="J59" s="38"/>
-      <c r="K59" s="45"/>
+      <c r="K59" s="44"/>
       <c r="L59" s="10"/>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
@@ -3508,13 +3555,13 @@
       </c>
       <c r="C60" s="40"/>
       <c r="D60" s="41"/>
-      <c r="E60" s="46"/>
+      <c r="E60" s="45"/>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
       <c r="J60" s="38"/>
-      <c r="K60" s="45"/>
+      <c r="K60" s="44"/>
       <c r="L60" s="10"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
@@ -3571,10 +3618,10 @@
       <c r="C62" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E62" s="48" t="s">
         <v>12</v>
       </c>
       <c r="F62" s="16">
@@ -3736,7 +3783,7 @@
         <v>161</v>
       </c>
       <c r="J66" s="38"/>
-      <c r="K66" s="45"/>
+      <c r="K66" s="44"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
@@ -3767,8 +3814,8 @@
       <c r="I67" s="8">
         <v>2500</v>
       </c>
-      <c r="J67" s="20">
-        <v>0</v>
+      <c r="J67" s="8">
+        <v>2500</v>
       </c>
       <c r="K67" s="24"/>
     </row>
@@ -3807,7 +3854,7 @@
       <c r="K68" s="24"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="47">
+      <c r="A69" s="46">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
@@ -3889,9 +3936,9 @@
       <c r="E71" s="41"/>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
-      <c r="H71" s="50"/>
-      <c r="I71" s="50"/>
-      <c r="J71" s="50"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
       <c r="K71" s="42"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4397,8 +4444,8 @@
       <c r="I87" s="9">
         <v>7500</v>
       </c>
-      <c r="J87" s="35">
-        <v>0</v>
+      <c r="J87" s="9">
+        <v>2500</v>
       </c>
       <c r="K87" s="9" t="s">
         <v>179</v>
@@ -4595,8 +4642,8 @@
       <c r="I93" s="8">
         <v>1500</v>
       </c>
-      <c r="J93" s="20">
-        <v>0</v>
+      <c r="J93" s="8">
+        <v>2500</v>
       </c>
       <c r="K93" s="8"/>
     </row>
@@ -4669,20 +4716,20 @@
       <c r="K95" s="8"/>
     </row>
     <row r="96" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="52">
+      <c r="A96" s="51">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B96" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="C96" s="54" t="s">
+      <c r="C96" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D96" s="52" t="s">
+      <c r="D96" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E96" s="52" t="s">
+      <c r="E96" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F96" s="16" t="s">
@@ -4710,10 +4757,10 @@
         <v>176</v>
       </c>
       <c r="C97" s="6"/>
-      <c r="D97" s="49" t="s">
+      <c r="D97" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="49" t="s">
+      <c r="E97" s="48" t="s">
         <v>12</v>
       </c>
       <c r="F97" s="17">
@@ -4741,8 +4788,8 @@
         <v>177</v>
       </c>
       <c r="C98" s="6"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="49" t="s">
+      <c r="D98" s="48"/>
+      <c r="E98" s="48" t="s">
         <v>103</v>
       </c>
       <c r="F98" s="17">
@@ -4766,8 +4813,8 @@
       <c r="A99" s="5"/>
       <c r="B99" s="15"/>
       <c r="C99" s="6"/>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
@@ -4820,7 +4867,7 @@
       </c>
       <c r="J103" s="32">
         <f>COUNTIFS(E2:E98, "House", J2:J98, "&lt;&gt;0")</f>
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4846,7 +4893,7 @@
       </c>
       <c r="J104" s="32">
         <f>COUNTIFS(E2:E98, "Apartment", J2:J98, "&lt;&gt;0")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4856,23 +4903,23 @@
       </c>
       <c r="F105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", F2:F98, "&lt;&gt;0")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", G2:G98, "&lt;&gt;0.00")</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", H2:H98, "&lt;&gt;0")</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", I2:I98, "&lt;&gt;0")</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", J2:J98, "&lt;&gt;0")</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4916,7 +4963,7 @@
       </c>
       <c r="J110" s="32">
         <f>COUNTIFS(D2:D98, "1st Main", J2:J98, "&lt;&gt;0")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4925,23 +4972,23 @@
       </c>
       <c r="F111" s="32">
         <f>COUNTIFS(D2:D98, "2nd Main", F2:F98, "&lt;&gt;0")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G111" s="32">
         <f>COUNTIFS(D2:D98, "2nd Main", G2:G98, "&lt;&gt;0")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H111" s="32">
         <f>COUNTIFS(D2:D98, "2nd Main", H2:H98, "&lt;&gt;0")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I111" s="32">
         <f>COUNTIFS(D2:D98, "2nd Main", I2:I98, "&lt;&gt;0")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J111" s="32">
         <f>COUNTIFS(D2:D98, "2nd Main", J2:J98, "&lt;&gt;0")</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4966,7 +5013,7 @@
       </c>
       <c r="J112" s="32">
         <f>COUNTIFS(D2:D98, "3rd Main", J2:J98, "&lt;&gt;0")</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -4991,7 +5038,7 @@
       </c>
       <c r="J113" s="32">
         <f>COUNTIFS(D2:D98, "1st Cross", J2:J98, "&lt;&gt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -5016,7 +5063,7 @@
       </c>
       <c r="J114" s="32">
         <f>COUNTIFS(D2:D98, "2nd Cross", J2:J98, "&lt;&gt;0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -5041,7 +5088,7 @@
       </c>
       <c r="J115" s="32">
         <f>COUNTIFS(D2:D98, "3rd Cross", J2:J98, "&lt;&gt;0")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -5091,7 +5138,7 @@
       </c>
       <c r="J117" s="32">
         <f>COUNTIFS(D2:D98, "Seethammal Road", J2:J98, "&lt;&gt;0")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="197">
   <si>
     <t>S No</t>
   </si>
@@ -757,6 +757,19 @@
   </si>
   <si>
     <t>2B Rathna Apartment, S Daniel</t>
+  </si>
+  <si>
+    <t>Akshay Apartment</t>
+  </si>
+  <si>
+    <t>N Ravichandran
+Chandra Electricals</t>
+  </si>
+  <si>
+    <t>Sadhika Shankar Rao</t>
+  </si>
+  <si>
+    <t>M Saravanan</t>
   </si>
 </sst>
 </file>
@@ -829,7 +842,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -918,6 +931,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FFC2E0AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1034,12 +1053,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1049,6 +1063,13 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,7 +1359,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1633,7 @@
       <c r="J7" s="8">
         <v>1500</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="K7" s="49" t="s">
         <v>173</v>
       </c>
       <c r="L7" s="10"/>
@@ -1804,8 +1825,8 @@
       <c r="I12" s="8">
         <v>2500</v>
       </c>
-      <c r="J12" s="20">
-        <v>0</v>
+      <c r="J12" s="8">
+        <v>2500</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>170</v>
@@ -1897,14 +1918,14 @@
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54">
+      <c r="A15" s="51">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="52" t="s">
         <v>188</v>
       </c>
       <c r="D15" s="48" t="s">
@@ -1936,14 +1957,14 @@
       <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+      <c r="A16" s="51">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="52" t="s">
         <v>188</v>
       </c>
       <c r="D16" s="48" t="s">
@@ -1967,14 +1988,14 @@
       <c r="P16" s="12"/>
     </row>
     <row r="17" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+      <c r="A17" s="51">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="52" t="s">
         <v>188</v>
       </c>
       <c r="D17" s="48" t="s">
@@ -2080,10 +2101,10 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="52" t="s">
         <v>188</v>
       </c>
       <c r="D20" s="48" t="s">
@@ -2099,7 +2120,7 @@
       <c r="J20" s="8">
         <v>1500</v>
       </c>
-      <c r="K20" s="53"/>
+      <c r="K20" s="50"/>
       <c r="L20" s="10"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -2459,23 +2480,27 @@
       <c r="O29" s="11"/>
       <c r="P29" s="12"/>
     </row>
-    <row r="30" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
+    <row r="30" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="47">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
+      <c r="B30" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9">
+        <v>7500</v>
+      </c>
+      <c r="K30" s="9"/>
       <c r="L30" s="10"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -3290,8 +3315,8 @@
       <c r="I52" s="20">
         <v>0</v>
       </c>
-      <c r="J52" s="20">
-        <v>0</v>
+      <c r="J52" s="8">
+        <v>2500</v>
       </c>
       <c r="K52" s="24"/>
       <c r="L52" s="10"/>
@@ -3329,8 +3354,8 @@
       <c r="I53" s="8">
         <v>2500</v>
       </c>
-      <c r="J53" s="20">
-        <v>0</v>
+      <c r="J53" s="8">
+        <v>2500</v>
       </c>
       <c r="K53" s="24"/>
       <c r="L53" s="10"/>
@@ -3787,7 +3812,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <f t="shared" ref="A67:A96" si="2">A66+1</f>
+        <f t="shared" ref="A67:A99" si="2">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -3924,54 +3949,70 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="39">
+      <c r="A71" s="5">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B71" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="42"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="16">
+        <v>10000</v>
+      </c>
+      <c r="G71" s="19">
+        <v>0</v>
+      </c>
+      <c r="H71" s="18">
+        <v>10000</v>
+      </c>
+      <c r="I71" s="18">
+        <v>10000</v>
+      </c>
+      <c r="J71" s="18">
+        <v>10000</v>
+      </c>
+      <c r="K71" s="9"/>
+    </row>
+    <row r="72" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="16">
+        <v>103</v>
+      </c>
+      <c r="F72" s="8">
         <v>10000</v>
       </c>
-      <c r="G72" s="19">
-        <v>0</v>
-      </c>
-      <c r="H72" s="18">
-        <v>10000</v>
-      </c>
-      <c r="I72" s="18">
-        <v>10000</v>
-      </c>
-      <c r="J72" s="18">
-        <v>10000</v>
+      <c r="G72" s="20">
+        <v>0</v>
+      </c>
+      <c r="H72" s="35">
+        <v>0</v>
+      </c>
+      <c r="I72" s="35">
+        <v>0</v>
+      </c>
+      <c r="J72" s="9">
+        <v>1500</v>
       </c>
       <c r="K72" s="9"/>
     </row>
@@ -3981,7 +4022,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>19</v>
@@ -3990,22 +4031,14 @@
         <v>11</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G73" s="20">
-        <v>0</v>
-      </c>
-      <c r="H73" s="35">
-        <v>0</v>
-      </c>
-      <c r="I73" s="35">
-        <v>0</v>
-      </c>
-      <c r="J73" s="35">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="9">
+        <v>1500</v>
       </c>
       <c r="K73" s="9"/>
     </row>
@@ -4212,7 +4245,7 @@
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="39">
+      <c r="A80" s="5">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
@@ -4230,7 +4263,7 @@
       <c r="K80" s="42"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="39">
+      <c r="A81" s="5">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
@@ -4262,7 +4295,7 @@
       <c r="K81" s="42"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="39">
+      <c r="A82" s="5">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
@@ -4319,7 +4352,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>141</v>
@@ -4338,8 +4371,8 @@
       <c r="I84" s="9">
         <v>2500</v>
       </c>
-      <c r="J84" s="35">
-        <v>0</v>
+      <c r="J84" s="9">
+        <v>2500</v>
       </c>
       <c r="K84" s="9" t="s">
         <v>146</v>
@@ -4548,8 +4581,8 @@
       <c r="I90" s="22">
         <v>7500</v>
       </c>
-      <c r="J90" s="20">
-        <v>0</v>
+      <c r="J90" s="8">
+        <v>7500</v>
       </c>
       <c r="K90" s="24"/>
     </row>
@@ -4710,35 +4743,35 @@
       <c r="I95" s="8">
         <v>1500</v>
       </c>
-      <c r="J95" s="20">
-        <v>0</v>
+      <c r="J95" s="8">
+        <v>1500</v>
       </c>
       <c r="K95" s="8"/>
     </row>
     <row r="96" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="51">
+      <c r="A96" s="5">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B96" s="52" t="s">
+      <c r="B96" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="C96" s="53" t="s">
+      <c r="C96" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="D96" s="51" t="s">
+      <c r="D96" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E96" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="16" t="s">
+      <c r="E96" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G96" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="H96" s="16" t="s">
+      <c r="H96" s="17" t="s">
         <v>161</v>
       </c>
       <c r="I96" s="16">
@@ -4751,6 +4784,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B97" s="15" t="s">
@@ -4782,6 +4816,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B98" s="15" t="s">
@@ -4810,7 +4845,10 @@
       <c r="K98" s="9"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
+      <c r="A99" s="5">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
       <c r="B99" s="15"/>
       <c r="C99" s="6"/>
       <c r="D99" s="48"/>
@@ -4867,7 +4905,7 @@
       </c>
       <c r="J103" s="32">
         <f>COUNTIFS(E2:E98, "House", J2:J98, "&lt;&gt;0")</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4877,7 +4915,7 @@
       </c>
       <c r="F104" s="32">
         <f>COUNTIFS(E2:E98, "Apartment", F2:F98, "&lt;&gt;0")</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G104" s="32">
         <f>COUNTIFS(E2:E98, "Apartment", G2:G98, "&lt;&gt;0")</f>
@@ -4893,7 +4931,7 @@
       </c>
       <c r="J104" s="32">
         <f>COUNTIFS(E2:E98, "Apartment", J2:J98, "&lt;&gt;0")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4903,23 +4941,23 @@
       </c>
       <c r="F105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", F2:F98, "&lt;&gt;0")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", G2:G98, "&lt;&gt;0.00")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", H2:H98, "&lt;&gt;0")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", I2:I98, "&lt;&gt;0")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", J2:J98, "&lt;&gt;0")</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4963,7 +5001,7 @@
       </c>
       <c r="J110" s="32">
         <f>COUNTIFS(D2:D98, "1st Main", J2:J98, "&lt;&gt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -5013,7 +5051,7 @@
       </c>
       <c r="J112" s="32">
         <f>COUNTIFS(D2:D98, "3rd Main", J2:J98, "&lt;&gt;0")</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -5122,23 +5160,23 @@
       </c>
       <c r="F117" s="32">
         <f>COUNTIFS(D2:D98, "Seethammal Road", F2:F98, "&lt;&gt;0")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G117" s="32">
         <f>COUNTIFS(D2:D98, "Seethammal Road", G2:G98, "&lt;&gt;0")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H117" s="32">
         <f>COUNTIFS(D2:D98, "Seethammal Road", H2:H98, "&lt;&gt;0")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" s="32">
         <f>COUNTIFS(D2:D98, "Seethammal Road", I2:I98, "&lt;&gt;0")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J117" s="32">
         <f>COUNTIFS(D2:D98, "Seethammal Road", J2:J98, "&lt;&gt;0")</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="200">
   <si>
     <t>S No</t>
   </si>
@@ -706,9 +706,6 @@
     <t>Also has donated Rs1000 for buying dresses for Urbaser Sumeet employees + 2500 for subscription + 2024 Urbaser</t>
   </si>
   <si>
-    <t>A M Raja</t>
-  </si>
-  <si>
     <t>Maragathamani</t>
   </si>
   <si>
@@ -728,10 +725,6 @@
     <t>Narayanan Chettiyar (Ajay)</t>
   </si>
   <si>
-    <t>2022 Special Donation for pongal festival 
-2025 Donatin for pongalfest 20000</t>
-  </si>
-  <si>
     <t>S P Lakshmanan Chettiyar</t>
   </si>
   <si>
@@ -770,6 +763,23 @@
   </si>
   <si>
     <t>M Saravanan</t>
+  </si>
+  <si>
+    <t>A M Raja / C Raja</t>
+  </si>
+  <si>
+    <t>25-26: 2500 Subscription + Donation 2500 for Family meet</t>
+  </si>
+  <si>
+    <t>2022 Special Donation for pongal festival 
+2025 Donatin for pongalfest 20000
+2025-26 - Subscrp 7500+10K donation for cultural fest</t>
+  </si>
+  <si>
+    <t>25-26 - 2500 Subscr + 5K Donation cultural meet</t>
+  </si>
+  <si>
+    <t>H Pandiyan also donated 4K personally for 25 Cultural meet</t>
   </si>
 </sst>
 </file>
@@ -1356,10 +1366,10 @@
   <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1413,7 @@
         <v>149</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K1" s="24" t="s">
         <v>8</v>
@@ -1447,7 +1457,7 @@
       <c r="O2" s="11"/>
       <c r="P2" s="12"/>
     </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A34" si="0">A2+1</f>
         <v>2</v>
@@ -1479,7 +1489,9 @@
       <c r="J3" s="18">
         <v>7500</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -1591,8 +1603,8 @@
       <c r="I6" s="36">
         <v>0</v>
       </c>
-      <c r="J6" s="36">
-        <v>0</v>
+      <c r="J6" s="18">
+        <v>15000</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="10"/>
@@ -1867,9 +1879,11 @@
         <v>2500</v>
       </c>
       <c r="J13" s="9">
-        <v>2500</v>
-      </c>
-      <c r="K13" s="9"/>
+        <v>7500</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>198</v>
+      </c>
       <c r="L13" s="10"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -1909,7 +1923,7 @@
         <v>2500</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
@@ -1923,10 +1937,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D15" s="48" t="s">
         <v>34</v>
@@ -1962,10 +1976,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D16" s="48" t="s">
         <v>34</v>
@@ -1993,10 +2007,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>34</v>
@@ -2102,10 +2116,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>34</v>
@@ -2157,7 +2171,7 @@
         <v>1500</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
@@ -2356,7 +2370,7 @@
       <c r="J26" s="20">
         <v>0</v>
       </c>
-      <c r="K26" s="8"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="10"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -2486,10 +2500,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D30" s="48"/>
       <c r="E30" s="48"/>
@@ -2513,7 +2527,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>109</v>
@@ -2616,8 +2630,8 @@
       <c r="I33" s="8">
         <v>1500</v>
       </c>
-      <c r="J33" s="20">
-        <v>0</v>
+      <c r="J33" s="8">
+        <v>1500</v>
       </c>
       <c r="K33" s="24"/>
       <c r="L33" s="10"/>
@@ -3517,7 +3531,7 @@
       <c r="J57" s="20">
         <v>0</v>
       </c>
-      <c r="K57" s="8"/>
+      <c r="K57" s="9"/>
       <c r="L57" s="10"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
@@ -3816,7 +3830,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>118</v>
@@ -3910,9 +3924,9 @@
       <c r="J69" s="8">
         <v>2500</v>
       </c>
-      <c r="K69" s="8"/>
-    </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="K69" s="9"/>
+    </row>
+    <row r="70" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <f t="shared" si="2"/>
         <v>69</v>
@@ -3942,10 +3956,10 @@
         <v>22500</v>
       </c>
       <c r="J70" s="9">
-        <v>2500</v>
+        <v>17500</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4022,7 +4036,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>19</v>
@@ -4352,7 +4366,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>141</v>
@@ -4411,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4443,8 +4457,8 @@
       <c r="I86" s="18">
         <v>15000</v>
       </c>
-      <c r="J86" s="36">
-        <v>0</v>
+      <c r="J86" s="18">
+        <v>15000</v>
       </c>
       <c r="K86" s="9"/>
     </row>
@@ -4481,7 +4495,7 @@
         <v>2500</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4676,9 +4690,11 @@
         <v>1500</v>
       </c>
       <c r="J93" s="8">
-        <v>2500</v>
-      </c>
-      <c r="K93" s="8"/>
+        <v>5000</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="94" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
@@ -4712,7 +4728,7 @@
       <c r="J94" s="20">
         <v>0</v>
       </c>
-      <c r="K94" s="8"/>
+      <c r="K94" s="9"/>
     </row>
     <row r="95" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
@@ -4746,7 +4762,7 @@
       <c r="J95" s="8">
         <v>1500</v>
       </c>
-      <c r="K95" s="8"/>
+      <c r="K95" s="9"/>
     </row>
     <row r="96" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
@@ -4754,10 +4770,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C96" s="54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D96" s="55" t="s">
         <v>31</v>
@@ -4777,8 +4793,8 @@
       <c r="I96" s="16">
         <v>2500</v>
       </c>
-      <c r="J96" s="17">
-        <v>0</v>
+      <c r="J96" s="16">
+        <v>2500</v>
       </c>
       <c r="K96" s="9"/>
     </row>
@@ -4788,7 +4804,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="48" t="s">
@@ -4809,8 +4825,8 @@
       <c r="I97" s="16">
         <v>2500</v>
       </c>
-      <c r="J97" s="17">
-        <v>0</v>
+      <c r="J97" s="16">
+        <v>2500</v>
       </c>
       <c r="K97" s="9"/>
     </row>
@@ -4820,7 +4836,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="48"/>
@@ -4905,7 +4921,7 @@
       </c>
       <c r="J103" s="32">
         <f>COUNTIFS(E2:E98, "House", J2:J98, "&lt;&gt;0")</f>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4931,7 +4947,7 @@
       </c>
       <c r="J104" s="32">
         <f>COUNTIFS(E2:E98, "Apartment", J2:J98, "&lt;&gt;0")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -4957,7 +4973,7 @@
       </c>
       <c r="J105" s="32">
         <f>COUNTIFS(E2:E98, "Ind. Apartment", J2:J98, "&lt;&gt;0")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -5051,7 +5067,7 @@
       </c>
       <c r="J112" s="32">
         <f>COUNTIFS(D2:D98, "3rd Main", J2:J98, "&lt;&gt;0")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -5076,7 +5092,7 @@
       </c>
       <c r="J113" s="32">
         <f>COUNTIFS(D2:D98, "1st Cross", J2:J98, "&lt;&gt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -5126,7 +5142,7 @@
       </c>
       <c r="J115" s="32">
         <f>COUNTIFS(D2:D98, "3rd Cross", J2:J98, "&lt;&gt;0")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -5176,7 +5192,7 @@
       </c>
       <c r="J117" s="32">
         <f>COUNTIFS(D2:D98, "Seethammal Road", J2:J98, "&lt;&gt;0")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/scra/scra_pymt_history_from_2021.xlsx
+++ b/scra/scra_pymt_history_from_2021.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="202">
   <si>
     <t>S No</t>
   </si>
@@ -613,12 +613,6 @@
     <t>Flat 3rd Main Road</t>
   </si>
   <si>
-    <t>2500 Subscription + 10000 Pongalfest</t>
-  </si>
-  <si>
-    <t>Subscription 2500 + Pongalfest 5000</t>
-  </si>
-  <si>
     <t>2500 Subcription + Newsletter 3000</t>
   </si>
   <si>
@@ -700,9 +694,6 @@
     <t>Rs 1500/= Sreshta Tripura Apt Individual subscription + 2500/-for Family meet + subscription for 2025-26</t>
   </si>
   <si>
-    <t>2500/- for subscription + 2500/- for Family meet + 2024 Urbaser</t>
-  </si>
-  <si>
     <t>Also has donated Rs1000 for buying dresses for Urbaser Sumeet employees + 2500 for subscription + 2024 Urbaser</t>
   </si>
   <si>
@@ -771,15 +762,32 @@
     <t>25-26: 2500 Subscription + Donation 2500 for Family meet</t>
   </si>
   <si>
+    <t>25-26 - 2500 Subscr + 5K Donation cultural meet</t>
+  </si>
+  <si>
+    <t>H Pandiyan also donated 4K personally for 25 Cultural meet</t>
+  </si>
+  <si>
+    <t>2026- Pongalfest 5K + Subs</t>
+  </si>
+  <si>
+    <t>23-24 2500 Subscription + 10000 Pongalfest
+25-26 2500 Subscription + 10000 Pongalfest</t>
+  </si>
+  <si>
+    <t>23-24 2500 Subscription + 10000 Pongalfest
+25 -26 Same as aboave</t>
+  </si>
+  <si>
+    <t>Subscription 2500 + Pongalfest 5000 for years 23-24 and 25-26</t>
+  </si>
+  <si>
     <t>2022 Special Donation for pongal festival 
 2025 Donatin for pongalfest 20000
-2025-26 - Subscrp 7500+10K donation for cultural fest</t>
-  </si>
-  <si>
-    <t>25-26 - 2500 Subscr + 5K Donation cultural meet</t>
-  </si>
-  <si>
-    <t>H Pandiyan also donated 4K personally for 25 Cultural meet</t>
+2025-26 - Subscrp 7500+10K donation for cultural fest + 7500 for pongal fest</t>
+  </si>
+  <si>
+    <t>2500/- for subscription + 2500/- for Family meet + 2024 Urbaser 2026 pongalfest</t>
   </si>
 </sst>
 </file>
@@ -1366,10 +1374,10 @@
   <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
+      <selection pane="bottomRight" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,10 +1418,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K1" s="24" t="s">
         <v>8</v>
@@ -1490,7 +1498,7 @@
         <v>7500</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
@@ -1531,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="11"/>
@@ -1646,7 +1654,7 @@
         <v>1500</v>
       </c>
       <c r="K7" s="49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
@@ -1660,7 +1668,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>22</v>
@@ -1778,7 +1786,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>23</v>
@@ -1841,7 +1849,7 @@
         <v>2500</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="11"/>
@@ -1855,7 +1863,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>20</v>
@@ -1882,7 +1890,7 @@
         <v>7500</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="11"/>
@@ -1923,7 +1931,7 @@
         <v>2500</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
@@ -1937,10 +1945,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D15" s="48" t="s">
         <v>34</v>
@@ -1949,16 +1957,16 @@
         <v>103</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J15" s="9">
         <v>1500</v>
@@ -1976,10 +1984,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D16" s="48" t="s">
         <v>34</v>
@@ -2007,10 +2015,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>34</v>
@@ -2077,7 +2085,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>130</v>
@@ -2116,10 +2124,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>34</v>
@@ -2171,7 +2179,7 @@
         <v>1500</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
@@ -2213,7 +2221,7 @@
         <v>2500</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L22" s="10"/>
       <c r="M22" s="11"/>
@@ -2500,10 +2508,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="52" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D30" s="48"/>
       <c r="E30" s="48"/>
@@ -2527,7 +2535,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>109</v>
@@ -2554,7 +2562,7 @@
         <v>5000</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="11"/>
@@ -2685,7 +2693,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>120</v>
@@ -2763,7 +2771,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C37" s="40"/>
       <c r="D37" s="41"/>
@@ -2780,7 +2788,7 @@
       <c r="O37" s="11"/>
       <c r="P37" s="12"/>
     </row>
-    <row r="38" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -2809,11 +2817,11 @@
       <c r="I38" s="9">
         <v>2500</v>
       </c>
-      <c r="J38" s="35">
-        <v>0</v>
+      <c r="J38" s="9">
+        <v>12500</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="11"/>
@@ -2854,7 +2862,7 @@
         <v>2500</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="11"/>
@@ -2892,9 +2900,11 @@
         <v>2500</v>
       </c>
       <c r="J40" s="9">
-        <v>2500</v>
-      </c>
-      <c r="K40" s="9"/>
+        <v>7500</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="L40" s="10"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -2907,7 +2917,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C41" s="40"/>
       <c r="D41" s="41"/>
@@ -2930,7 +2940,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C42" s="40"/>
       <c r="D42" s="41"/>
@@ -3025,7 +3035,7 @@
       <c r="O44" s="11"/>
       <c r="P44" s="12"/>
     </row>
-    <row r="45" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -3055,10 +3065,10 @@
         <v>2500</v>
       </c>
       <c r="J45" s="9">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="11"/>
@@ -3134,8 +3144,8 @@
       <c r="I47" s="36">
         <v>0</v>
       </c>
-      <c r="J47" s="36">
-        <v>0</v>
+      <c r="J47" s="18">
+        <v>2500</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="10"/>
@@ -3384,7 +3394,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>115</v>
@@ -3447,10 +3457,10 @@
         <v>3500</v>
       </c>
       <c r="J55" s="8">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="11"/>
@@ -3491,7 +3501,7 @@
         <v>1500</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="11"/>
@@ -3544,7 +3554,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C58" s="40"/>
       <c r="D58" s="41"/>
@@ -3567,7 +3577,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C59" s="40"/>
       <c r="D59" s="41"/>
@@ -3590,7 +3600,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C60" s="40"/>
       <c r="D60" s="41"/>
@@ -3652,10 +3662,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D62" s="48" t="s">
         <v>58</v>
@@ -3764,7 +3774,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>78</v>
@@ -3798,28 +3808,28 @@
         <v>65</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E66" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F66" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G66" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H66" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J66" s="38"/>
       <c r="K66" s="44"/>
@@ -3830,7 +3840,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>118</v>
@@ -3867,7 +3877,7 @@
         <v>125</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>50</v>
@@ -3887,8 +3897,8 @@
       <c r="I68" s="22">
         <v>2500</v>
       </c>
-      <c r="J68" s="20">
-        <v>0</v>
+      <c r="J68" s="8">
+        <v>2500</v>
       </c>
       <c r="K68" s="24"/>
     </row>
@@ -3901,7 +3911,7 @@
         <v>61</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>11</v>
@@ -3956,10 +3966,10 @@
         <v>22500</v>
       </c>
       <c r="J70" s="9">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4036,7 +4046,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>19</v>
@@ -4128,7 +4138,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>28</v>
@@ -4264,7 +4274,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C80" s="40"/>
       <c r="D80" s="41"/>
@@ -4282,28 +4292,28 @@
         <v>80</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G81" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H81" s="42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I81" s="42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J81" s="42"/>
       <c r="K81" s="42"/>
@@ -4314,7 +4324,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C82" s="40"/>
       <c r="D82" s="41"/>
@@ -4360,13 +4370,13 @@
       </c>
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>141</v>
@@ -4386,10 +4396,10 @@
         <v>2500</v>
       </c>
       <c r="J84" s="9">
-        <v>2500</v>
+        <v>12500</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4425,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4495,7 +4505,7 @@
         <v>2500</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4606,7 +4616,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>112</v>
@@ -4638,10 +4648,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>11</v>
@@ -4666,10 +4676,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>11</v>
@@ -4693,7 +4703,7 @@
         <v>5000</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4705,7 +4715,7 @@
         <v>24</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>11</v>
@@ -4736,10 +4746,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>11</v>
@@ -4770,10 +4780,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C96" s="54" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D96" s="55" t="s">
         <v>31</v>
@@ -4782,13 +4792,13 @@
         <v>12</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I96" s="16">
         <v>2500</v>
@@ -4804,7 +4814,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="48" t="s">
@@ -4836,7 +4846,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="48"/>
@@ -4921,7 +4931,7 @@
       </c>
       <c r="J103" s="32">
         <f>COUNTIFS(E2:E98, "House", J2:J98, "&lt;&gt;0")</f>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -5067,7 +5077,7 @@
       </c>
       <c r="J112" s="32">
         <f>COUNTIFS(D2:D98, "3rd Main", J2:J98, "&lt;&gt;0")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
